--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3297249871537861</v>
+        <v>0.3295464829134293</v>
       </c>
       <c r="C2">
-        <v>0.3302993269306075</v>
+        <v>0.3315453850542985</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37.71332463036718</v>
+        <v>37.7361483407898</v>
       </c>
       <c r="C3">
-        <v>37.64607355766051</v>
+        <v>37.50639873651109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -434,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>691.870173503096</v>
+        <v>726.4443146190338</v>
       </c>
       <c r="C4">
-        <v>718.1389266885387</v>
+        <v>704.6379668677685</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -445,10 +445,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59.84282295880763</v>
+        <v>64.97669061914591</v>
       </c>
       <c r="C5">
-        <v>63.57079088919234</v>
+        <v>61.91421887264984</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -456,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18656.79034937239</v>
+        <v>21448.10425557612</v>
       </c>
       <c r="C6">
-        <v>20679.3095420367</v>
+        <v>19736.43690544223</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0009668533663107102</v>
+        <v>-0.006937442698816025</v>
       </c>
       <c r="C7">
-        <v>0.00236232091405558</v>
+        <v>-0.01842710543245034</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -478,10 +478,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>992.2711163236534</v>
+        <v>1588.221000466593</v>
       </c>
       <c r="C8">
-        <v>1531.292849193475</v>
+        <v>1538.056307888663</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1803.425350374411</v>
+        <v>1873.314312147222</v>
       </c>
       <c r="C9">
-        <v>1855.04202223915</v>
+        <v>1831.952194209138</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -500,10 +500,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.0009820579203338277</v>
+        <v>-0.00762233167811645</v>
       </c>
       <c r="C10">
-        <v>0.002590012287601799</v>
+        <v>-0.01990686176078774</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -511,10 +511,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1078.395649440738</v>
+        <v>1743.180212615688</v>
       </c>
       <c r="C11">
-        <v>1673.780082697602</v>
+        <v>1671.817174129244</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -522,10 +522,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-3.938125550722201</v>
+        <v>-3.938369373648492</v>
       </c>
       <c r="C12">
-        <v>-3.938478116679775</v>
+        <v>-3.938136514261241</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -533,10 +533,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.871572517074733</v>
+        <v>-1.586598479324239</v>
       </c>
       <c r="C13">
-        <v>-1.644953492318784</v>
+        <v>-1.691806061379883</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -544,10 +544,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.819000901236365</v>
+        <v>-1.533741592974951</v>
       </c>
       <c r="C14">
-        <v>-1.591890667486035</v>
+        <v>-1.638036194719044</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -555,10 +555,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.523649053796506</v>
+        <v>1.827699465915042</v>
       </c>
       <c r="C15">
-        <v>1.780233860087454</v>
+        <v>1.779706249024903</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3295464829134293</v>
+        <v>0.3307615370658065</v>
       </c>
       <c r="C2">
-        <v>0.3315453850542985</v>
+        <v>0.3317961784535173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37.7361483407898</v>
+        <v>37.573121611037</v>
       </c>
       <c r="C3">
-        <v>37.50639873651109</v>
+        <v>37.46721918401393</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -434,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>726.4443146190338</v>
+        <v>695.1743822837677</v>
       </c>
       <c r="C4">
-        <v>704.6379668677685</v>
+        <v>694.5733146210603</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -445,10 +445,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64.97669061914591</v>
+        <v>60.79136373390147</v>
       </c>
       <c r="C5">
-        <v>61.91421887264984</v>
+        <v>60.58559882360898</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -456,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21448.10425557612</v>
+        <v>19110.20413151697</v>
       </c>
       <c r="C6">
-        <v>19736.43690544223</v>
+        <v>19011.04080735726</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.006937442698816025</v>
+        <v>-0.1070061023741838</v>
       </c>
       <c r="C7">
-        <v>-0.01842710543245034</v>
+        <v>0.02777048335857713</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -478,10 +478,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1588.221000466593</v>
+        <v>1439.023794995214</v>
       </c>
       <c r="C8">
-        <v>1538.056307888663</v>
+        <v>1283.983008216596</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1873.314312147222</v>
+        <v>1814.782667572592</v>
       </c>
       <c r="C9">
-        <v>1831.952194209138</v>
+        <v>1813.463598285369</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -500,10 +500,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.00762233167811645</v>
+        <v>-0.1162134587908634</v>
       </c>
       <c r="C10">
-        <v>-0.01990686176078774</v>
+        <v>0.03013246110525187</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -511,10 +511,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1743.180212615688</v>
+        <v>1560.615391370239</v>
       </c>
       <c r="C11">
-        <v>1671.817174129244</v>
+        <v>1393.625188154199</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -522,10 +522,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-3.938369373648492</v>
+        <v>-3.938413362481739</v>
       </c>
       <c r="C12">
-        <v>-3.938136514261241</v>
+        <v>-3.937916734372739</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -533,10 +533,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.586598479324239</v>
+        <v>-1.969696105011233</v>
       </c>
       <c r="C13">
-        <v>-1.691806061379883</v>
+        <v>-1.468862861956752</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -544,10 +544,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.533741592974951</v>
+        <v>-1.91631621329432</v>
       </c>
       <c r="C14">
-        <v>-1.638036194719044</v>
+        <v>-1.415118491830098</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -555,10 +555,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.827699465915042</v>
+        <v>1.473401918508976</v>
       </c>
       <c r="C15">
-        <v>1.779706249024903</v>
+        <v>1.999710908679064</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -390,185 +390,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3307615370658065</v>
-      </c>
-      <c r="C2">
-        <v>0.3317961784535173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.330175302796987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37.573121611037</v>
-      </c>
-      <c r="C3">
-        <v>37.46721918401393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>37.67534303548216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>695.1743822837677</v>
-      </c>
-      <c r="C4">
-        <v>694.5733146210603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>942.5614073070984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60.79136373390147</v>
-      </c>
-      <c r="C5">
-        <v>60.58559882360898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>108.4618374190834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19110.20413151697</v>
-      </c>
-      <c r="C6">
-        <v>19011.04080735726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>52402.88008616195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.1070061023741838</v>
-      </c>
-      <c r="C7">
-        <v>0.02777048335857713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>2454.100102838397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1439.023794995214</v>
-      </c>
-      <c r="C8">
-        <v>1283.983008216596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1992.735548603491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1814.782667572592</v>
-      </c>
-      <c r="C9">
-        <v>1813.463598285369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>418.7325257263029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.1162134587908634</v>
-      </c>
-      <c r="C10">
-        <v>0.03013246110525187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>2026.407514986833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1560.615391370239</v>
-      </c>
-      <c r="C11">
-        <v>1393.625188154199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>2941.891519169702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-3.938413362481739</v>
-      </c>
-      <c r="C12">
-        <v>-3.937916734372739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-72.29922816759412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.969696105011233</v>
-      </c>
-      <c r="C13">
-        <v>-1.468862861956752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-1.664808906372224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.91631621329432</v>
-      </c>
-      <c r="C14">
-        <v>-1.415118491830098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-1.611548195128604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.473401918508976</v>
-      </c>
-      <c r="C15">
-        <v>1.999710908679064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1.772852097089415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
         <v>2</v>
       </c>
     </row>

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -390,137 +390,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.330175302796987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.3308430057939454</v>
+      </c>
+      <c r="C2">
+        <v>0.3315278994243716</v>
+      </c>
+      <c r="D2">
+        <v>0.330267589732521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37.67534303548216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>37.57245311268169</v>
+      </c>
+      <c r="C3">
+        <v>37.52368104616776</v>
+      </c>
+      <c r="D3">
+        <v>37.65933160884434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>942.5614073070984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>940.6860260760618</v>
+      </c>
+      <c r="C4">
+        <v>937.7862151242216</v>
+      </c>
+      <c r="D4">
+        <v>942.0001191384682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>108.4618374190834</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>108.2715720221538</v>
+      </c>
+      <c r="C5">
+        <v>108.0517371202193</v>
+      </c>
+      <c r="D5">
+        <v>108.3869709439199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52402.88008616195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>52203.84692149153</v>
+      </c>
+      <c r="C6">
+        <v>51960.3600248947</v>
+      </c>
+      <c r="D6">
+        <v>52336.75980028456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2454.100102838397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>2817.555696302155</v>
+      </c>
+      <c r="C7">
+        <v>2444.94224178322</v>
+      </c>
+      <c r="D7">
+        <v>2415.749185908342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1992.735548603491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>2038.632092772528</v>
+      </c>
+      <c r="C8">
+        <v>2048.812036754298</v>
+      </c>
+      <c r="D8">
+        <v>1664.938583431613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>418.7325257263029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>418.1121700421473</v>
+      </c>
+      <c r="C9">
+        <v>417.0320832440725</v>
+      </c>
+      <c r="D9">
+        <v>419.1212964195619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2026.407514986833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>3337.840084422714</v>
+      </c>
+      <c r="C10">
+        <v>2123.808792864059</v>
+      </c>
+      <c r="D10">
+        <v>2744.28621137051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2941.891519169702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>3537.89820132659</v>
+      </c>
+      <c r="C11">
+        <v>4395.098567625923</v>
+      </c>
+      <c r="D11">
+        <v>3364.393113022588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-72.29922816759412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-71.88296147203194</v>
+      </c>
+      <c r="C12">
+        <v>-71.14679087168878</v>
+      </c>
+      <c r="D12">
+        <v>-71.66670849231727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.664808906372224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-1.843689837849373</v>
+      </c>
+      <c r="C13">
+        <v>-1.658559319876139</v>
+      </c>
+      <c r="D13">
+        <v>-1.454410208617671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.611548195128604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-1.79047152084141</v>
+      </c>
+      <c r="C14">
+        <v>-1.604692930055543</v>
+      </c>
+      <c r="D14">
+        <v>-1.40131271369712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.772852097089415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1.594413205794632</v>
+      </c>
+      <c r="C15">
+        <v>1.813549133467005</v>
+      </c>
+      <c r="D15">
+        <v>1.973345189828925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
     </row>

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -390,13 +390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:26">
       <c r="A1">
         <v>0</v>
       </c>
@@ -409,204 +409,1194 @@
       <c r="D1">
         <v>3</v>
       </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3308430057939454</v>
+        <v>0.3308412651911598</v>
       </c>
       <c r="C2">
-        <v>0.3315278994243716</v>
+        <v>0.3306015090716298</v>
       </c>
       <c r="D2">
-        <v>0.330267589732521</v>
+        <v>0.3309861959862554</v>
+      </c>
+      <c r="E2">
+        <v>0.3310665084834603</v>
+      </c>
+      <c r="F2">
+        <v>0.3309148380140436</v>
+      </c>
+      <c r="G2">
+        <v>0.3299777386720321</v>
+      </c>
+      <c r="H2">
+        <v>0.3304683291789891</v>
+      </c>
+      <c r="I2">
+        <v>0.3303587264902083</v>
+      </c>
+      <c r="J2">
+        <v>0.3298405885476698</v>
+      </c>
+      <c r="K2">
+        <v>0.3288760956857318</v>
+      </c>
+      <c r="L2">
+        <v>0.3304708176209367</v>
+      </c>
+      <c r="M2">
+        <v>0.3311158162828593</v>
+      </c>
+      <c r="N2">
+        <v>0.3309580121952422</v>
+      </c>
+      <c r="O2">
+        <v>0.330420245114218</v>
+      </c>
+      <c r="P2">
+        <v>0.3324796649001385</v>
+      </c>
+      <c r="Q2">
+        <v>0.3314827890733741</v>
+      </c>
+      <c r="R2">
+        <v>0.3295894005618479</v>
+      </c>
+      <c r="S2">
+        <v>0.3297314342675339</v>
+      </c>
+      <c r="T2">
+        <v>0.3302479870032424</v>
+      </c>
+      <c r="U2">
+        <v>0.3290362228984869</v>
+      </c>
+      <c r="V2">
+        <v>0.3295373259145071</v>
+      </c>
+      <c r="W2">
+        <v>0.332210078067991</v>
+      </c>
+      <c r="X2">
+        <v>0.3306722870313438</v>
+      </c>
+      <c r="Y2">
+        <v>0.3329387850666813</v>
+      </c>
+      <c r="Z2">
+        <v>0.3304607792497125</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37.57245311268169</v>
+        <v>37.6026856898841</v>
       </c>
       <c r="C3">
-        <v>37.52368104616776</v>
+        <v>37.61647844005643</v>
       </c>
       <c r="D3">
-        <v>37.65933160884434</v>
+        <v>37.58890884447254</v>
+      </c>
+      <c r="E3">
+        <v>37.56988860894939</v>
+      </c>
+      <c r="F3">
+        <v>37.60330376730666</v>
+      </c>
+      <c r="G3">
+        <v>37.69858334625117</v>
+      </c>
+      <c r="H3">
+        <v>37.64817359585678</v>
+      </c>
+      <c r="I3">
+        <v>37.65677766730263</v>
+      </c>
+      <c r="J3">
+        <v>37.70332415758563</v>
+      </c>
+      <c r="K3">
+        <v>37.83389380864907</v>
+      </c>
+      <c r="L3">
+        <v>37.66341506407589</v>
+      </c>
+      <c r="M3">
+        <v>37.55572584308062</v>
+      </c>
+      <c r="N3">
+        <v>37.61614342807627</v>
+      </c>
+      <c r="O3">
+        <v>37.65642342784001</v>
+      </c>
+      <c r="P3">
+        <v>37.40740100141932</v>
+      </c>
+      <c r="Q3">
+        <v>37.51412621091004</v>
+      </c>
+      <c r="R3">
+        <v>37.73611181844139</v>
+      </c>
+      <c r="S3">
+        <v>37.74654274644631</v>
+      </c>
+      <c r="T3">
+        <v>37.67963760623424</v>
+      </c>
+      <c r="U3">
+        <v>37.79441148108779</v>
+      </c>
+      <c r="V3">
+        <v>37.74262472480572</v>
+      </c>
+      <c r="W3">
+        <v>37.44261692403803</v>
+      </c>
+      <c r="X3">
+        <v>37.61930360776196</v>
+      </c>
+      <c r="Y3">
+        <v>37.35268883369273</v>
+      </c>
+      <c r="Z3">
+        <v>37.65953202269483</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>940.6860260760618</v>
+        <v>940.5727937886202</v>
       </c>
       <c r="C4">
-        <v>937.7862151242216</v>
+        <v>941.0967627647242</v>
       </c>
       <c r="D4">
-        <v>942.0001191384682</v>
+        <v>940.0588903616571</v>
+      </c>
+      <c r="E4">
+        <v>939.3498176226873</v>
+      </c>
+      <c r="F4">
+        <v>940.8187092430761</v>
+      </c>
+      <c r="G4">
+        <v>943.3031838701698</v>
+      </c>
+      <c r="H4">
+        <v>941.3131785593345</v>
+      </c>
+      <c r="I4">
+        <v>942.4624381235302</v>
+      </c>
+      <c r="J4">
+        <v>943.5657767940634</v>
+      </c>
+      <c r="K4">
+        <v>946.7209807123247</v>
+      </c>
+      <c r="L4">
+        <v>942.0828027590837</v>
+      </c>
+      <c r="M4">
+        <v>939.5676473625722</v>
+      </c>
+      <c r="N4">
+        <v>940.6548913733176</v>
+      </c>
+      <c r="O4">
+        <v>942.5680458017771</v>
+      </c>
+      <c r="P4">
+        <v>934.5611941664305</v>
+      </c>
+      <c r="Q4">
+        <v>938.4078402832247</v>
+      </c>
+      <c r="R4">
+        <v>944.0899298385709</v>
+      </c>
+      <c r="S4">
+        <v>944.291162093177</v>
+      </c>
+      <c r="T4">
+        <v>942.452134133113</v>
+      </c>
+      <c r="U4">
+        <v>945.9275649694421</v>
+      </c>
+      <c r="V4">
+        <v>944.5953133569601</v>
+      </c>
+      <c r="W4">
+        <v>935.8666442677602</v>
+      </c>
+      <c r="X4">
+        <v>940.805205188177</v>
+      </c>
+      <c r="Y4">
+        <v>933.3043729421065</v>
+      </c>
+      <c r="Z4">
+        <v>942.1425210668376</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>108.2715720221538</v>
+        <v>108.409323006963</v>
       </c>
       <c r="C5">
-        <v>108.0517371202193</v>
+        <v>108.2189832131974</v>
       </c>
       <c r="D5">
-        <v>108.3869709439199</v>
+        <v>108.2507577162262</v>
+      </c>
+      <c r="E5">
+        <v>108.2486099855835</v>
+      </c>
+      <c r="F5">
+        <v>108.2019922957576</v>
+      </c>
+      <c r="G5">
+        <v>108.5561930783004</v>
+      </c>
+      <c r="H5">
+        <v>108.1839083143492</v>
+      </c>
+      <c r="I5">
+        <v>108.3628416312944</v>
+      </c>
+      <c r="J5">
+        <v>108.5392646975983</v>
+      </c>
+      <c r="K5">
+        <v>108.9580543614782</v>
+      </c>
+      <c r="L5">
+        <v>108.3763949898037</v>
+      </c>
+      <c r="M5">
+        <v>108.1270905268422</v>
+      </c>
+      <c r="N5">
+        <v>108.2567504547843</v>
+      </c>
+      <c r="O5">
+        <v>108.3754798109938</v>
+      </c>
+      <c r="P5">
+        <v>107.5203756430313</v>
+      </c>
+      <c r="Q5">
+        <v>108.115198790508</v>
+      </c>
+      <c r="R5">
+        <v>108.5664911784511</v>
+      </c>
+      <c r="S5">
+        <v>108.5120699175729</v>
+      </c>
+      <c r="T5">
+        <v>108.4565186696584</v>
+      </c>
+      <c r="U5">
+        <v>108.8906794959638</v>
+      </c>
+      <c r="V5">
+        <v>108.7067556125616</v>
+      </c>
+      <c r="W5">
+        <v>107.6461431501121</v>
+      </c>
+      <c r="X5">
+        <v>108.2169610931006</v>
+      </c>
+      <c r="Y5">
+        <v>107.5065721900693</v>
+      </c>
+      <c r="Z5">
+        <v>108.3668385264612</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52203.84692149153</v>
+        <v>52296.75973621262</v>
       </c>
       <c r="C6">
-        <v>51960.3600248947</v>
+        <v>52179.05698205717</v>
       </c>
       <c r="D6">
-        <v>52336.75980028456</v>
+        <v>52169.27261577638</v>
+      </c>
+      <c r="E6">
+        <v>52140.28071734324</v>
+      </c>
+      <c r="F6">
+        <v>52154.85402258941</v>
+      </c>
+      <c r="G6">
+        <v>52500.9257070702</v>
+      </c>
+      <c r="H6">
+        <v>52156.42609502432</v>
+      </c>
+      <c r="I6">
+        <v>52320.41797230429</v>
+      </c>
+      <c r="J6">
+        <v>52485.86826535755</v>
+      </c>
+      <c r="K6">
+        <v>52893.13030503585</v>
+      </c>
+      <c r="L6">
+        <v>52320.94633153323</v>
+      </c>
+      <c r="M6">
+        <v>52057.38922112674</v>
+      </c>
+      <c r="N6">
+        <v>52202.2595854464</v>
+      </c>
+      <c r="O6">
+        <v>52340.81226923713</v>
+      </c>
+      <c r="P6">
+        <v>51497.50386726287</v>
+      </c>
+      <c r="Q6">
+        <v>52013.58538541062</v>
+      </c>
+      <c r="R6">
+        <v>52528.25916037607</v>
+      </c>
+      <c r="S6">
+        <v>52494.83626242854</v>
+      </c>
+      <c r="T6">
+        <v>52395.73518963327</v>
+      </c>
+      <c r="U6">
+        <v>52808.65127637103</v>
+      </c>
+      <c r="V6">
+        <v>52645.73397207011</v>
+      </c>
+      <c r="W6">
+        <v>51621.61805214352</v>
+      </c>
+      <c r="X6">
+        <v>52181.64405059872</v>
+      </c>
+      <c r="Y6">
+        <v>51438.35248666591</v>
+      </c>
+      <c r="Z6">
+        <v>52317.98298710082</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2817.555696302155</v>
+        <v>2656.132682717412</v>
       </c>
       <c r="C7">
-        <v>2444.94224178322</v>
+        <v>3233.864289194662</v>
       </c>
       <c r="D7">
-        <v>2415.749185908342</v>
+        <v>2839.869339722895</v>
+      </c>
+      <c r="E7">
+        <v>3293.969765496182</v>
+      </c>
+      <c r="F7">
+        <v>3049.402213298834</v>
+      </c>
+      <c r="G7">
+        <v>1910.457099037971</v>
+      </c>
+      <c r="H7">
+        <v>3394.180384294353</v>
+      </c>
+      <c r="I7">
+        <v>2611.301287123919</v>
+      </c>
+      <c r="J7">
+        <v>2956.90719320303</v>
+      </c>
+      <c r="K7">
+        <v>1918.705343213926</v>
+      </c>
+      <c r="L7">
+        <v>3089.210718477125</v>
+      </c>
+      <c r="M7">
+        <v>3456.983834972973</v>
+      </c>
+      <c r="N7">
+        <v>1824.069264615599</v>
+      </c>
+      <c r="O7">
+        <v>2688.824415003176</v>
+      </c>
+      <c r="P7">
+        <v>2131.550610455245</v>
+      </c>
+      <c r="Q7">
+        <v>3110.138152476022</v>
+      </c>
+      <c r="R7">
+        <v>2282.430607154814</v>
+      </c>
+      <c r="S7">
+        <v>2638.004482991204</v>
+      </c>
+      <c r="T7">
+        <v>2860.196027545719</v>
+      </c>
+      <c r="U7">
+        <v>2777.75481292315</v>
+      </c>
+      <c r="V7">
+        <v>2166.388662879926</v>
+      </c>
+      <c r="W7">
+        <v>2678.496394011786</v>
+      </c>
+      <c r="X7">
+        <v>2331.465459679528</v>
+      </c>
+      <c r="Y7">
+        <v>2450.285630407299</v>
+      </c>
+      <c r="Z7">
+        <v>2970.505355546186</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2038.632092772528</v>
+        <v>1886.581615043594</v>
       </c>
       <c r="C8">
-        <v>2048.812036754298</v>
+        <v>1818.727832545421</v>
       </c>
       <c r="D8">
-        <v>1664.938583431613</v>
+        <v>1966.559332703682</v>
+      </c>
+      <c r="E8">
+        <v>1645.570490775785</v>
+      </c>
+      <c r="F8">
+        <v>2387.875238220753</v>
+      </c>
+      <c r="G8">
+        <v>1400.012280301944</v>
+      </c>
+      <c r="H8">
+        <v>2588.661478119214</v>
+      </c>
+      <c r="I8">
+        <v>3048.269757331725</v>
+      </c>
+      <c r="J8">
+        <v>1554.771063497869</v>
+      </c>
+      <c r="K8">
+        <v>1397.458947654269</v>
+      </c>
+      <c r="L8">
+        <v>1749.611080245301</v>
+      </c>
+      <c r="M8">
+        <v>2274.693908467363</v>
+      </c>
+      <c r="N8">
+        <v>1487.88547727646</v>
+      </c>
+      <c r="O8">
+        <v>1665.934863806598</v>
+      </c>
+      <c r="P8">
+        <v>768.6506045620273</v>
+      </c>
+      <c r="Q8">
+        <v>2164.163106586344</v>
+      </c>
+      <c r="R8">
+        <v>2160.861870249109</v>
+      </c>
+      <c r="S8">
+        <v>1837.195193452909</v>
+      </c>
+      <c r="T8">
+        <v>989.0254605814326</v>
+      </c>
+      <c r="U8">
+        <v>2160.421756679783</v>
+      </c>
+      <c r="V8">
+        <v>1550.175180571885</v>
+      </c>
+      <c r="W8">
+        <v>1059.522526290143</v>
+      </c>
+      <c r="X8">
+        <v>1530.776955797806</v>
+      </c>
+      <c r="Y8">
+        <v>1680.667937026263</v>
+      </c>
+      <c r="Z8">
+        <v>1935.07982633823</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>418.1121700421473</v>
+        <v>419.9061587117278</v>
       </c>
       <c r="C9">
-        <v>417.0320832440725</v>
+        <v>418.2455171409873</v>
       </c>
       <c r="D9">
-        <v>419.1212964195619</v>
+        <v>418.0645656545552</v>
+      </c>
+      <c r="E9">
+        <v>418.127070638816</v>
+      </c>
+      <c r="F9">
+        <v>418.100549856349</v>
+      </c>
+      <c r="G9">
+        <v>420.0999898903666</v>
+      </c>
+      <c r="H9">
+        <v>418.1428550176486</v>
+      </c>
+      <c r="I9">
+        <v>419.8613454937362</v>
+      </c>
+      <c r="J9">
+        <v>418.7358177005075</v>
+      </c>
+      <c r="K9">
+        <v>421.8618055164723</v>
+      </c>
+      <c r="L9">
+        <v>419.0736235182031</v>
+      </c>
+      <c r="M9">
+        <v>416.5030082944917</v>
+      </c>
+      <c r="N9">
+        <v>417.8143613463967</v>
+      </c>
+      <c r="O9">
+        <v>417.9021121679828</v>
+      </c>
+      <c r="P9">
+        <v>413.4573456048512</v>
+      </c>
+      <c r="Q9">
+        <v>416.560641698399</v>
+      </c>
+      <c r="R9">
+        <v>418.9964184641357</v>
+      </c>
+      <c r="S9">
+        <v>420.1351869995174</v>
+      </c>
+      <c r="T9">
+        <v>418.4844149633024</v>
+      </c>
+      <c r="U9">
+        <v>422.4362525153549</v>
+      </c>
+      <c r="V9">
+        <v>420.8135315613717</v>
+      </c>
+      <c r="W9">
+        <v>415.2475826862096</v>
+      </c>
+      <c r="X9">
+        <v>419.4263901776624</v>
+      </c>
+      <c r="Y9">
+        <v>413.2782999561436</v>
+      </c>
+      <c r="Z9">
+        <v>418.159472833941</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3337.840084422714</v>
+        <v>1891.009078142638</v>
       </c>
       <c r="C10">
-        <v>2123.808792864059</v>
+        <v>2812.775966966888</v>
       </c>
       <c r="D10">
-        <v>2744.28621137051</v>
+        <v>3138.889671599916</v>
+      </c>
+      <c r="E10">
+        <v>3085.781384228839</v>
+      </c>
+      <c r="F10">
+        <v>3256.382129012552</v>
+      </c>
+      <c r="G10">
+        <v>1434.861707168371</v>
+      </c>
+      <c r="H10">
+        <v>3162.219162610229</v>
+      </c>
+      <c r="I10">
+        <v>2760.960392570172</v>
+      </c>
+      <c r="J10">
+        <v>2226.312654457247</v>
+      </c>
+      <c r="K10">
+        <v>414.7847971533441</v>
+      </c>
+      <c r="L10">
+        <v>2366.107759080706</v>
+      </c>
+      <c r="M10">
+        <v>3511.036032320933</v>
+      </c>
+      <c r="N10">
+        <v>811.5911643498944</v>
+      </c>
+      <c r="O10">
+        <v>2710.913202051585</v>
+      </c>
+      <c r="P10">
+        <v>1778.133463471903</v>
+      </c>
+      <c r="Q10">
+        <v>3025.216951318089</v>
+      </c>
+      <c r="R10">
+        <v>1371.817236867345</v>
+      </c>
+      <c r="S10">
+        <v>2021.079976766879</v>
+      </c>
+      <c r="T10">
+        <v>2304.393017990417</v>
+      </c>
+      <c r="U10">
+        <v>2817.104265140621</v>
+      </c>
+      <c r="V10">
+        <v>2006.460378968996</v>
+      </c>
+      <c r="W10">
+        <v>2609.072841664622</v>
+      </c>
+      <c r="X10">
+        <v>2113.349044628165</v>
+      </c>
+      <c r="Y10">
+        <v>2430.630868150937</v>
+      </c>
+      <c r="Z10">
+        <v>2663.465697357442</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3537.89820132659</v>
+        <v>2533.656650032545</v>
       </c>
       <c r="C11">
-        <v>4395.098567625923</v>
+        <v>3107.580524319611</v>
       </c>
       <c r="D11">
-        <v>3364.393113022588</v>
+        <v>4402.933556309809</v>
+      </c>
+      <c r="E11">
+        <v>2799.335520496079</v>
+      </c>
+      <c r="F11">
+        <v>3173.138465677314</v>
+      </c>
+      <c r="G11">
+        <v>1996.210451085687</v>
+      </c>
+      <c r="H11">
+        <v>4474.308239013018</v>
+      </c>
+      <c r="I11">
+        <v>3710.813293601413</v>
+      </c>
+      <c r="J11">
+        <v>3017.127848500992</v>
+      </c>
+      <c r="K11">
+        <v>2667.274678115339</v>
+      </c>
+      <c r="L11">
+        <v>3010.576378127921</v>
+      </c>
+      <c r="M11">
+        <v>3257.996138954894</v>
+      </c>
+      <c r="N11">
+        <v>2013.267974719977</v>
+      </c>
+      <c r="O11">
+        <v>4057.310339229131</v>
+      </c>
+      <c r="P11">
+        <v>2009.872487146828</v>
+      </c>
+      <c r="Q11">
+        <v>4330.459096132106</v>
+      </c>
+      <c r="R11">
+        <v>3176.453557274619</v>
+      </c>
+      <c r="S11">
+        <v>2391.517425191952</v>
+      </c>
+      <c r="T11">
+        <v>3082.279044436781</v>
+      </c>
+      <c r="U11">
+        <v>3112.014855921025</v>
+      </c>
+      <c r="V11">
+        <v>2379.647870108894</v>
+      </c>
+      <c r="W11">
+        <v>1959.842319319543</v>
+      </c>
+      <c r="X11">
+        <v>2510.401415790135</v>
+      </c>
+      <c r="Y11">
+        <v>1554.401281719805</v>
+      </c>
+      <c r="Z11">
+        <v>3032.692712186258</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-71.88296147203194</v>
+        <v>-70.44915012786502</v>
       </c>
       <c r="C12">
-        <v>-71.14679087168878</v>
+        <v>-71.35261252349258</v>
       </c>
       <c r="D12">
-        <v>-71.66670849231727</v>
+        <v>-71.00141876693114</v>
+      </c>
+      <c r="E12">
+        <v>-70.98166407623695</v>
+      </c>
+      <c r="F12">
+        <v>-70.98078360012809</v>
+      </c>
+      <c r="G12">
+        <v>-71.83104218285803</v>
+      </c>
+      <c r="H12">
+        <v>-71.64965540420383</v>
+      </c>
+      <c r="I12">
+        <v>-70.63180498615938</v>
+      </c>
+      <c r="J12">
+        <v>-73.0177730966997</v>
+      </c>
+      <c r="K12">
+        <v>-71.40976854407828</v>
+      </c>
+      <c r="L12">
+        <v>-72.00690842096671</v>
+      </c>
+      <c r="M12">
+        <v>-71.9608855893959</v>
+      </c>
+      <c r="N12">
+        <v>-71.87879763910345</v>
+      </c>
+      <c r="O12">
+        <v>-72.36117547038461</v>
+      </c>
+      <c r="P12">
+        <v>-72.09370280679087</v>
+      </c>
+      <c r="Q12">
+        <v>-71.9130053918727</v>
+      </c>
+      <c r="R12">
+        <v>-72.26770570507676</v>
+      </c>
+      <c r="S12">
+        <v>-71.32456799083023</v>
+      </c>
+      <c r="T12">
+        <v>-71.99089093114381</v>
+      </c>
+      <c r="U12">
+        <v>-71.28365420791346</v>
+      </c>
+      <c r="V12">
+        <v>-71.69422762124864</v>
+      </c>
+      <c r="W12">
+        <v>-71.28498968335467</v>
+      </c>
+      <c r="X12">
+        <v>-70.96581800864448</v>
+      </c>
+      <c r="Y12">
+        <v>-72.08496338437872</v>
+      </c>
+      <c r="Z12">
+        <v>-71.3824226298528</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.843689837849373</v>
+        <v>-1.257005745167359</v>
       </c>
       <c r="C13">
-        <v>-1.658559319876139</v>
+        <v>-1.855601692281451</v>
       </c>
       <c r="D13">
-        <v>-1.454410208617671</v>
+        <v>-1.683717237645483</v>
+      </c>
+      <c r="E13">
+        <v>-1.38757098242071</v>
+      </c>
+      <c r="F13">
+        <v>-1.448689161593389</v>
+      </c>
+      <c r="G13">
+        <v>-1.880521366098384</v>
+      </c>
+      <c r="H13">
+        <v>-1.295256364956151</v>
+      </c>
+      <c r="I13">
+        <v>-1.925650905615572</v>
+      </c>
+      <c r="J13">
+        <v>-1.365441966625885</v>
+      </c>
+      <c r="K13">
+        <v>-1.525867057928487</v>
+      </c>
+      <c r="L13">
+        <v>-1.251492438420068</v>
+      </c>
+      <c r="M13">
+        <v>-1.64147701855603</v>
+      </c>
+      <c r="N13">
+        <v>-1.675014045638074</v>
+      </c>
+      <c r="O13">
+        <v>-1.603696062208469</v>
+      </c>
+      <c r="P13">
+        <v>-1.519768113646453</v>
+      </c>
+      <c r="Q13">
+        <v>-1.630483871100028</v>
+      </c>
+      <c r="R13">
+        <v>-1.426671414654785</v>
+      </c>
+      <c r="S13">
+        <v>-1.433978668822841</v>
+      </c>
+      <c r="T13">
+        <v>-1.777973795136062</v>
+      </c>
+      <c r="U13">
+        <v>-1.396689721268315</v>
+      </c>
+      <c r="V13">
+        <v>-1.439122734863524</v>
+      </c>
+      <c r="W13">
+        <v>-1.306713941380286</v>
+      </c>
+      <c r="X13">
+        <v>-1.48195655924569</v>
+      </c>
+      <c r="Y13">
+        <v>-1.52909287939533</v>
+      </c>
+      <c r="Z13">
+        <v>-1.583726461284705</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.79047152084141</v>
+        <v>-1.203423716573157</v>
       </c>
       <c r="C14">
-        <v>-1.604692930055543</v>
+        <v>-1.802463513210407</v>
       </c>
       <c r="D14">
-        <v>-1.40131271369712</v>
+        <v>-1.629990575625961</v>
+      </c>
+      <c r="E14">
+        <v>-1.333857061986953</v>
+      </c>
+      <c r="F14">
+        <v>-1.395214369638724</v>
+      </c>
+      <c r="G14">
+        <v>-1.827444450025567</v>
+      </c>
+      <c r="H14">
+        <v>-1.242045811187628</v>
+      </c>
+      <c r="I14">
+        <v>-1.872355175206602</v>
+      </c>
+      <c r="J14">
+        <v>-1.312583134252268</v>
+      </c>
+      <c r="K14">
+        <v>-1.473646003009299</v>
+      </c>
+      <c r="L14">
+        <v>-1.197888382601321</v>
+      </c>
+      <c r="M14">
+        <v>-1.587528016514103</v>
+      </c>
+      <c r="N14">
+        <v>-1.6214453007078</v>
+      </c>
+      <c r="O14">
+        <v>-1.55039698826265</v>
+      </c>
+      <c r="P14">
+        <v>-1.465753330154813</v>
+      </c>
+      <c r="Q14">
+        <v>-1.576894025272719</v>
+      </c>
+      <c r="R14">
+        <v>-1.373692198153029</v>
+      </c>
+      <c r="S14">
+        <v>-1.38110477518343</v>
+      </c>
+      <c r="T14">
+        <v>-1.724355944512783</v>
+      </c>
+      <c r="U14">
+        <v>-1.344257098147094</v>
+      </c>
+      <c r="V14">
+        <v>-1.386308030494818</v>
+      </c>
+      <c r="W14">
+        <v>-1.252626274188947</v>
+      </c>
+      <c r="X14">
+        <v>-1.428311333483989</v>
+      </c>
+      <c r="Y14">
+        <v>-1.47419755880807</v>
+      </c>
+      <c r="Z14">
+        <v>-1.530403078550919</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.594413205794632</v>
+        <v>2.201486423589678</v>
       </c>
       <c r="C15">
-        <v>1.813549133467005</v>
+        <v>1.574973794896769</v>
       </c>
       <c r="D15">
-        <v>1.973345189828925</v>
+        <v>1.783215506105525</v>
+      </c>
+      <c r="E15">
+        <v>2.078750069218879</v>
+      </c>
+      <c r="F15">
+        <v>2.003312908637024</v>
+      </c>
+      <c r="G15">
+        <v>1.546980843380421</v>
+      </c>
+      <c r="H15">
+        <v>2.136774264199974</v>
+      </c>
+      <c r="I15">
+        <v>1.515355947032991</v>
+      </c>
+      <c r="J15">
+        <v>2.048064919698245</v>
+      </c>
+      <c r="K15">
+        <v>1.847525040126579</v>
+      </c>
+      <c r="L15">
+        <v>2.207891184797737</v>
+      </c>
+      <c r="M15">
+        <v>1.840757197090848</v>
+      </c>
+      <c r="N15">
+        <v>1.780385192898711</v>
+      </c>
+      <c r="O15">
+        <v>1.838773408051217</v>
+      </c>
+      <c r="P15">
+        <v>1.961686901815357</v>
+      </c>
+      <c r="Q15">
+        <v>1.828154534944304</v>
+      </c>
+      <c r="R15">
+        <v>1.994160851774725</v>
+      </c>
+      <c r="S15">
+        <v>1.979304909951606</v>
+      </c>
+      <c r="T15">
+        <v>1.683108777638719</v>
+      </c>
+      <c r="U15">
+        <v>1.990966767821371</v>
+      </c>
+      <c r="V15">
+        <v>1.973153507382018</v>
+      </c>
+      <c r="W15">
+        <v>2.180995996651032</v>
+      </c>
+      <c r="X15">
+        <v>1.979034169623174</v>
+      </c>
+      <c r="Y15">
+        <v>2.010267655661356</v>
+      </c>
+      <c r="Z15">
+        <v>1.858602902047705</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -617,6 +1607,72 @@
         <v>2</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
         <v>2</v>
       </c>
     </row>

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -436,34 +436,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3309888496203714</v>
+        <v>0.3317991383330853</v>
       </c>
       <c r="C2">
-        <v>0.3323910797639166</v>
+        <v>0.3281418799904965</v>
       </c>
       <c r="D2">
-        <v>0.3312066388664299</v>
+        <v>0.3311843299736723</v>
       </c>
       <c r="E2">
-        <v>0.3300012325629592</v>
+        <v>0.3299191931893509</v>
       </c>
       <c r="F2">
-        <v>0.3296276637587366</v>
+        <v>0.3300085576854925</v>
       </c>
       <c r="G2">
-        <v>0.3307572667151996</v>
+        <v>0.3293798702853273</v>
       </c>
       <c r="H2">
-        <v>0.3306334624927883</v>
+        <v>0.3303066264904571</v>
       </c>
       <c r="I2">
-        <v>0.3305362724976753</v>
+        <v>0.3317440864685732</v>
       </c>
       <c r="J2">
-        <v>0.3296797028441777</v>
+        <v>0.3310448112666844</v>
       </c>
       <c r="K2">
-        <v>0.3315212124126989</v>
+        <v>0.3308388198477474</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -471,34 +471,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37.57193264136119</v>
+        <v>37.47427129418729</v>
       </c>
       <c r="C3">
-        <v>37.44268747874874</v>
+        <v>37.91424638716187</v>
       </c>
       <c r="D3">
-        <v>37.55052981003128</v>
+        <v>37.55087964552564</v>
       </c>
       <c r="E3">
-        <v>37.6824892032511</v>
+        <v>37.70956323217771</v>
       </c>
       <c r="F3">
-        <v>37.72097630638527</v>
+        <v>37.68130106224366</v>
       </c>
       <c r="G3">
-        <v>37.61527088615967</v>
+        <v>37.76457188719129</v>
       </c>
       <c r="H3">
-        <v>37.61909856251327</v>
+        <v>37.66847521599699</v>
       </c>
       <c r="I3">
-        <v>37.66071228108584</v>
+        <v>37.50143464632552</v>
       </c>
       <c r="J3">
-        <v>37.75237694967164</v>
+        <v>37.5829673505784</v>
       </c>
       <c r="K3">
-        <v>37.55582833377066</v>
+        <v>37.59777296712473</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -506,34 +506,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>715.2560636172744</v>
+        <v>705.1463816188133</v>
       </c>
       <c r="C4">
-        <v>711.5580262046807</v>
+        <v>727.5724505579738</v>
       </c>
       <c r="D4">
-        <v>683.4116759275748</v>
+        <v>706.636090008987</v>
       </c>
       <c r="E4">
-        <v>703.4346828234438</v>
+        <v>703.2480404788504</v>
       </c>
       <c r="F4">
-        <v>711.7146760084237</v>
+        <v>705.2459165298341</v>
       </c>
       <c r="G4">
-        <v>699.2282301230176</v>
+        <v>703.8711656691285</v>
       </c>
       <c r="H4">
-        <v>714.5650197127286</v>
+        <v>740.8012084982269</v>
       </c>
       <c r="I4">
-        <v>704.9001851304266</v>
+        <v>721.3327823019223</v>
       </c>
       <c r="J4">
-        <v>712.1337619016522</v>
+        <v>718.3730409747536</v>
       </c>
       <c r="K4">
-        <v>736.688372199798</v>
+        <v>704.129347885532</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -541,34 +541,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60.78887343358858</v>
+        <v>60.68046946363139</v>
       </c>
       <c r="C5">
-        <v>62.86038731411401</v>
+        <v>64.61147260934064</v>
       </c>
       <c r="D5">
-        <v>57.30437395632322</v>
+        <v>62.99908532641394</v>
       </c>
       <c r="E5">
-        <v>61.32089808257069</v>
+        <v>62.87320152331318</v>
       </c>
       <c r="F5">
-        <v>63.38588343745028</v>
+        <v>62.02537782024667</v>
       </c>
       <c r="G5">
-        <v>59.77708309278548</v>
+        <v>60.85413683864044</v>
       </c>
       <c r="H5">
-        <v>64.15289730298244</v>
+        <v>65.94348443192656</v>
       </c>
       <c r="I5">
-        <v>63.69395835873723</v>
+        <v>64.93857132628132</v>
       </c>
       <c r="J5">
-        <v>63.20656034098278</v>
+        <v>63.74238745915884</v>
       </c>
       <c r="K5">
-        <v>66.56737554476595</v>
+        <v>59.98334541576638</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -576,34 +576,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19387.65701361971</v>
+        <v>19210.46994245403</v>
       </c>
       <c r="C6">
-        <v>20322.20931895296</v>
+        <v>21343.36689511951</v>
       </c>
       <c r="D6">
-        <v>17468.443820927</v>
+        <v>20273.12359736709</v>
       </c>
       <c r="E6">
-        <v>19513.66837230467</v>
+        <v>20199.99702232266</v>
       </c>
       <c r="F6">
-        <v>20545.98720516293</v>
+        <v>19840.53234993061</v>
       </c>
       <c r="G6">
-        <v>18771.96376486954</v>
+        <v>19294.54524144724</v>
       </c>
       <c r="H6">
-        <v>20945.91276112217</v>
+        <v>22132.02716524056</v>
       </c>
       <c r="I6">
-        <v>20587.49844666531</v>
+        <v>21412.17434955624</v>
       </c>
       <c r="J6">
-        <v>20469.3628721561</v>
+        <v>20795.43899483047</v>
       </c>
       <c r="K6">
-        <v>22383.58061675684</v>
+        <v>18926.70520541714</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -611,34 +611,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>645.2446029134044</v>
+        <v>260.410853862097</v>
       </c>
       <c r="C7">
-        <v>4.052729900912768</v>
+        <v>930.0794887206432</v>
       </c>
       <c r="D7">
-        <v>876.6521467760508</v>
+        <v>335.7368355224742</v>
       </c>
       <c r="E7">
-        <v>676.9183557368582</v>
+        <v>620.1638090482015</v>
       </c>
       <c r="F7">
-        <v>660.0172973675944</v>
+        <v>572.5546387341868</v>
       </c>
       <c r="G7">
-        <v>253.698152854664</v>
+        <v>735.8444778816803</v>
       </c>
       <c r="H7">
-        <v>866.3396546887585</v>
+        <v>891.2916760148346</v>
       </c>
       <c r="I7">
-        <v>1361.627244119896</v>
+        <v>1281.418077615964</v>
       </c>
       <c r="J7">
-        <v>675.8465296993165</v>
+        <v>459.1801648406978</v>
       </c>
       <c r="K7">
-        <v>914.6036249897978</v>
+        <v>467.5916221710787</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -646,34 +646,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1079.860150546296</v>
+        <v>-1421.268481132906</v>
       </c>
       <c r="C8">
-        <v>-176.3666443752059</v>
+        <v>-533.8447684218023</v>
       </c>
       <c r="D8">
-        <v>-146.8401892694193</v>
+        <v>1042.251108660735</v>
       </c>
       <c r="E8">
-        <v>-263.538230677002</v>
+        <v>-796.0435568080635</v>
       </c>
       <c r="F8">
-        <v>-975.0367224297719</v>
+        <v>391.1226483822767</v>
       </c>
       <c r="G8">
-        <v>-665.5265487598567</v>
+        <v>85.30201537591725</v>
       </c>
       <c r="H8">
-        <v>650.1563887500497</v>
+        <v>-81.26420842582071</v>
       </c>
       <c r="I8">
-        <v>931.9189682833697</v>
+        <v>-629.9580042620903</v>
       </c>
       <c r="J8">
-        <v>356.9861919758097</v>
+        <v>-513.1445524827415</v>
       </c>
       <c r="K8">
-        <v>138.7906278891212</v>
+        <v>-88.94888253376229</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -681,34 +681,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1793.059271345458</v>
+        <v>1780.952302561597</v>
       </c>
       <c r="C9">
-        <v>1808.632450889426</v>
+        <v>1831.464713149611</v>
       </c>
       <c r="D9">
-        <v>1731.340207094623</v>
+        <v>1824.6944474451</v>
       </c>
       <c r="E9">
-        <v>1789.550276792872</v>
+        <v>1813.38477275682</v>
       </c>
       <c r="F9">
-        <v>1823.97145656878</v>
+        <v>1808.732278392392</v>
       </c>
       <c r="G9">
-        <v>1762.704025645017</v>
+        <v>1780.82557086961</v>
       </c>
       <c r="H9">
-        <v>1825.803044078887</v>
+        <v>1848.560715622883</v>
       </c>
       <c r="I9">
-        <v>1822.537592176096</v>
+        <v>1827.403092669844</v>
       </c>
       <c r="J9">
-        <v>1815.751474301171</v>
+        <v>1826.780587879397</v>
       </c>
       <c r="K9">
-        <v>1854.901929880603</v>
+        <v>1768.152759130111</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8451.182092391004</v>
+        <v>8674.755747950019</v>
       </c>
       <c r="C10">
-        <v>27548.31818421905</v>
+        <v>11233.83137792102</v>
       </c>
       <c r="D10">
-        <v>15378.56788736642</v>
+        <v>12342.44977239636</v>
       </c>
       <c r="E10">
-        <v>9559.01145433905</v>
+        <v>6433.138709563868</v>
       </c>
       <c r="F10">
-        <v>15014.85056684492</v>
+        <v>14169.7601712149</v>
       </c>
       <c r="G10">
-        <v>18775.06838377425</v>
+        <v>9987.92781978636</v>
       </c>
       <c r="H10">
-        <v>14351.58279568864</v>
+        <v>12045.93099727815</v>
       </c>
       <c r="I10">
-        <v>7056.533247634775</v>
+        <v>8826.889055912263</v>
       </c>
       <c r="J10">
-        <v>19075.32978066018</v>
+        <v>13275.41784384815</v>
       </c>
       <c r="K10">
-        <v>12805.48111831295</v>
+        <v>7034.150562542316</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -751,34 +751,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22973.91564385192</v>
+        <v>25399.79402732752</v>
       </c>
       <c r="C11">
-        <v>3128.306248917617</v>
+        <v>14342.4850927106</v>
       </c>
       <c r="D11">
-        <v>7255.320347382815</v>
+        <v>-1859.914225192286</v>
       </c>
       <c r="E11">
-        <v>969.7474312286159</v>
+        <v>22366.81174153778</v>
       </c>
       <c r="F11">
-        <v>-1252.271361352384</v>
+        <v>9296.416685859222</v>
       </c>
       <c r="G11">
-        <v>2476.256173120608</v>
+        <v>8527.286980740982</v>
       </c>
       <c r="H11">
-        <v>7715.186104378604</v>
+        <v>4708.737733716883</v>
       </c>
       <c r="I11">
-        <v>-1446.24300354938</v>
+        <v>10760.58832047255</v>
       </c>
       <c r="J11">
-        <v>4777.301926123957</v>
+        <v>8165.800525927958</v>
       </c>
       <c r="K11">
-        <v>5972.639306593553</v>
+        <v>9290.064687650261</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -786,34 +786,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-4.013392245392017</v>
+        <v>-4.05793232255743</v>
       </c>
       <c r="C12">
-        <v>-4.031562626243209</v>
+        <v>-4.061840138201696</v>
       </c>
       <c r="D12">
-        <v>-4.024041333177389</v>
+        <v>-4.03495637691328</v>
       </c>
       <c r="E12">
-        <v>-4.038163564788481</v>
+        <v>-4.018154340024099</v>
       </c>
       <c r="F12">
-        <v>-4.012232127827301</v>
+        <v>-4.001964213188653</v>
       </c>
       <c r="G12">
-        <v>-4.074110141501666</v>
+        <v>-4.075297948926083</v>
       </c>
       <c r="H12">
-        <v>-4.033787282624584</v>
+        <v>-4.066038691173847</v>
       </c>
       <c r="I12">
-        <v>-4.058399790944438</v>
+        <v>-4.083348102043941</v>
       </c>
       <c r="J12">
-        <v>-4.051686570034826</v>
+        <v>-4.036703183983004</v>
       </c>
       <c r="K12">
-        <v>-4.040411603729692</v>
+        <v>-4.050618792734797</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -821,34 +821,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.64491614054088</v>
+        <v>-1.530006850274178</v>
       </c>
       <c r="C13">
-        <v>-1.478543520119824</v>
+        <v>-1.792962178946633</v>
       </c>
       <c r="D13">
-        <v>-1.113844191881866</v>
+        <v>-1.756144144718701</v>
       </c>
       <c r="E13">
-        <v>-1.508955601886112</v>
+        <v>-1.549092089934141</v>
       </c>
       <c r="F13">
-        <v>-1.386077993734155</v>
+        <v>-1.482546792128378</v>
       </c>
       <c r="G13">
-        <v>-1.926440400086658</v>
+        <v>-1.171887799373307</v>
       </c>
       <c r="H13">
-        <v>-1.572019487260028</v>
+        <v>-1.703913565391732</v>
       </c>
       <c r="I13">
-        <v>-1.565481083256808</v>
+        <v>-1.547000580574477</v>
       </c>
       <c r="J13">
-        <v>-1.537644676213344</v>
+        <v>-1.575494952934238</v>
       </c>
       <c r="K13">
-        <v>-1.028821646662939</v>
+        <v>-1.815030835728432</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -856,34 +856,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.59135504189384</v>
+        <v>-1.475808784188639</v>
       </c>
       <c r="C14">
-        <v>-1.423872870053605</v>
+        <v>-1.740832774880834</v>
       </c>
       <c r="D14">
-        <v>-1.060393543144497</v>
+        <v>-1.70271213482388</v>
       </c>
       <c r="E14">
-        <v>-1.455780137691889</v>
+        <v>-1.496499124657895</v>
       </c>
       <c r="F14">
-        <v>-1.333155400071437</v>
+        <v>-1.429789635470771</v>
       </c>
       <c r="G14">
-        <v>-1.87313911592246</v>
+        <v>-1.119162800531754</v>
       </c>
       <c r="H14">
-        <v>-1.518412716098973</v>
+        <v>-1.650519244412558</v>
       </c>
       <c r="I14">
-        <v>-1.512405177888843</v>
+        <v>-1.493450466131732</v>
       </c>
       <c r="J14">
-        <v>-1.484373235665206</v>
+        <v>-1.522086793312159</v>
       </c>
       <c r="K14">
-        <v>-0.9748500583450004</v>
+        <v>-1.761283318393644</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -891,34 +891,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.811305303751577</v>
+        <v>1.966333247576683</v>
       </c>
       <c r="C15">
-        <v>2.046487879207017</v>
+        <v>1.576397429922822</v>
       </c>
       <c r="D15">
-        <v>2.331801920737373</v>
+        <v>1.690909787411947</v>
       </c>
       <c r="E15">
-        <v>1.921977074899555</v>
+        <v>1.846824292435456</v>
       </c>
       <c r="F15">
-        <v>2.033153323317622</v>
+        <v>1.924058244574713</v>
       </c>
       <c r="G15">
-        <v>1.512248399957896</v>
+        <v>2.233603813242816</v>
       </c>
       <c r="H15">
-        <v>1.888695059646413</v>
+        <v>1.742226122035485</v>
       </c>
       <c r="I15">
-        <v>1.857050207881163</v>
+        <v>1.906478029449788</v>
       </c>
       <c r="J15">
-        <v>1.903650009383272</v>
+        <v>1.870014231085878</v>
       </c>
       <c r="K15">
-        <v>2.449966874927771</v>
+        <v>1.652747983923168</v>
       </c>
     </row>
     <row r="16" spans="1:11">

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -436,34 +436,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3317991383330853</v>
+        <v>0.3311781003110986</v>
       </c>
       <c r="C2">
-        <v>0.3281418799904965</v>
+        <v>0.331810467701082</v>
       </c>
       <c r="D2">
-        <v>0.3311843299736723</v>
+        <v>0.3304907755749598</v>
       </c>
       <c r="E2">
-        <v>0.3299191931893509</v>
+        <v>0.330722976418693</v>
       </c>
       <c r="F2">
-        <v>0.3300085576854925</v>
+        <v>0.329926366626636</v>
       </c>
       <c r="G2">
-        <v>0.3293798702853273</v>
+        <v>0.3319838159440212</v>
       </c>
       <c r="H2">
-        <v>0.3303066264904571</v>
+        <v>0.3317016248101555</v>
       </c>
       <c r="I2">
-        <v>0.3317440864685732</v>
+        <v>0.3304946095861987</v>
       </c>
       <c r="J2">
-        <v>0.3310448112666844</v>
+        <v>0.3301633671745965</v>
       </c>
       <c r="K2">
-        <v>0.3308388198477474</v>
+        <v>0.330372746048705</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -471,34 +471,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37.47427129418729</v>
+        <v>37.52318014156442</v>
       </c>
       <c r="C3">
-        <v>37.91424638716187</v>
+        <v>37.48865765372842</v>
       </c>
       <c r="D3">
-        <v>37.55087964552564</v>
+        <v>37.62588580448091</v>
       </c>
       <c r="E3">
-        <v>37.70956323217771</v>
+        <v>37.60321027042146</v>
       </c>
       <c r="F3">
-        <v>37.68130106224366</v>
+        <v>37.67879401029531</v>
       </c>
       <c r="G3">
-        <v>37.76457188719129</v>
+        <v>37.44226377268393</v>
       </c>
       <c r="H3">
-        <v>37.66847521599699</v>
+        <v>37.4900940109327</v>
       </c>
       <c r="I3">
-        <v>37.50143464632552</v>
+        <v>37.63276016822685</v>
       </c>
       <c r="J3">
-        <v>37.5829673505784</v>
+        <v>37.68932425269262</v>
       </c>
       <c r="K3">
-        <v>37.59777296712473</v>
+        <v>37.66121525110508</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -506,34 +506,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>705.1463816188133</v>
+        <v>709.2371634802125</v>
       </c>
       <c r="C4">
-        <v>727.5724505579738</v>
+        <v>720.5964926918749</v>
       </c>
       <c r="D4">
-        <v>706.636090008987</v>
+        <v>720.1587211052852</v>
       </c>
       <c r="E4">
-        <v>703.2480404788504</v>
+        <v>721.3219288212722</v>
       </c>
       <c r="F4">
-        <v>705.2459165298341</v>
+        <v>699.8105848884077</v>
       </c>
       <c r="G4">
-        <v>703.8711656691285</v>
+        <v>700.4867193667177</v>
       </c>
       <c r="H4">
-        <v>740.8012084982269</v>
+        <v>729.4380107881594</v>
       </c>
       <c r="I4">
-        <v>721.3327823019223</v>
+        <v>720.862732101896</v>
       </c>
       <c r="J4">
-        <v>718.3730409747536</v>
+        <v>695.4736102889991</v>
       </c>
       <c r="K4">
-        <v>704.129347885532</v>
+        <v>730.9137665333081</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -541,34 +541,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60.68046946363139</v>
+        <v>62.01472133332415</v>
       </c>
       <c r="C5">
-        <v>64.61147260934064</v>
+        <v>64.04126996005594</v>
       </c>
       <c r="D5">
-        <v>62.99908532641394</v>
+        <v>65.50414802624466</v>
       </c>
       <c r="E5">
-        <v>62.87320152331318</v>
+        <v>62.48059010844163</v>
       </c>
       <c r="F5">
-        <v>62.02537782024667</v>
+        <v>62.60377756747553</v>
       </c>
       <c r="G5">
-        <v>60.85413683864044</v>
+        <v>61.47926184595418</v>
       </c>
       <c r="H5">
-        <v>65.94348443192656</v>
+        <v>63.28363141773372</v>
       </c>
       <c r="I5">
-        <v>64.93857132628132</v>
+        <v>64.20520981716984</v>
       </c>
       <c r="J5">
-        <v>63.74238745915884</v>
+        <v>61.90707249802217</v>
       </c>
       <c r="K5">
-        <v>59.98334541576638</v>
+        <v>62.34659459336421</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -576,34 +576,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19210.46994245403</v>
+        <v>19885.22541514538</v>
       </c>
       <c r="C6">
-        <v>21343.36689511951</v>
+        <v>20969.84964751052</v>
       </c>
       <c r="D6">
-        <v>20273.12359736709</v>
+        <v>21645.88385862309</v>
       </c>
       <c r="E6">
-        <v>20199.99702232266</v>
+        <v>20268.5015865637</v>
       </c>
       <c r="F6">
-        <v>19840.53234993061</v>
+        <v>20031.17119339164</v>
       </c>
       <c r="G6">
-        <v>19294.54524144724</v>
+        <v>19545.95270952017</v>
       </c>
       <c r="H6">
-        <v>22132.02716524056</v>
+        <v>20724.33714801118</v>
       </c>
       <c r="I6">
-        <v>21412.17434955624</v>
+        <v>21049.64147953193</v>
       </c>
       <c r="J6">
-        <v>20795.43899483047</v>
+        <v>19669.13365028307</v>
       </c>
       <c r="K6">
-        <v>18926.70520541714</v>
+        <v>20308.97274119411</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -611,34 +611,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>260.410853862097</v>
+        <v>552.8613174278472</v>
       </c>
       <c r="C7">
-        <v>930.0794887206432</v>
+        <v>743.5671630108276</v>
       </c>
       <c r="D7">
-        <v>335.7368355224742</v>
+        <v>1169.931550073584</v>
       </c>
       <c r="E7">
-        <v>620.1638090482015</v>
+        <v>736.7451579240563</v>
       </c>
       <c r="F7">
-        <v>572.5546387341868</v>
+        <v>649.2934843495186</v>
       </c>
       <c r="G7">
-        <v>735.8444778816803</v>
+        <v>652.0519624888124</v>
       </c>
       <c r="H7">
-        <v>891.2916760148346</v>
+        <v>1276.930316904113</v>
       </c>
       <c r="I7">
-        <v>1281.418077615964</v>
+        <v>989.86775290715</v>
       </c>
       <c r="J7">
-        <v>459.1801648406978</v>
+        <v>421.3976863541116</v>
       </c>
       <c r="K7">
-        <v>467.5916221710787</v>
+        <v>961.5712066029268</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -646,34 +646,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1421.268481132906</v>
+        <v>-540.0985721806927</v>
       </c>
       <c r="C8">
-        <v>-533.8447684218023</v>
+        <v>-285.354658246741</v>
       </c>
       <c r="D8">
-        <v>1042.251108660735</v>
+        <v>236.9922254774391</v>
       </c>
       <c r="E8">
-        <v>-796.0435568080635</v>
+        <v>-425.2078256488876</v>
       </c>
       <c r="F8">
-        <v>391.1226483822767</v>
+        <v>-182.304109885095</v>
       </c>
       <c r="G8">
-        <v>85.30201537591725</v>
+        <v>-530.1519616572132</v>
       </c>
       <c r="H8">
-        <v>-81.26420842582071</v>
+        <v>-502.7959479337884</v>
       </c>
       <c r="I8">
-        <v>-629.9580042620903</v>
+        <v>-2171.395772588136</v>
       </c>
       <c r="J8">
-        <v>-513.1445524827415</v>
+        <v>-84.37261637634892</v>
       </c>
       <c r="K8">
-        <v>-88.94888253376229</v>
+        <v>-210.4277362492401</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -681,34 +681,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1780.952302561597</v>
+        <v>1801.837703558495</v>
       </c>
       <c r="C9">
-        <v>1831.464713149611</v>
+        <v>1834.512773557341</v>
       </c>
       <c r="D9">
-        <v>1824.6944474451</v>
+        <v>1844.959466870111</v>
       </c>
       <c r="E9">
-        <v>1813.38477275682</v>
+        <v>1805.166853164672</v>
       </c>
       <c r="F9">
-        <v>1808.732278392392</v>
+        <v>1811.312930562066</v>
       </c>
       <c r="G9">
-        <v>1780.82557086961</v>
+        <v>1791.037257972854</v>
       </c>
       <c r="H9">
-        <v>1848.560715622883</v>
+        <v>1815.539153478961</v>
       </c>
       <c r="I9">
-        <v>1827.403092669844</v>
+        <v>1836.42777183439</v>
       </c>
       <c r="J9">
-        <v>1826.780587879397</v>
+        <v>1786.961449334356</v>
       </c>
       <c r="K9">
-        <v>1768.152759130111</v>
+        <v>1812.61941764426</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8674.755747950019</v>
+        <v>4420.459186295448</v>
       </c>
       <c r="C10">
-        <v>11233.83137792102</v>
+        <v>8739.098584772299</v>
       </c>
       <c r="D10">
-        <v>12342.44977239636</v>
+        <v>8307.633925786151</v>
       </c>
       <c r="E10">
-        <v>6433.138709563868</v>
+        <v>8671.429491083627</v>
       </c>
       <c r="F10">
-        <v>14169.7601712149</v>
+        <v>17225.35086019996</v>
       </c>
       <c r="G10">
-        <v>9987.92781978636</v>
+        <v>8553.245754893975</v>
       </c>
       <c r="H10">
-        <v>12045.93099727815</v>
+        <v>15030.47197700065</v>
       </c>
       <c r="I10">
-        <v>8826.889055912263</v>
+        <v>17257.1603460054</v>
       </c>
       <c r="J10">
-        <v>13275.41784384815</v>
+        <v>16822.58110952224</v>
       </c>
       <c r="K10">
-        <v>7034.150562542316</v>
+        <v>5088.640144949332</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -751,34 +751,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25399.79402732752</v>
+        <v>5870.87660356945</v>
       </c>
       <c r="C11">
-        <v>14342.4850927106</v>
+        <v>7675.205870600206</v>
       </c>
       <c r="D11">
-        <v>-1859.914225192286</v>
+        <v>9110.348961400712</v>
       </c>
       <c r="E11">
-        <v>22366.81174153778</v>
+        <v>13100.31674337607</v>
       </c>
       <c r="F11">
-        <v>9296.416685859222</v>
+        <v>6307.160926262772</v>
       </c>
       <c r="G11">
-        <v>8527.286980740982</v>
+        <v>5358.123224318038</v>
       </c>
       <c r="H11">
-        <v>4708.737733716883</v>
+        <v>13915.34514941047</v>
       </c>
       <c r="I11">
-        <v>10760.58832047255</v>
+        <v>6533.412475188299</v>
       </c>
       <c r="J11">
-        <v>8165.800525927958</v>
+        <v>12032.00273418819</v>
       </c>
       <c r="K11">
-        <v>9290.064687650261</v>
+        <v>3494.037436894518</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -786,34 +786,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-4.05793232255743</v>
+        <v>-4.027782221470205</v>
       </c>
       <c r="C12">
-        <v>-4.061840138201696</v>
+        <v>-4.013623046134256</v>
       </c>
       <c r="D12">
-        <v>-4.03495637691328</v>
+        <v>-4.041099256203577</v>
       </c>
       <c r="E12">
-        <v>-4.018154340024099</v>
+        <v>-4.041654684971183</v>
       </c>
       <c r="F12">
-        <v>-4.001964213188653</v>
+        <v>-4.014833822682297</v>
       </c>
       <c r="G12">
-        <v>-4.075297948926083</v>
+        <v>-4.025666737424493</v>
       </c>
       <c r="H12">
-        <v>-4.066038691173847</v>
+        <v>-4.066179095153172</v>
       </c>
       <c r="I12">
-        <v>-4.083348102043941</v>
+        <v>-4.00457905950386</v>
       </c>
       <c r="J12">
-        <v>-4.036703183983004</v>
+        <v>-4.081346869426931</v>
       </c>
       <c r="K12">
-        <v>-4.050618792734797</v>
+        <v>-4.028905620320212</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -821,34 +821,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.530006850274178</v>
+        <v>-1.381446904341689</v>
       </c>
       <c r="C13">
-        <v>-1.792962178946633</v>
+        <v>-1.729028545916783</v>
       </c>
       <c r="D13">
-        <v>-1.756144144718701</v>
+        <v>-1.655969407291891</v>
       </c>
       <c r="E13">
-        <v>-1.549092089934141</v>
+        <v>-1.714239868074755</v>
       </c>
       <c r="F13">
-        <v>-1.482546792128378</v>
+        <v>-1.252697993676119</v>
       </c>
       <c r="G13">
-        <v>-1.171887799373307</v>
+        <v>-1.581199090012658</v>
       </c>
       <c r="H13">
-        <v>-1.703913565391732</v>
+        <v>-1.832524024385572</v>
       </c>
       <c r="I13">
-        <v>-1.547000580574477</v>
+        <v>-1.144894795230538</v>
       </c>
       <c r="J13">
-        <v>-1.575494952934238</v>
+        <v>-1.646633832369272</v>
       </c>
       <c r="K13">
-        <v>-1.815030835728432</v>
+        <v>-1.452318890346519</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -856,34 +856,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.475808784188639</v>
+        <v>-1.327623023796891</v>
       </c>
       <c r="C14">
-        <v>-1.740832774880834</v>
+        <v>-1.675286892609603</v>
       </c>
       <c r="D14">
-        <v>-1.70271213482388</v>
+        <v>-1.602767056219131</v>
       </c>
       <c r="E14">
-        <v>-1.496499124657895</v>
+        <v>-1.660827960934341</v>
       </c>
       <c r="F14">
-        <v>-1.429789635470771</v>
+        <v>-1.199621683980986</v>
       </c>
       <c r="G14">
-        <v>-1.119162800531754</v>
+        <v>-1.526941373389958</v>
       </c>
       <c r="H14">
-        <v>-1.650519244412558</v>
+        <v>-1.778634520752095</v>
       </c>
       <c r="I14">
-        <v>-1.493450466131732</v>
+        <v>-1.091779081561023</v>
       </c>
       <c r="J14">
-        <v>-1.522086793312159</v>
+        <v>-1.593561433023413</v>
       </c>
       <c r="K14">
-        <v>-1.761283318393644</v>
+        <v>-1.39941489554721</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -891,34 +891,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.966333247576683</v>
+        <v>2.09286643248244</v>
       </c>
       <c r="C15">
-        <v>1.576397429922822</v>
+        <v>1.737566141289081</v>
       </c>
       <c r="D15">
-        <v>1.690909787411947</v>
+        <v>1.777843532012253</v>
       </c>
       <c r="E15">
-        <v>1.846824292435456</v>
+        <v>1.733417496748528</v>
       </c>
       <c r="F15">
-        <v>1.924058244574713</v>
+        <v>2.175033380208535</v>
       </c>
       <c r="G15">
-        <v>2.233603813242816</v>
+        <v>1.919411630355777</v>
       </c>
       <c r="H15">
-        <v>1.742226122035485</v>
+        <v>1.644069335336403</v>
       </c>
       <c r="I15">
-        <v>1.906478029449788</v>
+        <v>2.283189166746962</v>
       </c>
       <c r="J15">
-        <v>1.870014231085878</v>
+        <v>1.778633136110408</v>
       </c>
       <c r="K15">
-        <v>1.652747983923168</v>
+        <v>1.962016874373689</v>
       </c>
     </row>
     <row r="16" spans="1:11">

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -390,13 +390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:CW16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:101">
       <c r="A1">
         <v>0</v>
       </c>
@@ -550,2178 +550,4428 @@
       <c r="AY1">
         <v>50</v>
       </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+      <c r="CU1">
+        <v>98</v>
+      </c>
+      <c r="CV1">
+        <v>99</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:101">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3298719884217491</v>
+        <v>0.3975335078712979</v>
       </c>
       <c r="C2">
-        <v>0.3305107648613502</v>
+        <v>0.3996840632610955</v>
       </c>
       <c r="D2">
-        <v>0.3312396655920529</v>
+        <v>0.399810620142674</v>
       </c>
       <c r="E2">
-        <v>0.3299622654494839</v>
+        <v>0.4006046577941089</v>
       </c>
       <c r="F2">
-        <v>0.3307415423323721</v>
+        <v>0.4006386340716789</v>
       </c>
       <c r="G2">
-        <v>0.3295474551170941</v>
+        <v>0.3998541691890831</v>
       </c>
       <c r="H2">
-        <v>0.330236542932054</v>
+        <v>0.4008460803252727</v>
       </c>
       <c r="I2">
-        <v>0.3317795889212116</v>
+        <v>0.4019901286636962</v>
       </c>
       <c r="J2">
-        <v>0.3304594494989063</v>
+        <v>0.3999029912311242</v>
       </c>
       <c r="K2">
-        <v>0.3321456028204463</v>
+        <v>0.3997856173435012</v>
       </c>
       <c r="L2">
-        <v>0.3303501574901417</v>
+        <v>0.3992257141866506</v>
       </c>
       <c r="M2">
-        <v>0.3305692739770978</v>
+        <v>0.4015254191154264</v>
       </c>
       <c r="N2">
-        <v>0.3309905080674632</v>
+        <v>0.4004950412708642</v>
       </c>
       <c r="O2">
-        <v>0.3287700959872014</v>
+        <v>0.4005214697946559</v>
       </c>
       <c r="P2">
-        <v>0.3294086524633729</v>
+        <v>0.3981984516052957</v>
       </c>
       <c r="Q2">
-        <v>0.3295511872478859</v>
+        <v>0.3980057055820526</v>
       </c>
       <c r="R2">
-        <v>0.3301482331551089</v>
+        <v>0.4006978738579477</v>
       </c>
       <c r="S2">
-        <v>0.3298267917839245</v>
+        <v>0.4013151088567698</v>
       </c>
       <c r="T2">
-        <v>0.3293675853409869</v>
+        <v>0.3997021989414136</v>
       </c>
       <c r="U2">
-        <v>0.3312215044742827</v>
+        <v>0.4005308023527498</v>
       </c>
       <c r="V2">
-        <v>0.3305321661916454</v>
+        <v>0.4015480764129468</v>
       </c>
       <c r="W2">
-        <v>0.3295002148903437</v>
+        <v>0.4007546570891233</v>
       </c>
       <c r="X2">
-        <v>0.3304756003220125</v>
+        <v>0.4012189374644791</v>
       </c>
       <c r="Y2">
-        <v>0.331462409075974</v>
+        <v>0.3982692151143137</v>
       </c>
       <c r="Z2">
-        <v>0.3288105946687688</v>
+        <v>0.401252550903808</v>
       </c>
       <c r="AA2">
-        <v>0.3292913518673419</v>
+        <v>0.3991026897161588</v>
       </c>
       <c r="AB2">
-        <v>0.331411884715311</v>
+        <v>0.4010573093943369</v>
       </c>
       <c r="AC2">
-        <v>0.3309643926408045</v>
+        <v>0.3995994768268017</v>
       </c>
       <c r="AD2">
-        <v>0.3308351831073499</v>
+        <v>0.4004335630097997</v>
       </c>
       <c r="AE2">
-        <v>0.3295335101415565</v>
+        <v>0.4003515600629722</v>
       </c>
       <c r="AF2">
-        <v>0.3305758893916636</v>
+        <v>0.4007987197752275</v>
       </c>
       <c r="AG2">
-        <v>0.3300178037047054</v>
+        <v>0.3995210397269691</v>
       </c>
       <c r="AH2">
-        <v>0.3307809386693706</v>
+        <v>0.4002226810436844</v>
       </c>
       <c r="AI2">
-        <v>0.3306155926239767</v>
+        <v>0.3999612219477852</v>
       </c>
       <c r="AJ2">
-        <v>0.3305676312676188</v>
+        <v>0.4006365826094643</v>
       </c>
       <c r="AK2">
-        <v>0.3295359642558059</v>
+        <v>0.4028741372378845</v>
       </c>
       <c r="AL2">
-        <v>0.3309580643643002</v>
+        <v>0.3995510412490169</v>
       </c>
       <c r="AM2">
-        <v>0.330205490310334</v>
+        <v>0.3998410509802937</v>
       </c>
       <c r="AN2">
-        <v>0.3317313953716541</v>
+        <v>0.401747743035876</v>
       </c>
       <c r="AO2">
-        <v>0.3284050524125936</v>
+        <v>0.3997043928938788</v>
       </c>
       <c r="AP2">
-        <v>0.3286390207755011</v>
+        <v>0.4008023694794775</v>
       </c>
       <c r="AQ2">
-        <v>0.3292452950517263</v>
+        <v>0.4007006554053831</v>
       </c>
       <c r="AR2">
-        <v>0.3296604648518144</v>
+        <v>0.4012224544122698</v>
       </c>
       <c r="AS2">
-        <v>0.3319869944220948</v>
+        <v>0.4013921164567052</v>
       </c>
       <c r="AT2">
-        <v>0.3317690611232926</v>
+        <v>0.4004074883488127</v>
       </c>
       <c r="AU2">
-        <v>0.3315436183281443</v>
+        <v>0.4001188013789626</v>
       </c>
       <c r="AV2">
-        <v>0.3300748195248019</v>
+        <v>0.3999425971054372</v>
       </c>
       <c r="AW2">
-        <v>0.3327297684846793</v>
+        <v>0.4001224809323873</v>
       </c>
       <c r="AX2">
-        <v>0.3312589084799116</v>
+        <v>0.401282715102315</v>
       </c>
       <c r="AY2">
-        <v>0.3305771504366617</v>
+        <v>0.4007968798368168</v>
+      </c>
+      <c r="AZ2">
+        <v>0.4007155463470679</v>
+      </c>
+      <c r="BA2">
+        <v>0.4001224977725347</v>
+      </c>
+      <c r="BB2">
+        <v>0.4020748185103787</v>
+      </c>
+      <c r="BC2">
+        <v>0.399808807706604</v>
+      </c>
+      <c r="BD2">
+        <v>0.3999237327711941</v>
+      </c>
+      <c r="BE2">
+        <v>0.400526265401105</v>
+      </c>
+      <c r="BF2">
+        <v>0.3999940135656062</v>
+      </c>
+      <c r="BG2">
+        <v>0.4003979871070125</v>
+      </c>
+      <c r="BH2">
+        <v>0.3996897030998309</v>
+      </c>
+      <c r="BI2">
+        <v>0.4022733963108915</v>
+      </c>
+      <c r="BJ2">
+        <v>0.3993607667754914</v>
+      </c>
+      <c r="BK2">
+        <v>0.4007244624119443</v>
+      </c>
+      <c r="BL2">
+        <v>0.400913284487506</v>
+      </c>
+      <c r="BM2">
+        <v>0.4005961577823982</v>
+      </c>
+      <c r="BN2">
+        <v>0.4003739776978859</v>
+      </c>
+      <c r="BO2">
+        <v>0.4010607032391028</v>
+      </c>
+      <c r="BP2">
+        <v>0.3991671323421175</v>
+      </c>
+      <c r="BQ2">
+        <v>0.4010532246330861</v>
+      </c>
+      <c r="BR2">
+        <v>0.4004079093759373</v>
+      </c>
+      <c r="BS2">
+        <v>0.4020907881993391</v>
+      </c>
+      <c r="BT2">
+        <v>0.4006330336828772</v>
+      </c>
+      <c r="BU2">
+        <v>0.4018358384797134</v>
+      </c>
+      <c r="BV2">
+        <v>0.4012555093010711</v>
+      </c>
+      <c r="BW2">
+        <v>0.3987110745621258</v>
+      </c>
+      <c r="BX2">
+        <v>0.4013690999761508</v>
+      </c>
+      <c r="BY2">
+        <v>0.396898562897616</v>
+      </c>
+      <c r="BZ2">
+        <v>0.4014341594317402</v>
+      </c>
+      <c r="CA2">
+        <v>0.3998699813063695</v>
+      </c>
+      <c r="CB2">
+        <v>0.3996935558926194</v>
+      </c>
+      <c r="CC2">
+        <v>0.4023414833386763</v>
+      </c>
+      <c r="CD2">
+        <v>0.3976775920924163</v>
+      </c>
+      <c r="CE2">
+        <v>0.3998595209336515</v>
+      </c>
+      <c r="CF2">
+        <v>0.3984218444458799</v>
+      </c>
+      <c r="CG2">
+        <v>0.4020181720962664</v>
+      </c>
+      <c r="CH2">
+        <v>0.401113103105004</v>
+      </c>
+      <c r="CI2">
+        <v>0.4030736079413711</v>
+      </c>
+      <c r="CJ2">
+        <v>0.3985081410868526</v>
+      </c>
+      <c r="CK2">
+        <v>0.4010458369043934</v>
+      </c>
+      <c r="CL2">
+        <v>0.4023370484051899</v>
+      </c>
+      <c r="CM2">
+        <v>0.3995130761670945</v>
+      </c>
+      <c r="CN2">
+        <v>0.4012084317025391</v>
+      </c>
+      <c r="CO2">
+        <v>0.4000183025755581</v>
+      </c>
+      <c r="CP2">
+        <v>0.3982961946089867</v>
+      </c>
+      <c r="CQ2">
+        <v>0.3983531011561768</v>
+      </c>
+      <c r="CR2">
+        <v>0.4010267852932412</v>
+      </c>
+      <c r="CS2">
+        <v>0.4014286500485144</v>
+      </c>
+      <c r="CT2">
+        <v>0.4004127753657823</v>
+      </c>
+      <c r="CU2">
+        <v>0.4019964208407638</v>
+      </c>
+      <c r="CV2">
+        <v>0.3997582716607715</v>
+      </c>
+      <c r="CW2">
+        <v>0.4014187181137129</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:101">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37.70131943897685</v>
+        <v>45.96319001960719</v>
       </c>
       <c r="C3">
-        <v>37.6345171618883</v>
+        <v>45.70937173499124</v>
       </c>
       <c r="D3">
-        <v>37.56638205935803</v>
+        <v>45.69817951530356</v>
       </c>
       <c r="E3">
-        <v>37.6741457435632</v>
+        <v>45.60969822449091</v>
       </c>
       <c r="F3">
-        <v>37.59351042284274</v>
+        <v>45.59055252523686</v>
       </c>
       <c r="G3">
-        <v>37.76835608361236</v>
+        <v>45.67437617033976</v>
       </c>
       <c r="H3">
-        <v>37.65913408221498</v>
+        <v>45.57077892983966</v>
       </c>
       <c r="I3">
-        <v>37.49744535003416</v>
+        <v>45.43214155097918</v>
       </c>
       <c r="J3">
-        <v>37.64670222569228</v>
+        <v>45.66239993664237</v>
       </c>
       <c r="K3">
-        <v>37.4225484593718</v>
+        <v>45.6943107416067</v>
       </c>
       <c r="L3">
-        <v>37.64916749605896</v>
+        <v>45.76717937158148</v>
       </c>
       <c r="M3">
-        <v>37.63437807687726</v>
+        <v>45.49308882345652</v>
       </c>
       <c r="N3">
-        <v>37.58092661441823</v>
+        <v>45.59371973185119</v>
       </c>
       <c r="O3">
-        <v>37.84686385859521</v>
+        <v>45.60529295653144</v>
       </c>
       <c r="P3">
-        <v>37.76288295585702</v>
+        <v>45.86429338536102</v>
       </c>
       <c r="Q3">
-        <v>37.75665950077949</v>
+        <v>45.90129352419638</v>
       </c>
       <c r="R3">
-        <v>37.65553398432991</v>
+        <v>45.58946799878574</v>
       </c>
       <c r="S3">
-        <v>37.72069216821697</v>
+        <v>45.5181012756987</v>
       </c>
       <c r="T3">
-        <v>37.76658038493798</v>
+        <v>45.71506530905094</v>
       </c>
       <c r="U3">
-        <v>37.5567423687918</v>
+        <v>45.62367027728376</v>
       </c>
       <c r="V3">
-        <v>37.63026158562614</v>
+        <v>45.50698529471777</v>
       </c>
       <c r="W3">
-        <v>37.77365607379027</v>
+        <v>45.5997959762734</v>
       </c>
       <c r="X3">
-        <v>37.63807452788995</v>
+        <v>45.53439233782038</v>
       </c>
       <c r="Y3">
-        <v>37.51957581995261</v>
+        <v>45.86001583815656</v>
       </c>
       <c r="Z3">
-        <v>37.83272110926377</v>
+        <v>45.5470143536191</v>
       </c>
       <c r="AA3">
-        <v>37.76661650395778</v>
+        <v>45.77328212940391</v>
       </c>
       <c r="AB3">
-        <v>37.52515493997492</v>
+        <v>45.54521946373882</v>
       </c>
       <c r="AC3">
-        <v>37.58153615401359</v>
+        <v>45.72282000865271</v>
       </c>
       <c r="AD3">
-        <v>37.59430203021797</v>
+        <v>45.61898601089463</v>
       </c>
       <c r="AE3">
-        <v>37.73966015201173</v>
+        <v>45.64227282993757</v>
       </c>
       <c r="AF3">
-        <v>37.61793872265492</v>
+        <v>45.57995963285187</v>
       </c>
       <c r="AG3">
-        <v>37.68059075212605</v>
+        <v>45.73917903291765</v>
       </c>
       <c r="AH3">
-        <v>37.58445834849893</v>
+        <v>45.63610515747717</v>
       </c>
       <c r="AI3">
-        <v>37.623613085121</v>
+        <v>45.68867016240129</v>
       </c>
       <c r="AJ3">
-        <v>37.61929103426831</v>
+        <v>45.60649624863877</v>
       </c>
       <c r="AK3">
-        <v>37.7368521545594</v>
+        <v>45.32970960279449</v>
       </c>
       <c r="AL3">
-        <v>37.57502241912692</v>
+        <v>45.71951047999981</v>
       </c>
       <c r="AM3">
-        <v>37.66228827968175</v>
+        <v>45.68088644801033</v>
       </c>
       <c r="AN3">
-        <v>37.49669127731982</v>
+        <v>45.45398370523225</v>
       </c>
       <c r="AO3">
-        <v>37.87836602600462</v>
+        <v>45.69922454237481</v>
       </c>
       <c r="AP3">
-        <v>37.85133582331809</v>
+        <v>45.57922783413189</v>
       </c>
       <c r="AQ3">
-        <v>37.78883926120736</v>
+        <v>45.59530458163295</v>
       </c>
       <c r="AR3">
-        <v>37.72968566000197</v>
+        <v>45.53312332871688</v>
       </c>
       <c r="AS3">
-        <v>37.46323825052563</v>
+        <v>45.51352480390412</v>
       </c>
       <c r="AT3">
-        <v>37.50224650395727</v>
+        <v>45.62659315000207</v>
       </c>
       <c r="AU3">
-        <v>37.51720611234039</v>
+        <v>45.64629484004522</v>
       </c>
       <c r="AV3">
-        <v>37.6913601871911</v>
+        <v>45.66100480112416</v>
       </c>
       <c r="AW3">
-        <v>37.37405429693954</v>
+        <v>45.65738941879818</v>
       </c>
       <c r="AX3">
-        <v>37.54759126724718</v>
+        <v>45.51860606407361</v>
       </c>
       <c r="AY3">
-        <v>37.61834516174626</v>
+        <v>45.57208257198808</v>
+      </c>
+      <c r="AZ3">
+        <v>45.5849858286425</v>
+      </c>
+      <c r="BA3">
+        <v>45.66087917875736</v>
+      </c>
+      <c r="BB3">
+        <v>45.43026719262288</v>
+      </c>
+      <c r="BC3">
+        <v>45.67423200599215</v>
+      </c>
+      <c r="BD3">
+        <v>45.66479657420607</v>
+      </c>
+      <c r="BE3">
+        <v>45.60589559787018</v>
+      </c>
+      <c r="BF3">
+        <v>45.676205027142</v>
+      </c>
+      <c r="BG3">
+        <v>45.63916270878785</v>
+      </c>
+      <c r="BH3">
+        <v>45.70485754198283</v>
+      </c>
+      <c r="BI3">
+        <v>45.40397316373497</v>
+      </c>
+      <c r="BJ3">
+        <v>45.73194838947825</v>
+      </c>
+      <c r="BK3">
+        <v>45.60238923065641</v>
+      </c>
+      <c r="BL3">
+        <v>45.56437136477737</v>
+      </c>
+      <c r="BM3">
+        <v>45.60202474415478</v>
+      </c>
+      <c r="BN3">
+        <v>45.63709875412439</v>
+      </c>
+      <c r="BO3">
+        <v>45.5449403443219</v>
+      </c>
+      <c r="BP3">
+        <v>45.75508813682121</v>
+      </c>
+      <c r="BQ3">
+        <v>45.5473901486988</v>
+      </c>
+      <c r="BR3">
+        <v>45.63404521150109</v>
+      </c>
+      <c r="BS3">
+        <v>45.4124792188633</v>
+      </c>
+      <c r="BT3">
+        <v>45.6159681757393</v>
+      </c>
+      <c r="BU3">
+        <v>45.46071204259709</v>
+      </c>
+      <c r="BV3">
+        <v>45.53118619691918</v>
+      </c>
+      <c r="BW3">
+        <v>45.82460950461103</v>
+      </c>
+      <c r="BX3">
+        <v>45.50980594534298</v>
+      </c>
+      <c r="BY3">
+        <v>46.02880007751996</v>
+      </c>
+      <c r="BZ3">
+        <v>45.50461311270375</v>
+      </c>
+      <c r="CA3">
+        <v>45.685012724338</v>
+      </c>
+      <c r="CB3">
+        <v>45.71464911960221</v>
+      </c>
+      <c r="CC3">
+        <v>45.40519217839196</v>
+      </c>
+      <c r="CD3">
+        <v>45.93659080296342</v>
+      </c>
+      <c r="CE3">
+        <v>45.68326159420385</v>
+      </c>
+      <c r="CF3">
+        <v>45.86199389803274</v>
+      </c>
+      <c r="CG3">
+        <v>45.4513030242214</v>
+      </c>
+      <c r="CH3">
+        <v>45.53962238481731</v>
+      </c>
+      <c r="CI3">
+        <v>45.33890932308174</v>
+      </c>
+      <c r="CJ3">
+        <v>45.83209960737182</v>
+      </c>
+      <c r="CK3">
+        <v>45.54605346715557</v>
+      </c>
+      <c r="CL3">
+        <v>45.4053245284281</v>
+      </c>
+      <c r="CM3">
+        <v>45.73596166991804</v>
+      </c>
+      <c r="CN3">
+        <v>45.52558056070771</v>
+      </c>
+      <c r="CO3">
+        <v>45.68612542691263</v>
+      </c>
+      <c r="CP3">
+        <v>45.87216188688914</v>
+      </c>
+      <c r="CQ3">
+        <v>45.85369596889932</v>
+      </c>
+      <c r="CR3">
+        <v>45.54682379761773</v>
+      </c>
+      <c r="CS3">
+        <v>45.51531837065371</v>
+      </c>
+      <c r="CT3">
+        <v>45.61406377222865</v>
+      </c>
+      <c r="CU3">
+        <v>45.45135897739173</v>
+      </c>
+      <c r="CV3">
+        <v>45.69681255543443</v>
+      </c>
+      <c r="CW3">
+        <v>45.51690107725102</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:101">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>772.2122792128531</v>
+        <v>755.7499884089057</v>
       </c>
       <c r="C4">
-        <v>737.7477036742749</v>
+        <v>746.9734451188333</v>
       </c>
       <c r="D4">
-        <v>725.1066128306989</v>
+        <v>734.2554234506233</v>
       </c>
       <c r="E4">
-        <v>721.5679042819357</v>
+        <v>734.5760683178119</v>
       </c>
       <c r="F4">
-        <v>738.4099743805345</v>
+        <v>745.5659504721717</v>
       </c>
       <c r="G4">
-        <v>745.785642844013</v>
+        <v>726.8860085538944</v>
       </c>
       <c r="H4">
-        <v>728.7683465002153</v>
+        <v>765.0023476622744</v>
       </c>
       <c r="I4">
-        <v>717.2101368721951</v>
+        <v>727.995379827566</v>
       </c>
       <c r="J4">
-        <v>748.91903524001</v>
+        <v>747.8658721390741</v>
       </c>
       <c r="K4">
-        <v>738.2654219885593</v>
+        <v>742.3791398777656</v>
       </c>
       <c r="L4">
-        <v>732.0267255141249</v>
+        <v>736.924551698538</v>
       </c>
       <c r="M4">
-        <v>756.9690195644828</v>
+        <v>742.4417017752685</v>
       </c>
       <c r="N4">
-        <v>736.4327586722228</v>
+        <v>729.914543935879</v>
       </c>
       <c r="O4">
-        <v>734.457145460619</v>
+        <v>730.5493039581439</v>
       </c>
       <c r="P4">
-        <v>748.1499504729708</v>
+        <v>751.1546455101517</v>
       </c>
       <c r="Q4">
-        <v>744.4309391451203</v>
+        <v>742.0527414353157</v>
       </c>
       <c r="R4">
-        <v>726.4412243687818</v>
+        <v>733.9838537793854</v>
       </c>
       <c r="S4">
-        <v>757.9337020741181</v>
+        <v>722.7756198066858</v>
       </c>
       <c r="T4">
-        <v>733.8322989777031</v>
+        <v>722.7845153514616</v>
       </c>
       <c r="U4">
-        <v>736.4456612504619</v>
+        <v>728.4202810500801</v>
       </c>
       <c r="V4">
-        <v>747.6309068298859</v>
+        <v>738.715591984821</v>
       </c>
       <c r="W4">
-        <v>740.4191958888691</v>
+        <v>741.2997825143597</v>
       </c>
       <c r="X4">
-        <v>736.0262211483831</v>
+        <v>736.1365549536397</v>
       </c>
       <c r="Y4">
-        <v>736.9785364220855</v>
+        <v>742.1520773267578</v>
       </c>
       <c r="Z4">
-        <v>747.9360411249285</v>
+        <v>730.4831703985824</v>
       </c>
       <c r="AA4">
-        <v>752.7594636603553</v>
+        <v>734.5307530746556</v>
       </c>
       <c r="AB4">
-        <v>738.3523843742912</v>
+        <v>734.8457669777684</v>
       </c>
       <c r="AC4">
-        <v>731.7306824577606</v>
+        <v>734.6407115261857</v>
       </c>
       <c r="AD4">
-        <v>730.9837081676122</v>
+        <v>732.9530594529311</v>
       </c>
       <c r="AE4">
-        <v>762.2272916877206</v>
+        <v>722.1382670095459</v>
       </c>
       <c r="AF4">
-        <v>734.8049938106545</v>
+        <v>763.4102023128995</v>
       </c>
       <c r="AG4">
-        <v>727.5949508056735</v>
+        <v>749.2444991736738</v>
       </c>
       <c r="AH4">
-        <v>718.2914527179083</v>
+        <v>736.567589170103</v>
       </c>
       <c r="AI4">
-        <v>749.5045674092057</v>
+        <v>749.7575676556364</v>
       </c>
       <c r="AJ4">
-        <v>765.468563893712</v>
+        <v>734.864993058282</v>
       </c>
       <c r="AK4">
-        <v>736.2403808198313</v>
+        <v>736.3322486396671</v>
       </c>
       <c r="AL4">
-        <v>735.4471283259088</v>
+        <v>732.7989862096931</v>
       </c>
       <c r="AM4">
-        <v>725.0403215908478</v>
+        <v>729.101222688958</v>
       </c>
       <c r="AN4">
-        <v>723.7212058020582</v>
+        <v>744.2288676853857</v>
       </c>
       <c r="AO4">
-        <v>733.9207125316877</v>
+        <v>740.4923537095366</v>
       </c>
       <c r="AP4">
-        <v>741.8913125240525</v>
+        <v>733.1354633194618</v>
       </c>
       <c r="AQ4">
-        <v>731.8140119830728</v>
+        <v>741.6050133854728</v>
       </c>
       <c r="AR4">
-        <v>758.0133993171203</v>
+        <v>730.2048756504508</v>
       </c>
       <c r="AS4">
-        <v>725.9489551060626</v>
+        <v>753.8729640589985</v>
       </c>
       <c r="AT4">
-        <v>744.9103550002803</v>
+        <v>713.9293319648707</v>
       </c>
       <c r="AU4">
-        <v>748.262447323537</v>
+        <v>735.2363686339831</v>
       </c>
       <c r="AV4">
-        <v>721.2155330908205</v>
+        <v>735.1870574520495</v>
       </c>
       <c r="AW4">
-        <v>714.2269371485468</v>
+        <v>745.7011327669323</v>
       </c>
       <c r="AX4">
-        <v>760.8416675010716</v>
+        <v>719.4275088908556</v>
       </c>
       <c r="AY4">
-        <v>746.7286867269468</v>
+        <v>736.1609810276541</v>
+      </c>
+      <c r="AZ4">
+        <v>742.9026253236091</v>
+      </c>
+      <c r="BA4">
+        <v>707.63648611445</v>
+      </c>
+      <c r="BB4">
+        <v>737.0396042639215</v>
+      </c>
+      <c r="BC4">
+        <v>737.5805570459635</v>
+      </c>
+      <c r="BD4">
+        <v>738.0922467346235</v>
+      </c>
+      <c r="BE4">
+        <v>733.7887794595135</v>
+      </c>
+      <c r="BF4">
+        <v>721.3990337030997</v>
+      </c>
+      <c r="BG4">
+        <v>721.6714238842536</v>
+      </c>
+      <c r="BH4">
+        <v>764.9985244620379</v>
+      </c>
+      <c r="BI4">
+        <v>735.631243399452</v>
+      </c>
+      <c r="BJ4">
+        <v>722.6580026378527</v>
+      </c>
+      <c r="BK4">
+        <v>737.3104332314358</v>
+      </c>
+      <c r="BL4">
+        <v>736.7453372602099</v>
+      </c>
+      <c r="BM4">
+        <v>754.5997547060931</v>
+      </c>
+      <c r="BN4">
+        <v>729.2891285018593</v>
+      </c>
+      <c r="BO4">
+        <v>733.2112265008378</v>
+      </c>
+      <c r="BP4">
+        <v>692.5426591811733</v>
+      </c>
+      <c r="BQ4">
+        <v>737.4100920167251</v>
+      </c>
+      <c r="BR4">
+        <v>723.5805277170588</v>
+      </c>
+      <c r="BS4">
+        <v>749.4332197421988</v>
+      </c>
+      <c r="BT4">
+        <v>725.9844273269946</v>
+      </c>
+      <c r="BU4">
+        <v>730.5572764024727</v>
+      </c>
+      <c r="BV4">
+        <v>736.5440931101604</v>
+      </c>
+      <c r="BW4">
+        <v>742.8563647097239</v>
+      </c>
+      <c r="BX4">
+        <v>750.0912704803031</v>
+      </c>
+      <c r="BY4">
+        <v>748.330335599308</v>
+      </c>
+      <c r="BZ4">
+        <v>725.2560475731436</v>
+      </c>
+      <c r="CA4">
+        <v>742.6127396275551</v>
+      </c>
+      <c r="CB4">
+        <v>736.5017517962378</v>
+      </c>
+      <c r="CC4">
+        <v>721.023418993454</v>
+      </c>
+      <c r="CD4">
+        <v>749.2112213218682</v>
+      </c>
+      <c r="CE4">
+        <v>738.1458181309573</v>
+      </c>
+      <c r="CF4">
+        <v>755.064445892771</v>
+      </c>
+      <c r="CG4">
+        <v>746.5618787574411</v>
+      </c>
+      <c r="CH4">
+        <v>750.3941560163322</v>
+      </c>
+      <c r="CI4">
+        <v>736.5546177274081</v>
+      </c>
+      <c r="CJ4">
+        <v>738.3301600595203</v>
+      </c>
+      <c r="CK4">
+        <v>733.4512075073714</v>
+      </c>
+      <c r="CL4">
+        <v>730.4061153311045</v>
+      </c>
+      <c r="CM4">
+        <v>746.1664800778565</v>
+      </c>
+      <c r="CN4">
+        <v>734.301432708608</v>
+      </c>
+      <c r="CO4">
+        <v>742.6817835993669</v>
+      </c>
+      <c r="CP4">
+        <v>746.0609060107033</v>
+      </c>
+      <c r="CQ4">
+        <v>760.6706416068406</v>
+      </c>
+      <c r="CR4">
+        <v>743.6884665818109</v>
+      </c>
+      <c r="CS4">
+        <v>731.2305646058959</v>
+      </c>
+      <c r="CT4">
+        <v>729.2880287404512</v>
+      </c>
+      <c r="CU4">
+        <v>724.8702658715719</v>
+      </c>
+      <c r="CV4">
+        <v>727.8800182107564</v>
+      </c>
+      <c r="CW4">
+        <v>753.0398359431707</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:101">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75.63448006546501</v>
+        <v>70.14203957282309</v>
       </c>
       <c r="C5">
-        <v>70.9197086672239</v>
+        <v>69.26415085585937</v>
       </c>
       <c r="D5">
-        <v>68.13120316837067</v>
+        <v>66.59298568223514</v>
       </c>
       <c r="E5">
-        <v>67.01597493372523</v>
+        <v>70.27226527519517</v>
       </c>
       <c r="F5">
-        <v>69.16564789740389</v>
+        <v>68.62596891473959</v>
       </c>
       <c r="G5">
-        <v>70.64959102093238</v>
+        <v>68.41371301755768</v>
       </c>
       <c r="H5">
-        <v>67.21017176437755</v>
+        <v>70.73028348636342</v>
       </c>
       <c r="I5">
-        <v>67.4632909014514</v>
+        <v>67.66275239230957</v>
       </c>
       <c r="J5">
-        <v>69.4646787800835</v>
+        <v>68.58669535545332</v>
       </c>
       <c r="K5">
-        <v>70.90108323545873</v>
+        <v>69.17815091715302</v>
       </c>
       <c r="L5">
-        <v>68.05334473911597</v>
+        <v>70.06909740840219</v>
       </c>
       <c r="M5">
-        <v>72.47208834560772</v>
+        <v>67.92538735421563</v>
       </c>
       <c r="N5">
-        <v>68.20408849395935</v>
+        <v>68.31864081336231</v>
       </c>
       <c r="O5">
-        <v>67.21625549629782</v>
+        <v>67.31042374271863</v>
       </c>
       <c r="P5">
-        <v>69.55621950073514</v>
+        <v>72.8469428693805</v>
       </c>
       <c r="Q5">
-        <v>68.13346634341785</v>
+        <v>68.55066304106613</v>
       </c>
       <c r="R5">
-        <v>69.39890158357238</v>
+        <v>68.81655938829786</v>
       </c>
       <c r="S5">
-        <v>71.96932325030197</v>
+        <v>66.74483162500115</v>
       </c>
       <c r="T5">
-        <v>69.22328918978654</v>
+        <v>68.82240886470953</v>
       </c>
       <c r="U5">
-        <v>68.37801590353672</v>
+        <v>68.8776167653571</v>
       </c>
       <c r="V5">
-        <v>71.56985088755307</v>
+        <v>67.65515664005922</v>
       </c>
       <c r="W5">
-        <v>69.62873921625909</v>
+        <v>70.80704969833955</v>
       </c>
       <c r="X5">
-        <v>70.99925175728629</v>
+        <v>70.12219468184692</v>
       </c>
       <c r="Y5">
-        <v>68.55659117102678</v>
+        <v>68.4304025128308</v>
       </c>
       <c r="Z5">
-        <v>69.680399694443</v>
+        <v>68.85802262298878</v>
       </c>
       <c r="AA5">
-        <v>70.55443613563085</v>
+        <v>69.25850051242595</v>
       </c>
       <c r="AB5">
-        <v>70.46266077440585</v>
+        <v>68.50806020474788</v>
       </c>
       <c r="AC5">
-        <v>69.61018258934084</v>
+        <v>68.13542929917782</v>
       </c>
       <c r="AD5">
-        <v>66.80605534392888</v>
+        <v>66.53687172294494</v>
       </c>
       <c r="AE5">
-        <v>72.42414986630331</v>
+        <v>66.30117036646473</v>
       </c>
       <c r="AF5">
-        <v>70.47207357930216</v>
+        <v>70.45028629532848</v>
       </c>
       <c r="AG5">
-        <v>68.23269689389299</v>
+        <v>71.45182203438857</v>
       </c>
       <c r="AH5">
-        <v>68.5069066386468</v>
+        <v>70.25751565846561</v>
       </c>
       <c r="AI5">
-        <v>71.32257989793436</v>
+        <v>69.48091577187317</v>
       </c>
       <c r="AJ5">
-        <v>71.46078823407576</v>
+        <v>68.51303636920161</v>
       </c>
       <c r="AK5">
-        <v>67.39151191381379</v>
+        <v>69.53574242462841</v>
       </c>
       <c r="AL5">
-        <v>69.28581604235131</v>
+        <v>69.67207260300749</v>
       </c>
       <c r="AM5">
-        <v>68.21575848920448</v>
+        <v>71.06753845610956</v>
       </c>
       <c r="AN5">
-        <v>69.14935949879001</v>
+        <v>68.68939942328836</v>
       </c>
       <c r="AO5">
-        <v>66.59173912045686</v>
+        <v>70.01527208260759</v>
       </c>
       <c r="AP5">
-        <v>68.46392600938762</v>
+        <v>69.54763632506219</v>
       </c>
       <c r="AQ5">
-        <v>66.92237145902313</v>
+        <v>68.42889585883127</v>
       </c>
       <c r="AR5">
-        <v>72.19064637487133</v>
+        <v>68.81304178870568</v>
       </c>
       <c r="AS5">
-        <v>68.24082761037795</v>
+        <v>71.21259300642477</v>
       </c>
       <c r="AT5">
-        <v>71.96331888748438</v>
+        <v>66.65096548685376</v>
       </c>
       <c r="AU5">
-        <v>70.36318863206122</v>
+        <v>68.93179188433345</v>
       </c>
       <c r="AV5">
-        <v>66.1585094533249</v>
+        <v>68.35357687366947</v>
       </c>
       <c r="AW5">
-        <v>67.00126011713597</v>
+        <v>71.36753155413143</v>
       </c>
       <c r="AX5">
-        <v>71.25941259513858</v>
+        <v>64.79315519416186</v>
       </c>
       <c r="AY5">
-        <v>70.81299497603779</v>
+        <v>67.99410591539437</v>
+      </c>
+      <c r="AZ5">
+        <v>68.76741020258993</v>
+      </c>
+      <c r="BA5">
+        <v>65.77995260880007</v>
+      </c>
+      <c r="BB5">
+        <v>67.39783820137015</v>
+      </c>
+      <c r="BC5">
+        <v>68.31776100670882</v>
+      </c>
+      <c r="BD5">
+        <v>68.63319484975409</v>
+      </c>
+      <c r="BE5">
+        <v>67.61448353880149</v>
+      </c>
+      <c r="BF5">
+        <v>67.01171235926088</v>
+      </c>
+      <c r="BG5">
+        <v>67.55007411049844</v>
+      </c>
+      <c r="BH5">
+        <v>72.43690173554177</v>
+      </c>
+      <c r="BI5">
+        <v>70.82803206604599</v>
+      </c>
+      <c r="BJ5">
+        <v>66.3741367049137</v>
+      </c>
+      <c r="BK5">
+        <v>68.79393252742759</v>
+      </c>
+      <c r="BL5">
+        <v>70.3344352140989</v>
+      </c>
+      <c r="BM5">
+        <v>70.73023004386297</v>
+      </c>
+      <c r="BN5">
+        <v>68.54220117012484</v>
+      </c>
+      <c r="BO5">
+        <v>68.97413323753165</v>
+      </c>
+      <c r="BP5">
+        <v>65.74677209114094</v>
+      </c>
+      <c r="BQ5">
+        <v>68.34506962164006</v>
+      </c>
+      <c r="BR5">
+        <v>67.39260099481855</v>
+      </c>
+      <c r="BS5">
+        <v>69.64821956090636</v>
+      </c>
+      <c r="BT5">
+        <v>69.65616208505098</v>
+      </c>
+      <c r="BU5">
+        <v>67.2863206698552</v>
+      </c>
+      <c r="BV5">
+        <v>68.02095345593558</v>
+      </c>
+      <c r="BW5">
+        <v>70.14578253502198</v>
+      </c>
+      <c r="BX5">
+        <v>71.45214493670883</v>
+      </c>
+      <c r="BY5">
+        <v>70.53566069665115</v>
+      </c>
+      <c r="BZ5">
+        <v>67.73827112132699</v>
+      </c>
+      <c r="CA5">
+        <v>70.14247864679028</v>
+      </c>
+      <c r="CB5">
+        <v>69.22970589845812</v>
+      </c>
+      <c r="CC5">
+        <v>64.99476849863866</v>
+      </c>
+      <c r="CD5">
+        <v>70.22069691697074</v>
+      </c>
+      <c r="CE5">
+        <v>68.21266143802073</v>
+      </c>
+      <c r="CF5">
+        <v>72.66100131213983</v>
+      </c>
+      <c r="CG5">
+        <v>70.5531673610604</v>
+      </c>
+      <c r="CH5">
+        <v>71.9026489430366</v>
+      </c>
+      <c r="CI5">
+        <v>69.45962902529914</v>
+      </c>
+      <c r="CJ5">
+        <v>68.03468433611752</v>
+      </c>
+      <c r="CK5">
+        <v>71.38445698380869</v>
+      </c>
+      <c r="CL5">
+        <v>68.29010080138326</v>
+      </c>
+      <c r="CM5">
+        <v>71.78586832323757</v>
+      </c>
+      <c r="CN5">
+        <v>68.64696866592654</v>
+      </c>
+      <c r="CO5">
+        <v>69.80143763086724</v>
+      </c>
+      <c r="CP5">
+        <v>72.45816330178387</v>
+      </c>
+      <c r="CQ5">
+        <v>72.85978922443466</v>
+      </c>
+      <c r="CR5">
+        <v>68.83701468460922</v>
+      </c>
+      <c r="CS5">
+        <v>67.29370814322891</v>
+      </c>
+      <c r="CT5">
+        <v>67.22482791223983</v>
+      </c>
+      <c r="CU5">
+        <v>67.37436411441952</v>
+      </c>
+      <c r="CV5">
+        <v>67.40811005482563</v>
+      </c>
+      <c r="CW5">
+        <v>69.43816110965837</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:101">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27442.30326810381</v>
+        <v>24331.21916657417</v>
       </c>
       <c r="C6">
-        <v>24506.16642269801</v>
+        <v>23741.55295249726</v>
       </c>
       <c r="D6">
-        <v>22913.05237642613</v>
+        <v>22255.01123977826</v>
       </c>
       <c r="E6">
-        <v>22321.23842344301</v>
+        <v>24122.35196495124</v>
       </c>
       <c r="F6">
-        <v>23613.75861694048</v>
+        <v>23419.45198625607</v>
       </c>
       <c r="G6">
-        <v>24475.61104746626</v>
+        <v>23060.39027381069</v>
       </c>
       <c r="H6">
-        <v>22521.39653355115</v>
+        <v>24734.22428791597</v>
       </c>
       <c r="I6">
-        <v>22496.24760031061</v>
+        <v>22723.76206579768</v>
       </c>
       <c r="J6">
-        <v>23911.60204411225</v>
+        <v>23430.4493269086</v>
       </c>
       <c r="K6">
-        <v>24472.75931888975</v>
+        <v>23645.88062177158</v>
       </c>
       <c r="L6">
-        <v>22980.50934494326</v>
+        <v>24030.85622554061</v>
       </c>
       <c r="M6">
-        <v>25552.62590478977</v>
+        <v>23015.19065087771</v>
       </c>
       <c r="N6">
-        <v>23112.0785503873</v>
+        <v>23048.57096653072</v>
       </c>
       <c r="O6">
-        <v>22612.26252406489</v>
+        <v>22571.09764652263</v>
       </c>
       <c r="P6">
-        <v>23958.21179973137</v>
+        <v>25634.31515807977</v>
       </c>
       <c r="Q6">
-        <v>23181.17050455452</v>
+        <v>23338.44859576093</v>
       </c>
       <c r="R6">
-        <v>23580.64136591791</v>
+        <v>23337.39997905011</v>
       </c>
       <c r="S6">
-        <v>25312.15207312157</v>
+        <v>22185.38002509997</v>
       </c>
       <c r="T6">
-        <v>23584.80864290882</v>
+        <v>23166.4826701184</v>
       </c>
       <c r="U6">
-        <v>23196.72496929343</v>
+        <v>23275.46814601087</v>
       </c>
       <c r="V6">
-        <v>24961.0108089954</v>
+        <v>22817.37984130169</v>
       </c>
       <c r="W6">
-        <v>23886.35468494613</v>
+        <v>24460.43173157901</v>
       </c>
       <c r="X6">
-        <v>24521.89408901491</v>
+        <v>24008.92754767823</v>
       </c>
       <c r="Y6">
-        <v>23291.87282192382</v>
+        <v>23269.2161724305</v>
       </c>
       <c r="Z6">
-        <v>24018.43661465311</v>
+        <v>23324.14108911407</v>
       </c>
       <c r="AA6">
-        <v>24517.68636809488</v>
+        <v>23588.82048580379</v>
       </c>
       <c r="AB6">
-        <v>24269.03476672424</v>
+        <v>23169.81351642685</v>
       </c>
       <c r="AC6">
-        <v>23759.1329890036</v>
+        <v>23005.60416512987</v>
       </c>
       <c r="AD6">
-        <v>22343.2936495035</v>
+        <v>22202.01682578442</v>
       </c>
       <c r="AE6">
-        <v>25608.27824765531</v>
+        <v>21949.89642134106</v>
       </c>
       <c r="AF6">
-        <v>24246.06090454491</v>
+        <v>24550.47378523656</v>
       </c>
       <c r="AG6">
-        <v>23012.09454336176</v>
+        <v>24881.0212646812</v>
       </c>
       <c r="AH6">
-        <v>23013.77927962961</v>
+        <v>24137.47491699611</v>
       </c>
       <c r="AI6">
-        <v>24862.34589056074</v>
+        <v>23884.36333909512</v>
       </c>
       <c r="AJ6">
-        <v>25135.81512602513</v>
+        <v>23214.58104022422</v>
       </c>
       <c r="AK6">
-        <v>22703.54166659953</v>
+        <v>23762.91095522915</v>
       </c>
       <c r="AL6">
-        <v>23644.09053344718</v>
+        <v>23760.39386181405</v>
       </c>
       <c r="AM6">
-        <v>22977.74032316812</v>
+        <v>24432.68629188776</v>
       </c>
       <c r="AN6">
-        <v>23407.76793485555</v>
+        <v>23400.10973304025</v>
       </c>
       <c r="AO6">
-        <v>22291.46527905682</v>
+        <v>24054.37988606415</v>
       </c>
       <c r="AP6">
-        <v>23340.95219946567</v>
+        <v>23726.77363601171</v>
       </c>
       <c r="AQ6">
-        <v>22428.02571324516</v>
+        <v>23283.07277695672</v>
       </c>
       <c r="AR6">
-        <v>25442.24893419492</v>
+        <v>23296.11026514412</v>
       </c>
       <c r="AS6">
-        <v>22974.81074393629</v>
+        <v>24830.10171274569</v>
       </c>
       <c r="AT6">
-        <v>25121.78824353118</v>
+        <v>22006.09536369525</v>
       </c>
       <c r="AU6">
-        <v>24333.37349165043</v>
+        <v>23426.2548839946</v>
       </c>
       <c r="AV6">
-        <v>21901.44368322537</v>
+        <v>23117.71299815529</v>
       </c>
       <c r="AW6">
-        <v>22212.49826354668</v>
+        <v>24806.78136962207</v>
       </c>
       <c r="AX6">
-        <v>24973.58684251815</v>
+        <v>21175.05026607999</v>
       </c>
       <c r="AY6">
-        <v>24564.42238005222</v>
+        <v>22923.77074603126</v>
+      </c>
+      <c r="AZ6">
+        <v>23431.43377044751</v>
+      </c>
+      <c r="BA6">
+        <v>21517.60291960684</v>
+      </c>
+      <c r="BB6">
+        <v>22665.14883960773</v>
+      </c>
+      <c r="BC6">
+        <v>23131.8365333556</v>
+      </c>
+      <c r="BD6">
+        <v>23326.37130254434</v>
+      </c>
+      <c r="BE6">
+        <v>22750.50443648731</v>
+      </c>
+      <c r="BF6">
+        <v>22287.49906794563</v>
+      </c>
+      <c r="BG6">
+        <v>22558.20192694313</v>
+      </c>
+      <c r="BH6">
+        <v>25575.88857633579</v>
+      </c>
+      <c r="BI6">
+        <v>24348.75725011021</v>
+      </c>
+      <c r="BJ6">
+        <v>22005.23454758006</v>
+      </c>
+      <c r="BK6">
+        <v>23346.92205145405</v>
+      </c>
+      <c r="BL6">
+        <v>24128.72529598893</v>
+      </c>
+      <c r="BM6">
+        <v>24594.99442190669</v>
+      </c>
+      <c r="BN6">
+        <v>23171.39016043227</v>
+      </c>
+      <c r="BO6">
+        <v>23366.83371919668</v>
+      </c>
+      <c r="BP6">
+        <v>21274.9135005781</v>
+      </c>
+      <c r="BQ6">
+        <v>23182.74219217898</v>
+      </c>
+      <c r="BR6">
+        <v>22518.92341943319</v>
+      </c>
+      <c r="BS6">
+        <v>23935.25724538827</v>
+      </c>
+      <c r="BT6">
+        <v>23656.16072333517</v>
+      </c>
+      <c r="BU6">
+        <v>22529.58919592083</v>
+      </c>
+      <c r="BV6">
+        <v>22930.99118144815</v>
+      </c>
+      <c r="BW6">
+        <v>24153.77735191381</v>
+      </c>
+      <c r="BX6">
+        <v>24870.59253360426</v>
+      </c>
+      <c r="BY6">
+        <v>24432.00882452511</v>
+      </c>
+      <c r="BZ6">
+        <v>22679.34800297894</v>
+      </c>
+      <c r="CA6">
+        <v>24147.74743036112</v>
+      </c>
+      <c r="CB6">
+        <v>23588.17382428987</v>
+      </c>
+      <c r="CC6">
+        <v>21300.34592417723</v>
+      </c>
+      <c r="CD6">
+        <v>24266.47146836226</v>
+      </c>
+      <c r="CE6">
+        <v>23094.70227484226</v>
+      </c>
+      <c r="CF6">
+        <v>25588.13249390832</v>
+      </c>
+      <c r="CG6">
+        <v>24367.49509786033</v>
+      </c>
+      <c r="CH6">
+        <v>25152.7713915735</v>
+      </c>
+      <c r="CI6">
+        <v>23691.86082959854</v>
+      </c>
+      <c r="CJ6">
+        <v>23030.97595548708</v>
+      </c>
+      <c r="CK6">
+        <v>24624.049789879</v>
+      </c>
+      <c r="CL6">
+        <v>22997.47704092707</v>
+      </c>
+      <c r="CM6">
+        <v>25020.08719857178</v>
+      </c>
+      <c r="CN6">
+        <v>23241.19773515866</v>
+      </c>
+      <c r="CO6">
+        <v>23962.83203236839</v>
+      </c>
+      <c r="CP6">
+        <v>25392.41691247367</v>
+      </c>
+      <c r="CQ6">
+        <v>25774.22143420855</v>
+      </c>
+      <c r="CR6">
+        <v>23509.67802475463</v>
+      </c>
+      <c r="CS6">
+        <v>22560.85511897302</v>
+      </c>
+      <c r="CT6">
+        <v>22479.71241867038</v>
+      </c>
+      <c r="CU6">
+        <v>22526.01516974422</v>
+      </c>
+      <c r="CV6">
+        <v>22569.14692068321</v>
+      </c>
+      <c r="CW6">
+        <v>23898.32805652262</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:101">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1564.153997114316</v>
+        <v>-280.8058393974189</v>
       </c>
       <c r="C7">
-        <v>805.6608579690367</v>
+        <v>-405.8760273868759</v>
       </c>
       <c r="D7">
-        <v>495.6050482226716</v>
+        <v>-338.8621489497028</v>
       </c>
       <c r="E7">
-        <v>858.5903785203554</v>
+        <v>-970.7188760596741</v>
       </c>
       <c r="F7">
-        <v>960.2744376170997</v>
+        <v>-384.6538785413713</v>
       </c>
       <c r="G7">
-        <v>1291.387839744132</v>
+        <v>-521.1810603341988</v>
       </c>
       <c r="H7">
-        <v>359.2400378977125</v>
+        <v>-318.4469328401132</v>
       </c>
       <c r="I7">
-        <v>801.9481062361951</v>
+        <v>-1268.376444620872</v>
       </c>
       <c r="J7">
-        <v>1218.5209848676</v>
+        <v>-1581.709271182188</v>
       </c>
       <c r="K7">
-        <v>690.0755434092015</v>
+        <v>-752.0255380376451</v>
       </c>
       <c r="L7">
-        <v>1479.075877585365</v>
+        <v>-1812.13574337857</v>
       </c>
       <c r="M7">
-        <v>636.9515938904118</v>
+        <v>-796.212296942658</v>
       </c>
       <c r="N7">
-        <v>292.6284664182552</v>
+        <v>-804.0909113214749</v>
       </c>
       <c r="O7">
-        <v>1537.306676550998</v>
+        <v>-458.5801071055312</v>
       </c>
       <c r="P7">
-        <v>746.1248807712331</v>
+        <v>-641.3538167432902</v>
       </c>
       <c r="Q7">
-        <v>533.1523376955814</v>
+        <v>-1419.320496916529</v>
       </c>
       <c r="R7">
-        <v>631.4391069044891</v>
+        <v>-836.1301216674038</v>
       </c>
       <c r="S7">
-        <v>282.4517143685189</v>
+        <v>-990.0611874632139</v>
       </c>
       <c r="T7">
-        <v>1109.779242637592</v>
+        <v>-1185.061166047483</v>
       </c>
       <c r="U7">
-        <v>734.5424333732112</v>
+        <v>-538.5370074427883</v>
       </c>
       <c r="V7">
-        <v>812.6295079809876</v>
+        <v>-866.9479694745352</v>
       </c>
       <c r="W7">
-        <v>616.9751257207862</v>
+        <v>-1387.991736058928</v>
       </c>
       <c r="X7">
-        <v>346.1607976370308</v>
+        <v>-672.6819039071249</v>
       </c>
       <c r="Y7">
-        <v>668.5717912054708</v>
+        <v>-548.2223035701492</v>
       </c>
       <c r="Z7">
-        <v>499.6202779038268</v>
+        <v>-491.080928350493</v>
       </c>
       <c r="AA7">
-        <v>364.9686215580182</v>
+        <v>-984.6548863477813</v>
       </c>
       <c r="AB7">
-        <v>323.2926624513569</v>
+        <v>-455.6212094709475</v>
       </c>
       <c r="AC7">
-        <v>566.9655909615454</v>
+        <v>-432.9006774628945</v>
       </c>
       <c r="AD7">
-        <v>908.0122013515115</v>
+        <v>-629.7727062479345</v>
       </c>
       <c r="AE7">
-        <v>720.3550645909422</v>
+        <v>-737.0626666953127</v>
       </c>
       <c r="AF7">
-        <v>595.4351965109142</v>
+        <v>-384.4337486305111</v>
       </c>
       <c r="AG7">
-        <v>455.2794999127426</v>
+        <v>-457.9894384878875</v>
       </c>
       <c r="AH7">
-        <v>824.5786258916474</v>
+        <v>-172.952062754087</v>
       </c>
       <c r="AI7">
-        <v>463.8731075941035</v>
+        <v>-437.2736806587661</v>
       </c>
       <c r="AJ7">
-        <v>1167.948357288084</v>
+        <v>-338.3556894714077</v>
       </c>
       <c r="AK7">
-        <v>1122.77062104304</v>
+        <v>-312.7606562634504</v>
       </c>
       <c r="AL7">
-        <v>908.1533267777179</v>
+        <v>-607.410956867191</v>
       </c>
       <c r="AM7">
-        <v>1388.561943895873</v>
+        <v>-1267.770820672026</v>
       </c>
       <c r="AN7">
-        <v>635.5825598935563</v>
+        <v>-546.0161654991541</v>
       </c>
       <c r="AO7">
-        <v>305.1566686362758</v>
+        <v>-758.2041856229959</v>
       </c>
       <c r="AP7">
-        <v>1314.946131640316</v>
+        <v>-1659.079301432835</v>
       </c>
       <c r="AQ7">
-        <v>499.68122972614</v>
+        <v>-290.6739314364893</v>
       </c>
       <c r="AR7">
-        <v>939.949826972953</v>
+        <v>-254.2541815568582</v>
       </c>
       <c r="AS7">
-        <v>1198.961480656455</v>
+        <v>131.6031957599671</v>
       </c>
       <c r="AT7">
-        <v>925.3863768385822</v>
+        <v>-372.096699938155</v>
       </c>
       <c r="AU7">
-        <v>991.2219328962473</v>
+        <v>-1133.443526763534</v>
       </c>
       <c r="AV7">
-        <v>880.4819686238926</v>
+        <v>-1000.354630590624</v>
       </c>
       <c r="AW7">
-        <v>749.3768465600652</v>
+        <v>-944.4917233207948</v>
       </c>
       <c r="AX7">
-        <v>215.0375306034732</v>
+        <v>-1275.596315642527</v>
       </c>
       <c r="AY7">
-        <v>318.5508417818695</v>
+        <v>-629.5546132716884</v>
+      </c>
+      <c r="AZ7">
+        <v>-1006.776744446803</v>
+      </c>
+      <c r="BA7">
+        <v>-639.2010518205791</v>
+      </c>
+      <c r="BB7">
+        <v>-395.3808368236463</v>
+      </c>
+      <c r="BC7">
+        <v>-779.7708758060066</v>
+      </c>
+      <c r="BD7">
+        <v>-850.538668197955</v>
+      </c>
+      <c r="BE7">
+        <v>-764.1561973132106</v>
+      </c>
+      <c r="BF7">
+        <v>-847.5822944248871</v>
+      </c>
+      <c r="BG7">
+        <v>-680.130712341217</v>
+      </c>
+      <c r="BH7">
+        <v>-538.2056064858463</v>
+      </c>
+      <c r="BI7">
+        <v>-440.0678211731317</v>
+      </c>
+      <c r="BJ7">
+        <v>-305.9128068642767</v>
+      </c>
+      <c r="BK7">
+        <v>-860.0157425995774</v>
+      </c>
+      <c r="BL7">
+        <v>-784.2483636127055</v>
+      </c>
+      <c r="BM7">
+        <v>-600.8229595968684</v>
+      </c>
+      <c r="BN7">
+        <v>-1517.119074880699</v>
+      </c>
+      <c r="BO7">
+        <v>-596.0326578453067</v>
+      </c>
+      <c r="BP7">
+        <v>-1071.537612383543</v>
+      </c>
+      <c r="BQ7">
+        <v>-1379.203075581829</v>
+      </c>
+      <c r="BR7">
+        <v>-764.3794562295526</v>
+      </c>
+      <c r="BS7">
+        <v>-675.3175904833029</v>
+      </c>
+      <c r="BT7">
+        <v>-485.4482564078106</v>
+      </c>
+      <c r="BU7">
+        <v>-515.8332348715929</v>
+      </c>
+      <c r="BV7">
+        <v>-1003.230533557943</v>
+      </c>
+      <c r="BW7">
+        <v>-368.6295732342184</v>
+      </c>
+      <c r="BX7">
+        <v>-414.7530920898122</v>
+      </c>
+      <c r="BY7">
+        <v>-739.880044980339</v>
+      </c>
+      <c r="BZ7">
+        <v>-633.2041440441299</v>
+      </c>
+      <c r="CA7">
+        <v>-1030.523471534054</v>
+      </c>
+      <c r="CB7">
+        <v>-853.6382448263709</v>
+      </c>
+      <c r="CC7">
+        <v>-677.1097914609917</v>
+      </c>
+      <c r="CD7">
+        <v>-303.3347664171259</v>
+      </c>
+      <c r="CE7">
+        <v>-1115.874843300479</v>
+      </c>
+      <c r="CF7">
+        <v>-318.6557069293272</v>
+      </c>
+      <c r="CG7">
+        <v>-1216.816199654535</v>
+      </c>
+      <c r="CH7">
+        <v>-1103.797384360974</v>
+      </c>
+      <c r="CI7">
+        <v>-671.7814732375565</v>
+      </c>
+      <c r="CJ7">
+        <v>-742.2782551537156</v>
+      </c>
+      <c r="CK7">
+        <v>-575.5000614636787</v>
+      </c>
+      <c r="CL7">
+        <v>-602.1301529888839</v>
+      </c>
+      <c r="CM7">
+        <v>-960.5733617469635</v>
+      </c>
+      <c r="CN7">
+        <v>-776.0795032532319</v>
+      </c>
+      <c r="CO7">
+        <v>-783.0279072712937</v>
+      </c>
+      <c r="CP7">
+        <v>-1723.842879786266</v>
+      </c>
+      <c r="CQ7">
+        <v>-752.867335057172</v>
+      </c>
+      <c r="CR7">
+        <v>-624.5801142080254</v>
+      </c>
+      <c r="CS7">
+        <v>-868.6621925276484</v>
+      </c>
+      <c r="CT7">
+        <v>-734.9929092544478</v>
+      </c>
+      <c r="CU7">
+        <v>-481.1960250158501</v>
+      </c>
+      <c r="CV7">
+        <v>-418.0542106443821</v>
+      </c>
+      <c r="CW7">
+        <v>-401.128190562068</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:101">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1079.480833729977</v>
+        <v>-3093.721524790498</v>
       </c>
       <c r="C8">
-        <v>548.4695670350866</v>
+        <v>-3161.060128888323</v>
       </c>
       <c r="D8">
-        <v>-10.24352147836453</v>
+        <v>-3189.415510023719</v>
       </c>
       <c r="E8">
-        <v>-427.0086728393364</v>
+        <v>-2914.81428095658</v>
       </c>
       <c r="F8">
-        <v>-691.7444205436552</v>
+        <v>-2855.249331781768</v>
       </c>
       <c r="G8">
-        <v>-559.7867644734312</v>
+        <v>-3528.790876347973</v>
       </c>
       <c r="H8">
-        <v>-701.7613103978163</v>
+        <v>-2353.237124470731</v>
       </c>
       <c r="I8">
-        <v>235.4190048667718</v>
+        <v>-1445.116915279565</v>
       </c>
       <c r="J8">
-        <v>1073.222529112642</v>
+        <v>-1876.933649672178</v>
       </c>
       <c r="K8">
-        <v>-1153.032250229877</v>
+        <v>-3604.332926484432</v>
       </c>
       <c r="L8">
-        <v>-207.477017164016</v>
+        <v>-2679.30246676293</v>
       </c>
       <c r="M8">
-        <v>7.665399074048542</v>
+        <v>-2586.285173465815</v>
       </c>
       <c r="N8">
-        <v>-1023.103102279706</v>
+        <v>-2868.830938921789</v>
       </c>
       <c r="O8">
-        <v>-324.8588005552538</v>
+        <v>-3925.903624692313</v>
       </c>
       <c r="P8">
-        <v>-847.9691877644073</v>
+        <v>-3791.896075971121</v>
       </c>
       <c r="Q8">
-        <v>-852.3782941480448</v>
+        <v>-2261.998085617249</v>
       </c>
       <c r="R8">
-        <v>338.5065507490404</v>
+        <v>-2755.640217982013</v>
       </c>
       <c r="S8">
-        <v>-536.6264785721744</v>
+        <v>-2356.798377385741</v>
       </c>
       <c r="T8">
-        <v>1250.832783830157</v>
+        <v>-4196.866573233054</v>
       </c>
       <c r="U8">
-        <v>-365.0639442163018</v>
+        <v>-3928.444340636589</v>
       </c>
       <c r="V8">
-        <v>-988.2265653457757</v>
+        <v>-3544.911354028275</v>
       </c>
       <c r="W8">
-        <v>-2081.871559408907</v>
+        <v>-2751.574795224682</v>
       </c>
       <c r="X8">
-        <v>-1232.096828177865</v>
+        <v>-4177.315669211754</v>
       </c>
       <c r="Y8">
-        <v>-801.5471997857463</v>
+        <v>-3317.487636267286</v>
       </c>
       <c r="Z8">
-        <v>-489.9737199170953</v>
+        <v>-3230.560788047915</v>
       </c>
       <c r="AA8">
-        <v>-26.77776098443532</v>
+        <v>-2152.424940166198</v>
       </c>
       <c r="AB8">
-        <v>-815.4974894786124</v>
+        <v>-4096.471039786567</v>
       </c>
       <c r="AC8">
-        <v>-51.29962136465942</v>
+        <v>-3772.744273322482</v>
       </c>
       <c r="AD8">
-        <v>945.7733716466519</v>
+        <v>-3677.353936530271</v>
       </c>
       <c r="AE8">
-        <v>198.4398016937578</v>
+        <v>-2514.475565225465</v>
       </c>
       <c r="AF8">
-        <v>204.5876889910108</v>
+        <v>-2599.3876731532</v>
       </c>
       <c r="AG8">
-        <v>735.4501937487958</v>
+        <v>-4060.521027277566</v>
       </c>
       <c r="AH8">
-        <v>-343.2456568552016</v>
+        <v>-1991.973241660417</v>
       </c>
       <c r="AI8">
-        <v>-493.5744742650495</v>
+        <v>-3406.915743538961</v>
       </c>
       <c r="AJ8">
-        <v>228.1896376103083</v>
+        <v>-2776.346564342482</v>
       </c>
       <c r="AK8">
-        <v>934.4516741814864</v>
+        <v>-2155.469334671806</v>
       </c>
       <c r="AL8">
-        <v>284.0250447976077</v>
+        <v>-2981.001829211102</v>
       </c>
       <c r="AM8">
-        <v>-200.4479643561128</v>
+        <v>-2356.081915589895</v>
       </c>
       <c r="AN8">
-        <v>-890.0649768060072</v>
+        <v>-2780.127900869342</v>
       </c>
       <c r="AO8">
-        <v>399.5738625664122</v>
+        <v>-3130.576642646876</v>
       </c>
       <c r="AP8">
-        <v>-1383.391804889941</v>
+        <v>-1218.025598051369</v>
       </c>
       <c r="AQ8">
-        <v>-497.5444527712354</v>
+        <v>-2066.147927153676</v>
       </c>
       <c r="AR8">
-        <v>-995.9626714410391</v>
+        <v>-2681.675027420471</v>
       </c>
       <c r="AS8">
-        <v>-1006.097602773531</v>
+        <v>-3330.040649527925</v>
       </c>
       <c r="AT8">
-        <v>619.7791467938837</v>
+        <v>-2933.278636910209</v>
       </c>
       <c r="AU8">
-        <v>-1075.218913976788</v>
+        <v>-3024.171096495682</v>
       </c>
       <c r="AV8">
-        <v>604.1657864566472</v>
+        <v>-3752.915613848927</v>
       </c>
       <c r="AW8">
-        <v>-601.0439650228481</v>
+        <v>-2583.904416375727</v>
       </c>
       <c r="AX8">
-        <v>-201.6666437610711</v>
+        <v>-2978.275634759689</v>
       </c>
       <c r="AY8">
-        <v>524.5318853925191</v>
+        <v>-4142.910853268528</v>
+      </c>
+      <c r="AZ8">
+        <v>-3166.675542523436</v>
+      </c>
+      <c r="BA8">
+        <v>-2849.035180122375</v>
+      </c>
+      <c r="BB8">
+        <v>-3168.272722821016</v>
+      </c>
+      <c r="BC8">
+        <v>-3880.323046903707</v>
+      </c>
+      <c r="BD8">
+        <v>-3210.790690679288</v>
+      </c>
+      <c r="BE8">
+        <v>-3026.176452912453</v>
+      </c>
+      <c r="BF8">
+        <v>-3513.521823955382</v>
+      </c>
+      <c r="BG8">
+        <v>-3006.116222694566</v>
+      </c>
+      <c r="BH8">
+        <v>-4358.429954861253</v>
+      </c>
+      <c r="BI8">
+        <v>-4315.379275242092</v>
+      </c>
+      <c r="BJ8">
+        <v>-2452.675322095485</v>
+      </c>
+      <c r="BK8">
+        <v>-3919.956851155335</v>
+      </c>
+      <c r="BL8">
+        <v>-3917.771616895947</v>
+      </c>
+      <c r="BM8">
+        <v>-3046.535235835669</v>
+      </c>
+      <c r="BN8">
+        <v>-1604.45655211606</v>
+      </c>
+      <c r="BO8">
+        <v>-4755.18651388076</v>
+      </c>
+      <c r="BP8">
+        <v>-2661.814004178233</v>
+      </c>
+      <c r="BQ8">
+        <v>-2054.001629095573</v>
+      </c>
+      <c r="BR8">
+        <v>-2500.795104004495</v>
+      </c>
+      <c r="BS8">
+        <v>-3735.825464604673</v>
+      </c>
+      <c r="BT8">
+        <v>-3529.312599163531</v>
+      </c>
+      <c r="BU8">
+        <v>-3188.656326648234</v>
+      </c>
+      <c r="BV8">
+        <v>-4629.775755648891</v>
+      </c>
+      <c r="BW8">
+        <v>-3213.107332868531</v>
+      </c>
+      <c r="BX8">
+        <v>-3795.62653294082</v>
+      </c>
+      <c r="BY8">
+        <v>-2720.324289531737</v>
+      </c>
+      <c r="BZ8">
+        <v>-3362.286999911385</v>
+      </c>
+      <c r="CA8">
+        <v>-2983.330144414066</v>
+      </c>
+      <c r="CB8">
+        <v>-3226.049985041431</v>
+      </c>
+      <c r="CC8">
+        <v>-3378.441125556517</v>
+      </c>
+      <c r="CD8">
+        <v>-3436.583805238251</v>
+      </c>
+      <c r="CE8">
+        <v>-2915.238719064371</v>
+      </c>
+      <c r="CF8">
+        <v>-3839.948000186804</v>
+      </c>
+      <c r="CG8">
+        <v>-3644.633786660553</v>
+      </c>
+      <c r="CH8">
+        <v>-2276.030952307025</v>
+      </c>
+      <c r="CI8">
+        <v>-3595.805950951078</v>
+      </c>
+      <c r="CJ8">
+        <v>-2841.854981016431</v>
+      </c>
+      <c r="CK8">
+        <v>-3810.032269706088</v>
+      </c>
+      <c r="CL8">
+        <v>-4660.808598087412</v>
+      </c>
+      <c r="CM8">
+        <v>-3016.587234055519</v>
+      </c>
+      <c r="CN8">
+        <v>-3713.865671440674</v>
+      </c>
+      <c r="CO8">
+        <v>-2703.012034617319</v>
+      </c>
+      <c r="CP8">
+        <v>-1854.324249164542</v>
+      </c>
+      <c r="CQ8">
+        <v>-3414.098473847496</v>
+      </c>
+      <c r="CR8">
+        <v>-1673.318638387288</v>
+      </c>
+      <c r="CS8">
+        <v>-2633.02098794756</v>
+      </c>
+      <c r="CT8">
+        <v>-3833.717477848128</v>
+      </c>
+      <c r="CU8">
+        <v>-2594.889431832685</v>
+      </c>
+      <c r="CV8">
+        <v>-3293.50424205293</v>
+      </c>
+      <c r="CW8">
+        <v>-2968.625504588215</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:101">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1949.055265298897</v>
+        <v>2000</v>
       </c>
       <c r="C9">
-        <v>1892.501704829418</v>
+        <v>2000</v>
       </c>
       <c r="D9">
-        <v>1876.576652563294</v>
+        <v>2000</v>
       </c>
       <c r="E9">
-        <v>1863.947832263946</v>
+        <v>2000</v>
       </c>
       <c r="F9">
-        <v>1889.450889464572</v>
+        <v>2000</v>
       </c>
       <c r="G9">
-        <v>1898.568393502112</v>
+        <v>2000</v>
       </c>
       <c r="H9">
-        <v>1868.73736142986</v>
+        <v>2000</v>
       </c>
       <c r="I9">
-        <v>1862.28080419443</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>1889.577357895937</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>1904.124856004773</v>
+        <v>2000</v>
       </c>
       <c r="L9">
-        <v>1875.296744106</v>
+        <v>2000</v>
       </c>
       <c r="M9">
-        <v>1920.475951415168</v>
+        <v>2000</v>
       </c>
       <c r="N9">
-        <v>1864.955304098652</v>
+        <v>2000</v>
       </c>
       <c r="O9">
-        <v>1855.833663639769</v>
+        <v>2000</v>
       </c>
       <c r="P9">
-        <v>1885.559236590888</v>
+        <v>2000</v>
       </c>
       <c r="Q9">
-        <v>1869.674030420416</v>
+        <v>2000</v>
       </c>
       <c r="R9">
-        <v>1882.562264456139</v>
+        <v>2000</v>
       </c>
       <c r="S9">
-        <v>1925.376267602443</v>
+        <v>2000</v>
       </c>
       <c r="T9">
-        <v>1890.208732886384</v>
+        <v>2000</v>
       </c>
       <c r="U9">
-        <v>1886.944385538887</v>
+        <v>2000</v>
       </c>
       <c r="V9">
-        <v>1903.319014562413</v>
+        <v>2000</v>
       </c>
       <c r="W9">
-        <v>1889.955917092271</v>
+        <v>2000</v>
       </c>
       <c r="X9">
-        <v>1899.744093722352</v>
+        <v>2000</v>
       </c>
       <c r="Y9">
-        <v>1884.311539599169</v>
+        <v>2000</v>
       </c>
       <c r="Z9">
-        <v>1890.474250591999</v>
+        <v>2000</v>
       </c>
       <c r="AA9">
-        <v>1899.062076375035</v>
+        <v>2000</v>
       </c>
       <c r="AB9">
-        <v>1900.769611566872</v>
+        <v>2000</v>
       </c>
       <c r="AC9">
-        <v>1877.935666359771</v>
+        <v>2000</v>
       </c>
       <c r="AD9">
-        <v>1860.554975156362</v>
+        <v>2000</v>
       </c>
       <c r="AE9">
-        <v>1928.247089937571</v>
+        <v>2000</v>
       </c>
       <c r="AF9">
-        <v>1884.724855727107</v>
+        <v>2000</v>
       </c>
       <c r="AG9">
-        <v>1880.930980963789</v>
+        <v>2000</v>
       </c>
       <c r="AH9">
-        <v>1872.682949497098</v>
+        <v>2000</v>
       </c>
       <c r="AI9">
-        <v>1912.235382483025</v>
+        <v>2000</v>
       </c>
       <c r="AJ9">
-        <v>1910.678065569943</v>
+        <v>2000</v>
       </c>
       <c r="AK9">
-        <v>1871.596529757213</v>
+        <v>2000</v>
       </c>
       <c r="AL9">
-        <v>1888.434248634072</v>
+        <v>2000</v>
       </c>
       <c r="AM9">
-        <v>1865.696300092204</v>
+        <v>2000</v>
       </c>
       <c r="AN9">
-        <v>1879.616499120018</v>
+        <v>2000</v>
       </c>
       <c r="AO9">
-        <v>1854.578497784391</v>
+        <v>2000</v>
       </c>
       <c r="AP9">
-        <v>1872.066274647855</v>
+        <v>2000</v>
       </c>
       <c r="AQ9">
-        <v>1861.73497053862</v>
+        <v>2000</v>
       </c>
       <c r="AR9">
-        <v>1909.781350743251</v>
+        <v>2000</v>
       </c>
       <c r="AS9">
-        <v>1881.81257805449</v>
+        <v>2000</v>
       </c>
       <c r="AT9">
-        <v>1909.855373193209</v>
+        <v>2000</v>
       </c>
       <c r="AU9">
-        <v>1905.35322632863</v>
+        <v>2000</v>
       </c>
       <c r="AV9">
-        <v>1849.573704621654</v>
+        <v>2000</v>
       </c>
       <c r="AW9">
-        <v>1856.065905569421</v>
+        <v>2000</v>
       </c>
       <c r="AX9">
-        <v>1908.903170986958</v>
+        <v>2000</v>
       </c>
       <c r="AY9">
-        <v>1900.772123947523</v>
+        <v>2000</v>
+      </c>
+      <c r="AZ9">
+        <v>2000</v>
+      </c>
+      <c r="BA9">
+        <v>2000</v>
+      </c>
+      <c r="BB9">
+        <v>2000</v>
+      </c>
+      <c r="BC9">
+        <v>2000</v>
+      </c>
+      <c r="BD9">
+        <v>2000</v>
+      </c>
+      <c r="BE9">
+        <v>2000</v>
+      </c>
+      <c r="BF9">
+        <v>2000</v>
+      </c>
+      <c r="BG9">
+        <v>2000</v>
+      </c>
+      <c r="BH9">
+        <v>2000</v>
+      </c>
+      <c r="BI9">
+        <v>2000</v>
+      </c>
+      <c r="BJ9">
+        <v>2000</v>
+      </c>
+      <c r="BK9">
+        <v>2000</v>
+      </c>
+      <c r="BL9">
+        <v>2000</v>
+      </c>
+      <c r="BM9">
+        <v>2000</v>
+      </c>
+      <c r="BN9">
+        <v>2000</v>
+      </c>
+      <c r="BO9">
+        <v>2000</v>
+      </c>
+      <c r="BP9">
+        <v>2000</v>
+      </c>
+      <c r="BQ9">
+        <v>2000</v>
+      </c>
+      <c r="BR9">
+        <v>2000</v>
+      </c>
+      <c r="BS9">
+        <v>2000</v>
+      </c>
+      <c r="BT9">
+        <v>2000</v>
+      </c>
+      <c r="BU9">
+        <v>2000</v>
+      </c>
+      <c r="BV9">
+        <v>2000</v>
+      </c>
+      <c r="BW9">
+        <v>2000</v>
+      </c>
+      <c r="BX9">
+        <v>2000</v>
+      </c>
+      <c r="BY9">
+        <v>2000</v>
+      </c>
+      <c r="BZ9">
+        <v>2000</v>
+      </c>
+      <c r="CA9">
+        <v>2000</v>
+      </c>
+      <c r="CB9">
+        <v>2000</v>
+      </c>
+      <c r="CC9">
+        <v>2000</v>
+      </c>
+      <c r="CD9">
+        <v>2000</v>
+      </c>
+      <c r="CE9">
+        <v>2000</v>
+      </c>
+      <c r="CF9">
+        <v>2000</v>
+      </c>
+      <c r="CG9">
+        <v>2000</v>
+      </c>
+      <c r="CH9">
+        <v>2000</v>
+      </c>
+      <c r="CI9">
+        <v>2000</v>
+      </c>
+      <c r="CJ9">
+        <v>2000</v>
+      </c>
+      <c r="CK9">
+        <v>2000</v>
+      </c>
+      <c r="CL9">
+        <v>2000</v>
+      </c>
+      <c r="CM9">
+        <v>2000</v>
+      </c>
+      <c r="CN9">
+        <v>2000</v>
+      </c>
+      <c r="CO9">
+        <v>2000</v>
+      </c>
+      <c r="CP9">
+        <v>2000</v>
+      </c>
+      <c r="CQ9">
+        <v>2000</v>
+      </c>
+      <c r="CR9">
+        <v>2000</v>
+      </c>
+      <c r="CS9">
+        <v>2000</v>
+      </c>
+      <c r="CT9">
+        <v>2000</v>
+      </c>
+      <c r="CU9">
+        <v>2000</v>
+      </c>
+      <c r="CV9">
+        <v>2000</v>
+      </c>
+      <c r="CW9">
+        <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:101">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10167.08445107491</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>11052.09561830539</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>12432.89072021597</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>9263.801127316337</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>7644.21475903972</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>17368.00247917416</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>7119.253850782724</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>9069.215148141682</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7832.552282733592</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>8769.358443468835</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>12232.30793881855</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>6561.152395243938</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12306.00213008338</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>12994.77746419107</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>22881.95431808112</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>9151.352263883397</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>14233.93710538216</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>13668.89254953802</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>3255.72907884485</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>460.9589444981781</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>13496.06560455597</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>14329.39141809444</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>12155.62940338967</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>17376.17811518319</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>15476.83396171224</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>12555.73001039762</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>19002.7073476101</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>12010.83023693102</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>11048.35935241539</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>15613.88841318346</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>7555.437071080108</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>17847.88124695226</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>12730.17554161416</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>16258.0216414283</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>12093.61507663291</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>12521.90981678799</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>11670.2264206665</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>11674.45274904416</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>10452.53097171675</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>13002.81973947988</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>13863.75602785744</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>1552.575250180792</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>13522.17852127967</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>14070.97572094469</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>10246.20124879243</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>11324.03594562373</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>12898.55530869401</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>9256.978252823237</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>8669.510384533447</v>
+        <v>0</v>
       </c>
       <c r="AY10">
-        <v>13276.96432446312</v>
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:101">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6436.825477945542</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1697.697102407671</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>4737.781229952004</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>8206.3665482827</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>14534.78987897487</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>6405.614768744033</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>5511.979281239137</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>17022.42109713603</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8234.435616148767</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>8645.709482811148</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>15060.26297406609</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>6119.553232052835</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>15452.43613844072</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>7673.529338476839</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>13376.72131802899</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>17472.3741834759</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>3056.243344105618</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>2131.783258975794</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>6539.156407631169</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>-1900.825389031838</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>-521.3342048946901</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>8390.650866509524</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>7884.080120782847</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>10759.93462442755</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>11690.83713249678</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-488.5070234365285</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>-557.3886577986347</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>5980.0345871828</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1919.136277984125</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>12682.4694894484</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>3007.777268780263</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>12942.99404999488</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>10142.49796139815</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>13571.43048608712</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>-4363.951458892165</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>1366.717411659276</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>14062.21644621581</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>6816.111846329814</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>6544.548298609933</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>-5571.160502125734</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>11676.62674391882</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>15394.22043979392</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>7051.976785087659</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>18299.67326727865</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>-1010.769257486203</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>7374.116711006429</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>7760.572942986494</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>13048.1080719587</v>
+        <v>0</v>
       </c>
       <c r="AX11">
-        <v>6645.598652031235</v>
+        <v>0</v>
       </c>
       <c r="AY11">
-        <v>5248.578762723591</v>
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:101">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-4.064062065753619</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>-4.077103701570449</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-4.042862262450226</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>-4.037931249482514</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>-4.036821111925109</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>-4.052825050483614</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-4.017034754543605</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>-4.036852281172264</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-4.039147125677792</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-4.035213480940632</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-4.020368024378046</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>-4.036192346812939</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-4.077938616355271</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>-4.083404236949653</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>-4.072712737596125</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-4.068209341602002</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>-4.05334622855729</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>-4.012258735156173</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>-4.037183862263674</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>-3.999160773774452</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>-4.062084057224754</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>-4.047345121924592</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-4.02616929871294</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>-4.026169955689562</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-4.039884492168223</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-4.053592809519687</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>-4.035036154892016</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>-4.080082688715745</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>-4.016960212186667</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>-4.017837148127868</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>-4.105142702158609</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>-4.009395886659825</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>-4.052088024918127</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>-4.047663601916772</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>-4.049157270197993</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>-4.027553219243448</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>-4.022843238442475</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>-4.058026109401174</v>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>-4.041155424120149</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>-4.059468177256768</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>-4.078907128123471</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>-4.050903120318517</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>-4.073220354731778</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>-3.996848832749239</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>-4.061336500768537</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>-4.007296842607017</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>-4.062023403804824</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>-4.037621970474349</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>-4.050402715074515</v>
+        <v>0</v>
       </c>
       <c r="AY12">
-        <v>-4.046437989399351</v>
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:101">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.398351618019265</v>
+        <v>-1.959162538228121</v>
       </c>
       <c r="C13">
-        <v>-1.316859045538423</v>
+        <v>-1.39530515051831</v>
       </c>
       <c r="D13">
-        <v>-1.799381464742684</v>
+        <v>-1.26046882590153</v>
       </c>
       <c r="E13">
-        <v>-1.18599396107933</v>
+        <v>-1.792125852939354</v>
       </c>
       <c r="F13">
-        <v>-1.408844631027734</v>
+        <v>-1.468820037921201</v>
       </c>
       <c r="G13">
-        <v>-1.650071157389615</v>
+        <v>-1.518982851281595</v>
       </c>
       <c r="H13">
-        <v>-1.542207060255508</v>
+        <v>-1.686558805758789</v>
       </c>
       <c r="I13">
-        <v>-1.744290101238888</v>
+        <v>-1.800971383306921</v>
       </c>
       <c r="J13">
-        <v>-1.805630331563341</v>
+        <v>-1.543464452935162</v>
       </c>
       <c r="K13">
-        <v>-1.263083756984652</v>
+        <v>-1.303188702947267</v>
       </c>
       <c r="L13">
-        <v>-1.273928453125981</v>
+        <v>-1.636932974934862</v>
       </c>
       <c r="M13">
-        <v>-1.494855957456904</v>
+        <v>-1.416764880197183</v>
       </c>
       <c r="N13">
-        <v>-1.632900214945748</v>
+        <v>-1.623824272089579</v>
       </c>
       <c r="O13">
-        <v>-1.524272767702486</v>
+        <v>-1.318945699433848</v>
       </c>
       <c r="P13">
-        <v>-1.576486000493811</v>
+        <v>-1.628703082727346</v>
       </c>
       <c r="Q13">
-        <v>-1.628442914033319</v>
+        <v>-1.284700340514944</v>
       </c>
       <c r="R13">
-        <v>-1.725500404008989</v>
+        <v>-1.732336952530182</v>
       </c>
       <c r="S13">
-        <v>-1.783863492602789</v>
+        <v>-1.384263919938189</v>
       </c>
       <c r="T13">
-        <v>-1.953730072565758</v>
+        <v>-1.661636916191083</v>
       </c>
       <c r="U13">
-        <v>-1.924361231780414</v>
+        <v>-1.359461284565614</v>
       </c>
       <c r="V13">
-        <v>-1.427974907190136</v>
+        <v>-1.653120480644823</v>
       </c>
       <c r="W13">
-        <v>-1.638934656230159</v>
+        <v>-1.830278324343934</v>
       </c>
       <c r="X13">
-        <v>-1.554497439084003</v>
+        <v>-1.38273947797028</v>
       </c>
       <c r="Y13">
-        <v>-1.251118669066339</v>
+        <v>-1.19765795736731</v>
       </c>
       <c r="Z13">
-        <v>-1.466815006750995</v>
+        <v>-1.53473799278139</v>
       </c>
       <c r="AA13">
-        <v>-1.512580588939046</v>
+        <v>-1.516616335170661</v>
       </c>
       <c r="AB13">
-        <v>-1.439667070646042</v>
+        <v>-1.553062679666002</v>
       </c>
       <c r="AC13">
-        <v>-1.050263442555074</v>
+        <v>-1.282774506226974</v>
       </c>
       <c r="AD13">
-        <v>-1.665366306087993</v>
+        <v>-1.514245501727243</v>
       </c>
       <c r="AE13">
-        <v>-1.160987673138312</v>
+        <v>-1.676490275012302</v>
       </c>
       <c r="AF13">
-        <v>-1.356017537110109</v>
+        <v>-1.52748290859439</v>
       </c>
       <c r="AG13">
-        <v>-1.363546154045137</v>
+        <v>-1.326812066962817</v>
       </c>
       <c r="AH13">
-        <v>-1.656456138651892</v>
+        <v>-1.594447047723299</v>
       </c>
       <c r="AI13">
-        <v>-1.656332570686238</v>
+        <v>-1.227178807525639</v>
       </c>
       <c r="AJ13">
-        <v>-1.904625043899337</v>
+        <v>-1.469461967429921</v>
       </c>
       <c r="AK13">
-        <v>-1.440535293063604</v>
+        <v>-1.46268510146326</v>
       </c>
       <c r="AL13">
-        <v>-1.305518062573278</v>
+        <v>-1.543589076143332</v>
       </c>
       <c r="AM13">
-        <v>-1.629387548950237</v>
+        <v>-1.654493884809315</v>
       </c>
       <c r="AN13">
-        <v>-1.636964630435594</v>
+        <v>-1.65005359835933</v>
       </c>
       <c r="AO13">
-        <v>-1.587988990601175</v>
+        <v>-1.365838256958403</v>
       </c>
       <c r="AP13">
-        <v>-1.071623008567585</v>
+        <v>-1.253703430311387</v>
       </c>
       <c r="AQ13">
-        <v>-1.448005935151567</v>
+        <v>-1.508087571162352</v>
       </c>
       <c r="AR13">
-        <v>-1.24749437789086</v>
+        <v>-1.398730001201977</v>
       </c>
       <c r="AS13">
-        <v>-1.439162521671697</v>
+        <v>-1.498166749651648</v>
       </c>
       <c r="AT13">
-        <v>-1.57589212979272</v>
+        <v>-1.654705534898707</v>
       </c>
       <c r="AU13">
-        <v>-1.671704127341711</v>
+        <v>-1.85978263438827</v>
       </c>
       <c r="AV13">
-        <v>-1.757587145988901</v>
+        <v>-1.404645633796664</v>
       </c>
       <c r="AW13">
-        <v>-1.636493933533662</v>
+        <v>-1.495074830834224</v>
       </c>
       <c r="AX13">
-        <v>-1.37821184053699</v>
+        <v>-1.276603119269512</v>
       </c>
       <c r="AY13">
-        <v>-1.565961541991786</v>
+        <v>-1.12830630532758</v>
+      </c>
+      <c r="AZ13">
+        <v>-1.441187528869965</v>
+      </c>
+      <c r="BA13">
+        <v>-1.361553087304721</v>
+      </c>
+      <c r="BB13">
+        <v>-1.698258510369113</v>
+      </c>
+      <c r="BC13">
+        <v>-1.359634541114449</v>
+      </c>
+      <c r="BD13">
+        <v>-1.545320908039029</v>
+      </c>
+      <c r="BE13">
+        <v>-2.089255681899912</v>
+      </c>
+      <c r="BF13">
+        <v>-1.294432264649411</v>
+      </c>
+      <c r="BG13">
+        <v>-1.588950098036267</v>
+      </c>
+      <c r="BH13">
+        <v>-1.785187990107105</v>
+      </c>
+      <c r="BI13">
+        <v>-1.95007583881694</v>
+      </c>
+      <c r="BJ13">
+        <v>-1.477522159407077</v>
+      </c>
+      <c r="BK13">
+        <v>-1.817572512804435</v>
+      </c>
+      <c r="BL13">
+        <v>-1.495444100601351</v>
+      </c>
+      <c r="BM13">
+        <v>-1.693708604179367</v>
+      </c>
+      <c r="BN13">
+        <v>-1.336493704551392</v>
+      </c>
+      <c r="BO13">
+        <v>-1.174794646422295</v>
+      </c>
+      <c r="BP13">
+        <v>-1.415310595935129</v>
+      </c>
+      <c r="BQ13">
+        <v>-1.367971458294415</v>
+      </c>
+      <c r="BR13">
+        <v>-1.236101138210792</v>
+      </c>
+      <c r="BS13">
+        <v>-1.838602617849354</v>
+      </c>
+      <c r="BT13">
+        <v>-1.176149884722301</v>
+      </c>
+      <c r="BU13">
+        <v>-1.500676443151731</v>
+      </c>
+      <c r="BV13">
+        <v>-1.619543287027884</v>
+      </c>
+      <c r="BW13">
+        <v>-1.673604619435047</v>
+      </c>
+      <c r="BX13">
+        <v>-1.48192718969304</v>
+      </c>
+      <c r="BY13">
+        <v>-1.697404979942853</v>
+      </c>
+      <c r="BZ13">
+        <v>-1.782126058815117</v>
+      </c>
+      <c r="CA13">
+        <v>-1.612368818683303</v>
+      </c>
+      <c r="CB13">
+        <v>-1.531830363277144</v>
+      </c>
+      <c r="CC13">
+        <v>-1.644084756156289</v>
+      </c>
+      <c r="CD13">
+        <v>-1.388260273827171</v>
+      </c>
+      <c r="CE13">
+        <v>-1.791902667585458</v>
+      </c>
+      <c r="CF13">
+        <v>-1.641979440937753</v>
+      </c>
+      <c r="CG13">
+        <v>-1.30644023847745</v>
+      </c>
+      <c r="CH13">
+        <v>-1.596207656585304</v>
+      </c>
+      <c r="CI13">
+        <v>-1.652206087726576</v>
+      </c>
+      <c r="CJ13">
+        <v>-1.516472905093904</v>
+      </c>
+      <c r="CK13">
+        <v>-1.421531689553017</v>
+      </c>
+      <c r="CL13">
+        <v>-1.600612166727035</v>
+      </c>
+      <c r="CM13">
+        <v>-1.606889650387106</v>
+      </c>
+      <c r="CN13">
+        <v>-1.437207398320704</v>
+      </c>
+      <c r="CO13">
+        <v>-1.559625557141416</v>
+      </c>
+      <c r="CP13">
+        <v>-1.81183656551236</v>
+      </c>
+      <c r="CQ13">
+        <v>-1.563316252140535</v>
+      </c>
+      <c r="CR13">
+        <v>-1.321645485671059</v>
+      </c>
+      <c r="CS13">
+        <v>-1.703869890979339</v>
+      </c>
+      <c r="CT13">
+        <v>-1.709828675865683</v>
+      </c>
+      <c r="CU13">
+        <v>-1.995681297060323</v>
+      </c>
+      <c r="CV13">
+        <v>-1.523151791678564</v>
+      </c>
+      <c r="CW13">
+        <v>-1.241081409657136</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:101">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.344963157925726</v>
+        <v>-1.892477057793595</v>
       </c>
       <c r="C14">
-        <v>-1.263461523497924</v>
+        <v>-1.327528895247331</v>
       </c>
       <c r="D14">
-        <v>-1.745694112733915</v>
+        <v>-1.192013049388856</v>
       </c>
       <c r="E14">
-        <v>-1.133129249811375</v>
+        <v>-1.723321472867434</v>
       </c>
       <c r="F14">
-        <v>-1.355292411707321</v>
+        <v>-1.400104095605561</v>
       </c>
       <c r="G14">
-        <v>-1.597756588756852</v>
+        <v>-1.450616728647196</v>
       </c>
       <c r="H14">
-        <v>-1.488923078212957</v>
+        <v>-1.618126703670477</v>
       </c>
       <c r="I14">
-        <v>-1.690678061550365</v>
+        <v>-1.732097526763819</v>
       </c>
       <c r="J14">
-        <v>-1.752670725723996</v>
+        <v>-1.475447178088063</v>
       </c>
       <c r="K14">
-        <v>-1.208774563977612</v>
+        <v>-1.235156418755335</v>
       </c>
       <c r="L14">
-        <v>-1.220410643306686</v>
+        <v>-1.568759011419508</v>
       </c>
       <c r="M14">
-        <v>-1.441308852360168</v>
+        <v>-1.347544710584398</v>
       </c>
       <c r="N14">
-        <v>-1.57912738817465</v>
+        <v>-1.554988064626201</v>
       </c>
       <c r="O14">
-        <v>-1.472474445662</v>
+        <v>-1.250519524779133</v>
       </c>
       <c r="P14">
-        <v>-1.523975380501933</v>
+        <v>-1.560957516281119</v>
       </c>
       <c r="Q14">
-        <v>-1.575685103660686</v>
+        <v>-1.217455893890192</v>
       </c>
       <c r="R14">
-        <v>-1.672485043481622</v>
+        <v>-1.663868777098411</v>
       </c>
       <c r="S14">
-        <v>-1.73104266827087</v>
+        <v>-1.315474535091835</v>
       </c>
       <c r="T14">
-        <v>-1.901063937868423</v>
+        <v>-1.593494481654607</v>
       </c>
       <c r="U14">
-        <v>-1.87074527114295</v>
+        <v>-1.290810953334967</v>
       </c>
       <c r="V14">
-        <v>-1.374601577249562</v>
+        <v>-1.584575941035732</v>
       </c>
       <c r="W14">
-        <v>-1.586301651199485</v>
+        <v>-1.761521287361018</v>
       </c>
       <c r="X14">
-        <v>-1.501023488468979</v>
+        <v>-1.314105045866661</v>
       </c>
       <c r="Y14">
-        <v>-1.197304060434175</v>
+        <v>-1.130278043757512</v>
       </c>
       <c r="Z14">
-        <v>-1.414049692002721</v>
+        <v>-1.466421152196147</v>
       </c>
       <c r="AA14">
-        <v>-1.460076235559612</v>
+        <v>-1.448618430959733</v>
       </c>
       <c r="AB14">
-        <v>-1.385817799438569</v>
+        <v>-1.484417184454336</v>
       </c>
       <c r="AC14">
-        <v>-0.996938632876213</v>
+        <v>-1.214665373790325</v>
       </c>
       <c r="AD14">
-        <v>-1.612107655909021</v>
+        <v>-1.445894700474226</v>
       </c>
       <c r="AE14">
-        <v>-1.108022758654422</v>
+        <v>-1.608077354429731</v>
       </c>
       <c r="AF14">
-        <v>-1.302342663120834</v>
+        <v>-1.458867404993607</v>
       </c>
       <c r="AG14">
-        <v>-1.310686170792237</v>
+        <v>-1.258721197998813</v>
       </c>
       <c r="AH14">
-        <v>-1.60311624422292</v>
+        <v>-1.525851629876819</v>
       </c>
       <c r="AI14">
-        <v>-1.603076589851803</v>
+        <v>-1.15883832147134</v>
       </c>
       <c r="AJ14">
-        <v>-1.851264846975919</v>
+        <v>-1.400644267056736</v>
       </c>
       <c r="AK14">
-        <v>-1.387817199995058</v>
+        <v>-1.393300026112328</v>
       </c>
       <c r="AL14">
-        <v>-1.252214102346066</v>
+        <v>-1.475376738134377</v>
       </c>
       <c r="AM14">
-        <v>-1.576184080569359</v>
+        <v>-1.586546919172751</v>
       </c>
       <c r="AN14">
-        <v>-1.583111930906004</v>
+        <v>-1.580560671625994</v>
       </c>
       <c r="AO14">
-        <v>-1.535783867644927</v>
+        <v>-1.297713859947778</v>
       </c>
       <c r="AP14">
-        <v>-1.019161644414751</v>
+        <v>-1.184980166140119</v>
       </c>
       <c r="AQ14">
-        <v>-1.395538375256106</v>
+        <v>-1.439513115431576</v>
       </c>
       <c r="AR14">
-        <v>-1.1951455117918</v>
+        <v>-1.329958558273425</v>
       </c>
       <c r="AS14">
-        <v>-1.38478978685448</v>
+        <v>-1.429560974579435</v>
       </c>
       <c r="AT14">
-        <v>-1.522081636275262</v>
+        <v>-1.585906462761439</v>
       </c>
       <c r="AU14">
-        <v>-1.617893108778312</v>
+        <v>-1.791745014227644</v>
       </c>
       <c r="AV14">
-        <v>-1.704573104755059</v>
+        <v>-1.336380905062455</v>
       </c>
       <c r="AW14">
-        <v>-1.581790767683227</v>
+        <v>-1.426037572772471</v>
       </c>
       <c r="AX14">
-        <v>-1.324441178125636</v>
+        <v>-1.207969368665458</v>
       </c>
       <c r="AY14">
-        <v>-1.51268120675446</v>
+        <v>-1.05913938566018</v>
+      </c>
+      <c r="AZ14">
+        <v>-1.372723434408739</v>
+      </c>
+      <c r="BA14">
+        <v>-1.293294641286722</v>
+      </c>
+      <c r="BB14">
+        <v>-1.629740833610282</v>
+      </c>
+      <c r="BC14">
+        <v>-1.292028308464307</v>
+      </c>
+      <c r="BD14">
+        <v>-1.477348914456514</v>
+      </c>
+      <c r="BE14">
+        <v>-2.020970989858816</v>
+      </c>
+      <c r="BF14">
+        <v>-1.226200284974822</v>
+      </c>
+      <c r="BG14">
+        <v>-1.520904832766858</v>
+      </c>
+      <c r="BH14">
+        <v>-1.717464445369293</v>
+      </c>
+      <c r="BI14">
+        <v>-1.880810338175289</v>
+      </c>
+      <c r="BJ14">
+        <v>-1.409843120038194</v>
+      </c>
+      <c r="BK14">
+        <v>-1.748534798093584</v>
+      </c>
+      <c r="BL14">
+        <v>-1.426735218375572</v>
+      </c>
+      <c r="BM14">
+        <v>-1.625485127823061</v>
+      </c>
+      <c r="BN14">
+        <v>-1.268231288714753</v>
+      </c>
+      <c r="BO14">
+        <v>-1.106529493251662</v>
+      </c>
+      <c r="BP14">
+        <v>-1.347567442161505</v>
+      </c>
+      <c r="BQ14">
+        <v>-1.299584143734022</v>
+      </c>
+      <c r="BR14">
+        <v>-1.167645727162036</v>
+      </c>
+      <c r="BS14">
+        <v>-1.769500343557607</v>
+      </c>
+      <c r="BT14">
+        <v>-1.107705103794679</v>
+      </c>
+      <c r="BU14">
+        <v>-1.43126524188227</v>
+      </c>
+      <c r="BV14">
+        <v>-1.550367101617071</v>
+      </c>
+      <c r="BW14">
+        <v>-1.605995727845628</v>
+      </c>
+      <c r="BX14">
+        <v>-1.41321857172219</v>
+      </c>
+      <c r="BY14">
+        <v>-1.630905770401935</v>
+      </c>
+      <c r="BZ14">
+        <v>-1.713483480043911</v>
+      </c>
+      <c r="CA14">
+        <v>-1.544344601998709</v>
+      </c>
+      <c r="CB14">
+        <v>-1.46357612610907</v>
+      </c>
+      <c r="CC14">
+        <v>-1.575003908056478</v>
+      </c>
+      <c r="CD14">
+        <v>-1.320677203972438</v>
+      </c>
+      <c r="CE14">
+        <v>-1.723539701373956</v>
+      </c>
+      <c r="CF14">
+        <v>-1.574526384043649</v>
+      </c>
+      <c r="CG14">
+        <v>-1.236973397488113</v>
+      </c>
+      <c r="CH14">
+        <v>-1.527452910468494</v>
+      </c>
+      <c r="CI14">
+        <v>-1.582555243003688</v>
+      </c>
+      <c r="CJ14">
+        <v>-1.44882391423356</v>
+      </c>
+      <c r="CK14">
+        <v>-1.353144567154527</v>
+      </c>
+      <c r="CL14">
+        <v>-1.531001430865099</v>
+      </c>
+      <c r="CM14">
+        <v>-1.538955022693393</v>
+      </c>
+      <c r="CN14">
+        <v>-1.368038104220813</v>
+      </c>
+      <c r="CO14">
+        <v>-1.49124904365676</v>
+      </c>
+      <c r="CP14">
+        <v>-1.743996575704993</v>
+      </c>
+      <c r="CQ14">
+        <v>-1.495871371004136</v>
+      </c>
+      <c r="CR14">
+        <v>-1.25280516470642</v>
+      </c>
+      <c r="CS14">
+        <v>-1.635251538145344</v>
+      </c>
+      <c r="CT14">
+        <v>-1.640854474005733</v>
+      </c>
+      <c r="CU14">
+        <v>-1.926909326300333</v>
+      </c>
+      <c r="CV14">
+        <v>-1.454443575360555</v>
+      </c>
+      <c r="CW14">
+        <v>-1.172061744914206</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:101">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.049737412518399</v>
+        <v>1.38536304135451</v>
       </c>
       <c r="C15">
-        <v>2.129884936166591</v>
+        <v>2.012049154920326</v>
       </c>
       <c r="D15">
-        <v>1.664124332473155</v>
+        <v>2.181825495143809</v>
       </c>
       <c r="E15">
-        <v>2.228304638236782</v>
+        <v>1.6717864005404</v>
       </c>
       <c r="F15">
-        <v>2.048185032746902</v>
+        <v>1.989208783061066</v>
       </c>
       <c r="G15">
-        <v>1.727131364005326</v>
+        <v>1.919725202586292</v>
       </c>
       <c r="H15">
-        <v>1.896042476499434</v>
+        <v>1.760488422682063</v>
       </c>
       <c r="I15">
-        <v>1.712063672024141</v>
+        <v>1.674189348254416</v>
       </c>
       <c r="J15">
-        <v>1.61093521385856</v>
+        <v>1.877388650707879</v>
       </c>
       <c r="K15">
-        <v>2.241316048998653</v>
+        <v>2.117617708964007</v>
       </c>
       <c r="L15">
-        <v>2.18192279575268</v>
+        <v>1.787764210112373</v>
       </c>
       <c r="M15">
-        <v>1.96095385996821</v>
+        <v>2.072012964305776</v>
       </c>
       <c r="N15">
-        <v>1.837836065254269</v>
+        <v>1.840910699306465</v>
       </c>
       <c r="O15">
-        <v>1.820312140058207</v>
+        <v>2.12316197502667</v>
       </c>
       <c r="P15">
-        <v>1.814480003146417</v>
+        <v>1.772758778936487</v>
       </c>
       <c r="Q15">
-        <v>1.77930005838941</v>
+        <v>2.087224886661997</v>
       </c>
       <c r="R15">
-        <v>1.695689241763616</v>
+        <v>1.713364079533996</v>
       </c>
       <c r="S15">
-        <v>1.624751472721635</v>
+        <v>2.081627552086359</v>
       </c>
       <c r="T15">
-        <v>1.448047176782691</v>
+        <v>1.762677191804704</v>
       </c>
       <c r="U15">
-        <v>1.53375143913355</v>
+        <v>2.093184705175406</v>
       </c>
       <c r="V15">
-        <v>2.015803406178609</v>
+        <v>1.799180619022584</v>
       </c>
       <c r="W15">
-        <v>1.758125069665019</v>
+        <v>1.631615163678366</v>
       </c>
       <c r="X15">
-        <v>1.89585180860089</v>
+        <v>2.075079591820428</v>
       </c>
       <c r="Y15">
-        <v>2.220206803864184</v>
+        <v>2.185477912453126</v>
       </c>
       <c r="Z15">
-        <v>1.942696353596896</v>
+        <v>1.90491117203049</v>
       </c>
       <c r="AA15">
-        <v>1.881372042844832</v>
+        <v>1.899959569336747</v>
       </c>
       <c r="AB15">
-        <v>2.034417818222223</v>
+        <v>1.905449832711831</v>
       </c>
       <c r="AC15">
-        <v>2.389602452869876</v>
+        <v>2.141312909565283</v>
       </c>
       <c r="AD15">
-        <v>1.771716569720512</v>
+        <v>1.92419327642971</v>
       </c>
       <c r="AE15">
-        <v>2.260406457614069</v>
+        <v>1.763735548074619</v>
       </c>
       <c r="AF15">
-        <v>2.109129793695378</v>
+        <v>1.926303703128202</v>
       </c>
       <c r="AG15">
-        <v>2.050897568804571</v>
+        <v>2.095655062653989</v>
       </c>
       <c r="AH15">
-        <v>1.786243802308427</v>
+        <v>1.858153387236323</v>
       </c>
       <c r="AI15">
-        <v>1.780495606663574</v>
+        <v>2.20925955589156</v>
       </c>
       <c r="AJ15">
-        <v>1.538179363599345</v>
+        <v>1.992515523340537</v>
       </c>
       <c r="AK15">
-        <v>1.964349096760498</v>
+        <v>2.040931850550747</v>
       </c>
       <c r="AL15">
-        <v>2.136316278584462</v>
+        <v>1.885104084952333</v>
       </c>
       <c r="AM15">
-        <v>1.805167153641781</v>
+        <v>1.760840814938563</v>
       </c>
       <c r="AN15">
-        <v>1.836590212750244</v>
+        <v>1.854536633519203</v>
       </c>
       <c r="AO15">
-        <v>1.783938211133902</v>
+        <v>2.060300283702706</v>
       </c>
       <c r="AP15">
-        <v>2.318735866241875</v>
+        <v>2.204643542398462</v>
       </c>
       <c r="AQ15">
-        <v>1.940058183034763</v>
+        <v>1.943408956743875</v>
       </c>
       <c r="AR15">
-        <v>2.133871256674514</v>
+        <v>2.064978912744231</v>
       </c>
       <c r="AS15">
-        <v>2.066894669025427</v>
+        <v>1.955452013808356</v>
       </c>
       <c r="AT15">
-        <v>1.893977323906195</v>
+        <v>1.80625431171539</v>
       </c>
       <c r="AU15">
-        <v>1.797704909458031</v>
+        <v>1.563796281753264</v>
       </c>
       <c r="AV15">
-        <v>1.664921635017991</v>
+        <v>2.029577527963115</v>
       </c>
       <c r="AW15">
-        <v>1.891287122221062</v>
+        <v>1.977402581859286</v>
       </c>
       <c r="AX15">
-        <v>2.092271771120789</v>
+        <v>2.180591862325571</v>
       </c>
       <c r="AY15">
-        <v>1.873493383751629</v>
+        <v>2.35466263479888</v>
+      </c>
+      <c r="AZ15">
+        <v>2.005672873539136</v>
+      </c>
+      <c r="BA15">
+        <v>2.070423329316265</v>
+      </c>
+      <c r="BB15">
+        <v>1.756087436189591</v>
+      </c>
+      <c r="BC15">
+        <v>2.040206833690192</v>
+      </c>
+      <c r="BD15">
+        <v>1.874157276041076</v>
+      </c>
+      <c r="BE15">
+        <v>1.34727825750875</v>
+      </c>
+      <c r="BF15">
+        <v>2.137537564821637</v>
+      </c>
+      <c r="BG15">
+        <v>1.835693855058443</v>
+      </c>
+      <c r="BH15">
+        <v>1.618114307482509</v>
+      </c>
+      <c r="BI15">
+        <v>1.544196982574552</v>
+      </c>
+      <c r="BJ15">
+        <v>1.924135437258219</v>
+      </c>
+      <c r="BK15">
+        <v>1.656032975285394</v>
+      </c>
+      <c r="BL15">
+        <v>1.963839854444579</v>
+      </c>
+      <c r="BM15">
+        <v>1.741763145821325</v>
+      </c>
+      <c r="BN15">
+        <v>2.094538475198697</v>
+      </c>
+      <c r="BO15">
+        <v>2.263148434274914</v>
+      </c>
+      <c r="BP15">
+        <v>1.98672602805491</v>
+      </c>
+      <c r="BQ15">
+        <v>2.074871893913161</v>
+      </c>
+      <c r="BR15">
+        <v>2.206593332594965</v>
+      </c>
+      <c r="BS15">
+        <v>1.649107047787928</v>
+      </c>
+      <c r="BT15">
+        <v>2.268648460071569</v>
+      </c>
+      <c r="BU15">
+        <v>1.998506696343628</v>
+      </c>
+      <c r="BV15">
+        <v>1.864793368519467</v>
+      </c>
+      <c r="BW15">
+        <v>1.721364682686908</v>
+      </c>
+      <c r="BX15">
+        <v>1.981718538055463</v>
+      </c>
+      <c r="BY15">
+        <v>1.635631024678942</v>
+      </c>
+      <c r="BZ15">
+        <v>1.675016890844211</v>
+      </c>
+      <c r="CA15">
+        <v>1.809362588731892</v>
+      </c>
+      <c r="CB15">
+        <v>1.898807867593</v>
+      </c>
+      <c r="CC15">
+        <v>1.839392321129346</v>
+      </c>
+      <c r="CD15">
+        <v>2.001935174520889</v>
+      </c>
+      <c r="CE15">
+        <v>1.645328702435338</v>
+      </c>
+      <c r="CF15">
+        <v>1.744161282700355</v>
+      </c>
+      <c r="CG15">
+        <v>2.195706257931661</v>
+      </c>
+      <c r="CH15">
+        <v>1.868027633248431</v>
+      </c>
+      <c r="CI15">
+        <v>1.864384368334988</v>
+      </c>
+      <c r="CJ15">
+        <v>1.881777769342885</v>
+      </c>
+      <c r="CK15">
+        <v>2.022199393680544</v>
+      </c>
+      <c r="CL15">
+        <v>1.912261119730934</v>
+      </c>
+      <c r="CM15">
+        <v>1.808070686165936</v>
+      </c>
+      <c r="CN15">
+        <v>2.047492086242384</v>
+      </c>
+      <c r="CO15">
+        <v>1.878416095889946</v>
+      </c>
+      <c r="CP15">
+        <v>1.593369162470281</v>
+      </c>
+      <c r="CQ15">
+        <v>1.82321550804029</v>
+      </c>
+      <c r="CR15">
+        <v>2.142727388939995</v>
+      </c>
+      <c r="CS15">
+        <v>1.752785369057393</v>
+      </c>
+      <c r="CT15">
+        <v>1.760805436272231</v>
+      </c>
+      <c r="CU15">
+        <v>1.474363414026675</v>
+      </c>
+      <c r="CV15">
+        <v>1.930674526114536</v>
+      </c>
+      <c r="CW15">
+        <v>2.234887687769164</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:101">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2873,6 +5123,156 @@
         <v>2</v>
       </c>
       <c r="AY16">
+        <v>2</v>
+      </c>
+      <c r="AZ16">
+        <v>2</v>
+      </c>
+      <c r="BA16">
+        <v>2</v>
+      </c>
+      <c r="BB16">
+        <v>2</v>
+      </c>
+      <c r="BC16">
+        <v>2</v>
+      </c>
+      <c r="BD16">
+        <v>2</v>
+      </c>
+      <c r="BE16">
+        <v>2</v>
+      </c>
+      <c r="BF16">
+        <v>2</v>
+      </c>
+      <c r="BG16">
+        <v>2</v>
+      </c>
+      <c r="BH16">
+        <v>2</v>
+      </c>
+      <c r="BI16">
+        <v>2</v>
+      </c>
+      <c r="BJ16">
+        <v>2</v>
+      </c>
+      <c r="BK16">
+        <v>2</v>
+      </c>
+      <c r="BL16">
+        <v>2</v>
+      </c>
+      <c r="BM16">
+        <v>2</v>
+      </c>
+      <c r="BN16">
+        <v>2</v>
+      </c>
+      <c r="BO16">
+        <v>2</v>
+      </c>
+      <c r="BP16">
+        <v>2</v>
+      </c>
+      <c r="BQ16">
+        <v>2</v>
+      </c>
+      <c r="BR16">
+        <v>2</v>
+      </c>
+      <c r="BS16">
+        <v>2</v>
+      </c>
+      <c r="BT16">
+        <v>2</v>
+      </c>
+      <c r="BU16">
+        <v>2</v>
+      </c>
+      <c r="BV16">
+        <v>2</v>
+      </c>
+      <c r="BW16">
+        <v>2</v>
+      </c>
+      <c r="BX16">
+        <v>2</v>
+      </c>
+      <c r="BY16">
+        <v>2</v>
+      </c>
+      <c r="BZ16">
+        <v>2</v>
+      </c>
+      <c r="CA16">
+        <v>2</v>
+      </c>
+      <c r="CB16">
+        <v>2</v>
+      </c>
+      <c r="CC16">
+        <v>2</v>
+      </c>
+      <c r="CD16">
+        <v>2</v>
+      </c>
+      <c r="CE16">
+        <v>2</v>
+      </c>
+      <c r="CF16">
+        <v>2</v>
+      </c>
+      <c r="CG16">
+        <v>2</v>
+      </c>
+      <c r="CH16">
+        <v>2</v>
+      </c>
+      <c r="CI16">
+        <v>2</v>
+      </c>
+      <c r="CJ16">
+        <v>2</v>
+      </c>
+      <c r="CK16">
+        <v>2</v>
+      </c>
+      <c r="CL16">
+        <v>2</v>
+      </c>
+      <c r="CM16">
+        <v>2</v>
+      </c>
+      <c r="CN16">
+        <v>2</v>
+      </c>
+      <c r="CO16">
+        <v>2</v>
+      </c>
+      <c r="CP16">
+        <v>2</v>
+      </c>
+      <c r="CQ16">
+        <v>2</v>
+      </c>
+      <c r="CR16">
+        <v>2</v>
+      </c>
+      <c r="CS16">
+        <v>2</v>
+      </c>
+      <c r="CT16">
+        <v>2</v>
+      </c>
+      <c r="CU16">
+        <v>2</v>
+      </c>
+      <c r="CV16">
+        <v>2</v>
+      </c>
+      <c r="CW16">
         <v>2</v>
       </c>
     </row>

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -556,154 +556,154 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3997736438720151</v>
+        <v>0.3997681632664617</v>
       </c>
       <c r="C2">
-        <v>0.400527203270902</v>
+        <v>0.3990398361585493</v>
       </c>
       <c r="D2">
-        <v>0.4013046541192798</v>
+        <v>0.401320594346092</v>
       </c>
       <c r="E2">
-        <v>0.4021339246176995</v>
+        <v>0.4016310785892168</v>
       </c>
       <c r="F2">
-        <v>0.4002881182509422</v>
+        <v>0.4003301376820416</v>
       </c>
       <c r="G2">
-        <v>0.4006947573743632</v>
+        <v>0.3985733485271362</v>
       </c>
       <c r="H2">
-        <v>0.4029757193563845</v>
+        <v>0.4029269453753187</v>
       </c>
       <c r="I2">
-        <v>0.399620699780782</v>
+        <v>0.4003160804552042</v>
       </c>
       <c r="J2">
-        <v>0.4001138588788181</v>
+        <v>0.3992087782322077</v>
       </c>
       <c r="K2">
-        <v>0.3968968087547746</v>
+        <v>0.3976527722096476</v>
       </c>
       <c r="L2">
-        <v>0.4017330603741074</v>
+        <v>0.4019724184340551</v>
       </c>
       <c r="M2">
-        <v>0.3999214306446973</v>
+        <v>0.3985385696064084</v>
       </c>
       <c r="N2">
-        <v>0.399364307243099</v>
+        <v>0.4013156963311391</v>
       </c>
       <c r="O2">
-        <v>0.3993214288292873</v>
+        <v>0.4004949994781438</v>
       </c>
       <c r="P2">
-        <v>0.4009059354698425</v>
+        <v>0.4006998100023103</v>
       </c>
       <c r="Q2">
-        <v>0.3999133971525045</v>
+        <v>0.4007873649493239</v>
       </c>
       <c r="R2">
-        <v>0.4003626724922308</v>
+        <v>0.4011964984485152</v>
       </c>
       <c r="S2">
-        <v>0.400190457492628</v>
+        <v>0.4007154519143659</v>
       </c>
       <c r="T2">
-        <v>0.3995881764118711</v>
+        <v>0.4002618360818571</v>
       </c>
       <c r="U2">
-        <v>0.3983277056291084</v>
+        <v>0.4003240231858324</v>
       </c>
       <c r="V2">
-        <v>0.4002790842099006</v>
+        <v>0.4002958990043082</v>
       </c>
       <c r="W2">
-        <v>0.3989419819904452</v>
+        <v>0.4004941757396214</v>
       </c>
       <c r="X2">
-        <v>0.3985594121081408</v>
+        <v>0.3994373527381428</v>
       </c>
       <c r="Y2">
-        <v>0.3980780449274313</v>
+        <v>0.4016400069391086</v>
       </c>
       <c r="Z2">
-        <v>0.4027026206788352</v>
+        <v>0.3994496181816592</v>
       </c>
       <c r="AA2">
-        <v>0.3991977018327421</v>
+        <v>0.4018176905676845</v>
       </c>
       <c r="AB2">
-        <v>0.399574565559312</v>
+        <v>0.40197580556076</v>
       </c>
       <c r="AC2">
-        <v>0.3993355888720082</v>
+        <v>0.4009935258272847</v>
       </c>
       <c r="AD2">
-        <v>0.4001498789563499</v>
+        <v>0.399412258737431</v>
       </c>
       <c r="AE2">
-        <v>0.3998695859282363</v>
+        <v>0.4025015180640983</v>
       </c>
       <c r="AF2">
-        <v>0.400371642568257</v>
+        <v>0.4004985401819986</v>
       </c>
       <c r="AG2">
-        <v>0.3998037804031325</v>
+        <v>0.4007694694357846</v>
       </c>
       <c r="AH2">
-        <v>0.4007177595129156</v>
+        <v>0.3999832546904541</v>
       </c>
       <c r="AI2">
-        <v>0.3995889198269195</v>
+        <v>0.3998401304038109</v>
       </c>
       <c r="AJ2">
-        <v>0.3999498689270934</v>
+        <v>0.4015571512887065</v>
       </c>
       <c r="AK2">
-        <v>0.3997898743820484</v>
+        <v>0.4018407046228118</v>
       </c>
       <c r="AL2">
-        <v>0.4002834032300072</v>
+        <v>0.4007329627427911</v>
       </c>
       <c r="AM2">
-        <v>0.4009603893243477</v>
+        <v>0.4006595095026207</v>
       </c>
       <c r="AN2">
-        <v>0.4021806855543682</v>
+        <v>0.3996490165195178</v>
       </c>
       <c r="AO2">
-        <v>0.3997629142955786</v>
+        <v>0.4020342381845691</v>
       </c>
       <c r="AP2">
-        <v>0.3991076206268613</v>
+        <v>0.4008580369191942</v>
       </c>
       <c r="AQ2">
-        <v>0.4007828161640164</v>
+        <v>0.4032862991392991</v>
       </c>
       <c r="AR2">
-        <v>0.3989380614631488</v>
+        <v>0.401449659691266</v>
       </c>
       <c r="AS2">
-        <v>0.4006530473052028</v>
+        <v>0.4012923542057555</v>
       </c>
       <c r="AT2">
-        <v>0.3998012963896012</v>
+        <v>0.3998066569327786</v>
       </c>
       <c r="AU2">
-        <v>0.399282492704188</v>
+        <v>0.4007748595929808</v>
       </c>
       <c r="AV2">
-        <v>0.3995821506066812</v>
+        <v>0.4001519297113355</v>
       </c>
       <c r="AW2">
-        <v>0.4016051325468625</v>
+        <v>0.3993616267075699</v>
       </c>
       <c r="AX2">
-        <v>0.3986378523073276</v>
+        <v>0.4013808636125741</v>
       </c>
       <c r="AY2">
-        <v>0.3999389658704248</v>
+        <v>0.4009352206726522</v>
       </c>
     </row>
     <row r="3" spans="1:51">
@@ -711,154 +711,154 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>45.7065481848006</v>
+        <v>45.69785175791824</v>
       </c>
       <c r="C3">
-        <v>45.61835961123032</v>
+        <v>45.79220258686634</v>
       </c>
       <c r="D3">
-        <v>45.51512420667399</v>
+        <v>45.53483683755868</v>
       </c>
       <c r="E3">
-        <v>45.43952098256745</v>
+        <v>45.49286693701295</v>
       </c>
       <c r="F3">
-        <v>45.63604211516777</v>
+        <v>45.63454078664126</v>
       </c>
       <c r="G3">
-        <v>45.60016643010231</v>
+        <v>45.83118069889461</v>
       </c>
       <c r="H3">
-        <v>45.3455952874245</v>
+        <v>45.34836832850005</v>
       </c>
       <c r="I3">
-        <v>45.71467465964808</v>
+        <v>45.62613773892337</v>
       </c>
       <c r="J3">
-        <v>45.64889363440917</v>
+        <v>45.77019348751303</v>
       </c>
       <c r="K3">
-        <v>46.01385116689558</v>
+        <v>45.92166398930443</v>
       </c>
       <c r="L3">
-        <v>45.47268572568815</v>
+        <v>45.43484577642661</v>
       </c>
       <c r="M3">
-        <v>45.67509096737753</v>
+        <v>45.85576736511476</v>
       </c>
       <c r="N3">
-        <v>45.736990165751</v>
+        <v>45.52755220009698</v>
       </c>
       <c r="O3">
-        <v>45.74939228838473</v>
+        <v>45.63183159957971</v>
       </c>
       <c r="P3">
-        <v>45.56855447703256</v>
+        <v>45.59309236436332</v>
       </c>
       <c r="Q3">
-        <v>45.67533115606022</v>
+        <v>45.57382515930296</v>
       </c>
       <c r="R3">
-        <v>45.62719078043831</v>
+        <v>45.54536645415567</v>
       </c>
       <c r="S3">
-        <v>45.64884070894976</v>
+        <v>45.59190721477853</v>
       </c>
       <c r="T3">
-        <v>45.73771392139896</v>
+        <v>45.64447437861433</v>
       </c>
       <c r="U3">
-        <v>45.87010129312485</v>
+        <v>45.63856063439881</v>
       </c>
       <c r="V3">
-        <v>45.6327040811606</v>
+        <v>45.61742694979373</v>
       </c>
       <c r="W3">
-        <v>45.79790211058739</v>
+        <v>45.59545951988775</v>
       </c>
       <c r="X3">
-        <v>45.85948697092804</v>
+        <v>45.73965937186503</v>
       </c>
       <c r="Y3">
-        <v>45.89969617065015</v>
+        <v>45.47516105404524</v>
       </c>
       <c r="Z3">
-        <v>45.35647267806691</v>
+        <v>45.72766321694987</v>
       </c>
       <c r="AA3">
-        <v>45.77631537359521</v>
+        <v>45.46042266380896</v>
       </c>
       <c r="AB3">
-        <v>45.72681206103308</v>
+        <v>45.43143168234805</v>
       </c>
       <c r="AC3">
-        <v>45.74011647532404</v>
+        <v>45.54754080136749</v>
       </c>
       <c r="AD3">
-        <v>45.67030645810556</v>
+        <v>45.7389138920064</v>
       </c>
       <c r="AE3">
-        <v>45.68848097946088</v>
+        <v>45.38519847504638</v>
       </c>
       <c r="AF3">
-        <v>45.62278200399961</v>
+        <v>45.61702653212352</v>
       </c>
       <c r="AG3">
-        <v>45.68785989866125</v>
+        <v>45.58278287124937</v>
       </c>
       <c r="AH3">
-        <v>45.60540305693095</v>
+        <v>45.67838365039405</v>
       </c>
       <c r="AI3">
-        <v>45.7216993200794</v>
+        <v>45.6795871464146</v>
       </c>
       <c r="AJ3">
-        <v>45.67252836736115</v>
+        <v>45.48473502567857</v>
       </c>
       <c r="AK3">
-        <v>45.6929002806373</v>
+        <v>45.46917367823628</v>
       </c>
       <c r="AL3">
-        <v>45.6457303764998</v>
+        <v>45.59598461502637</v>
       </c>
       <c r="AM3">
-        <v>45.57339536849634</v>
+        <v>45.61099020083078</v>
       </c>
       <c r="AN3">
-        <v>45.4161182029275</v>
+        <v>45.72150291195745</v>
       </c>
       <c r="AO3">
-        <v>45.69024789176268</v>
+        <v>45.43523052087007</v>
       </c>
       <c r="AP3">
-        <v>45.77316968149992</v>
+        <v>45.59147444337523</v>
       </c>
       <c r="AQ3">
-        <v>45.58793767731374</v>
+        <v>45.27840321616535</v>
       </c>
       <c r="AR3">
-        <v>45.7805663469611</v>
+        <v>45.5006606036694</v>
       </c>
       <c r="AS3">
-        <v>45.6034015117134</v>
+        <v>45.54215997921171</v>
       </c>
       <c r="AT3">
-        <v>45.68378486678625</v>
+        <v>45.69665643679593</v>
       </c>
       <c r="AU3">
-        <v>45.75252423993985</v>
+        <v>45.56401322403597</v>
       </c>
       <c r="AV3">
-        <v>45.71990804009798</v>
+        <v>45.6352254326244</v>
       </c>
       <c r="AW3">
-        <v>45.48470797172341</v>
+        <v>45.73311398200666</v>
       </c>
       <c r="AX3">
-        <v>45.84198744320096</v>
+        <v>45.50544337052145</v>
       </c>
       <c r="AY3">
-        <v>45.67898350139988</v>
+        <v>45.56814196382792</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -866,154 +866,154 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>746.8700085539622</v>
+        <v>734.267202510995</v>
       </c>
       <c r="C4">
-        <v>730.2051025738714</v>
+        <v>745.9028200090271</v>
       </c>
       <c r="D4">
-        <v>728.0771504636235</v>
+        <v>728.0932875827946</v>
       </c>
       <c r="E4">
-        <v>736.4879374779607</v>
+        <v>727.4572301772546</v>
       </c>
       <c r="F4">
-        <v>727.3790440094682</v>
+        <v>724.7291403235662</v>
       </c>
       <c r="G4">
-        <v>755.0103055348854</v>
+        <v>762.6663072211937</v>
       </c>
       <c r="H4">
-        <v>716.0034514245709</v>
+        <v>758.4473607987568</v>
       </c>
       <c r="I4">
-        <v>753.9720145013591</v>
+        <v>739.7294240168673</v>
       </c>
       <c r="J4">
-        <v>762.4246528658</v>
+        <v>752.0679729846862</v>
       </c>
       <c r="K4">
-        <v>750.0308628899855</v>
+        <v>729.5122004974166</v>
       </c>
       <c r="L4">
-        <v>726.985624554966</v>
+        <v>729.6485176346953</v>
       </c>
       <c r="M4">
-        <v>744.6763339580513</v>
+        <v>730.3561559745881</v>
       </c>
       <c r="N4">
-        <v>738.614489925727</v>
+        <v>758.638235019258</v>
       </c>
       <c r="O4">
-        <v>714.3080609523315</v>
+        <v>759.8519552684195</v>
       </c>
       <c r="P4">
-        <v>731.6616788755156</v>
+        <v>724.6716878609475</v>
       </c>
       <c r="Q4">
-        <v>753.2948581040038</v>
+        <v>723.7451299362909</v>
       </c>
       <c r="R4">
-        <v>731.082159645364</v>
+        <v>763.0447320488346</v>
       </c>
       <c r="S4">
-        <v>759.107785832799</v>
+        <v>747.1640963799762</v>
       </c>
       <c r="T4">
-        <v>729.0527906410722</v>
+        <v>746.4926066353148</v>
       </c>
       <c r="U4">
-        <v>723.9433737427585</v>
+        <v>745.3442279616927</v>
       </c>
       <c r="V4">
-        <v>736.5595048981231</v>
+        <v>758.4874704548308</v>
       </c>
       <c r="W4">
-        <v>745.3797540453811</v>
+        <v>739.5911984078513</v>
       </c>
       <c r="X4">
-        <v>732.6244247657191</v>
+        <v>712.2615074444694</v>
       </c>
       <c r="Y4">
-        <v>734.708803160077</v>
+        <v>736.165166245827</v>
       </c>
       <c r="Z4">
-        <v>719.624896193734</v>
+        <v>743.6665129437433</v>
       </c>
       <c r="AA4">
-        <v>738.3602729082912</v>
+        <v>768.3178147501216</v>
       </c>
       <c r="AB4">
-        <v>731.2952161426457</v>
+        <v>750.6036795617931</v>
       </c>
       <c r="AC4">
-        <v>739.5346206525041</v>
+        <v>736.9211160763987</v>
       </c>
       <c r="AD4">
-        <v>743.867216898029</v>
+        <v>739.3536624841628</v>
       </c>
       <c r="AE4">
-        <v>736.2324042094554</v>
+        <v>749.6440066561879</v>
       </c>
       <c r="AF4">
-        <v>741.0675200145059</v>
+        <v>739.1341242833714</v>
       </c>
       <c r="AG4">
-        <v>745.5920573535352</v>
+        <v>733.5508738581678</v>
       </c>
       <c r="AH4">
-        <v>749.3881883336487</v>
+        <v>741.5619551923177</v>
       </c>
       <c r="AI4">
-        <v>745.968138533359</v>
+        <v>742.1483383607829</v>
       </c>
       <c r="AJ4">
-        <v>708.332229987391</v>
+        <v>716.5304788820665</v>
       </c>
       <c r="AK4">
-        <v>733.8794642774724</v>
+        <v>749.8318208710548</v>
       </c>
       <c r="AL4">
-        <v>737.9297296373699</v>
+        <v>738.9964925470717</v>
       </c>
       <c r="AM4">
-        <v>732.0452658003271</v>
+        <v>744.2271908002544</v>
       </c>
       <c r="AN4">
-        <v>732.1870728090614</v>
+        <v>753.1283165106221</v>
       </c>
       <c r="AO4">
-        <v>742.942635959518</v>
+        <v>732.3955294678467</v>
       </c>
       <c r="AP4">
-        <v>745.5695299332866</v>
+        <v>734.6324342878652</v>
       </c>
       <c r="AQ4">
-        <v>743.767142787582</v>
+        <v>721.1236601770559</v>
       </c>
       <c r="AR4">
-        <v>729.9701382039281</v>
+        <v>750.5857822176339</v>
       </c>
       <c r="AS4">
-        <v>764.7171503902835</v>
+        <v>768.0094159785179</v>
       </c>
       <c r="AT4">
-        <v>745.6022642383732</v>
+        <v>750.1097607767699</v>
       </c>
       <c r="AU4">
-        <v>737.7586803674683</v>
+        <v>736.5427717066934</v>
       </c>
       <c r="AV4">
-        <v>734.7790666798585</v>
+        <v>735.2483794690023</v>
       </c>
       <c r="AW4">
-        <v>744.5988671810826</v>
+        <v>744.9800997078762</v>
       </c>
       <c r="AX4">
-        <v>741.4473568056681</v>
+        <v>735.4577884527963</v>
       </c>
       <c r="AY4">
-        <v>735.7307871032465</v>
+        <v>751.287470634085</v>
       </c>
     </row>
     <row r="5" spans="1:51">
@@ -1021,154 +1021,154 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69.2100011014259</v>
+        <v>68.56295880359258</v>
       </c>
       <c r="C5">
-        <v>69.02925255261403</v>
+        <v>69.88642257162026</v>
       </c>
       <c r="D5">
-        <v>68.79876469191119</v>
+        <v>67.72651687358578</v>
       </c>
       <c r="E5">
-        <v>69.00763309457157</v>
+        <v>68.91686918652462</v>
       </c>
       <c r="F5">
-        <v>65.55690556799156</v>
+        <v>68.3391054590101</v>
       </c>
       <c r="G5">
-        <v>70.88336517636732</v>
+        <v>72.02594881444787</v>
       </c>
       <c r="H5">
-        <v>67.34520028265223</v>
+        <v>69.01681388946719</v>
       </c>
       <c r="I5">
-        <v>69.43051147078776</v>
+        <v>68.87033254089397</v>
       </c>
       <c r="J5">
-        <v>71.78256421905967</v>
+        <v>70.94841548526757</v>
       </c>
       <c r="K5">
-        <v>71.92890649372599</v>
+        <v>67.94351389208482</v>
       </c>
       <c r="L5">
-        <v>69.49788609791173</v>
+        <v>67.11890641177693</v>
       </c>
       <c r="M5">
-        <v>68.94639901534828</v>
+        <v>67.71356315273167</v>
       </c>
       <c r="N5">
-        <v>69.29612836222223</v>
+        <v>71.50950006450816</v>
       </c>
       <c r="O5">
-        <v>66.96675762187705</v>
+        <v>71.52689546525299</v>
       </c>
       <c r="P5">
-        <v>69.09116646266996</v>
+        <v>67.69725318809276</v>
       </c>
       <c r="Q5">
-        <v>70.40441872134035</v>
+        <v>66.13664573522991</v>
       </c>
       <c r="R5">
-        <v>66.89602086836528</v>
+        <v>71.56357554937782</v>
       </c>
       <c r="S5">
-        <v>70.21775549248886</v>
+        <v>69.91526941670013</v>
       </c>
       <c r="T5">
-        <v>69.44665975115763</v>
+        <v>69.47248034289757</v>
       </c>
       <c r="U5">
-        <v>67.31643077172049</v>
+        <v>69.89432896291407</v>
       </c>
       <c r="V5">
-        <v>68.53336742524873</v>
+        <v>73.14500363786398</v>
       </c>
       <c r="W5">
-        <v>69.42147407319109</v>
+        <v>70.41339919586115</v>
       </c>
       <c r="X5">
-        <v>67.16162965580502</v>
+        <v>65.86460958967565</v>
       </c>
       <c r="Y5">
-        <v>68.13332572965925</v>
+        <v>66.45633425412242</v>
       </c>
       <c r="Z5">
-        <v>68.69985740257501</v>
+        <v>70.27588513406859</v>
       </c>
       <c r="AA5">
-        <v>68.2583898253385</v>
+        <v>73.2866541470021</v>
       </c>
       <c r="AB5">
-        <v>67.66661189187658</v>
+        <v>70.89858944729031</v>
       </c>
       <c r="AC5">
-        <v>69.86283409617427</v>
+        <v>70.73875796857382</v>
       </c>
       <c r="AD5">
-        <v>71.4825355534155</v>
+        <v>70.88872357049864</v>
       </c>
       <c r="AE5">
-        <v>70.05519593088003</v>
+        <v>72.01234241067468</v>
       </c>
       <c r="AF5">
-        <v>69.31058115709921</v>
+        <v>68.55400050820126</v>
       </c>
       <c r="AG5">
-        <v>69.28407296816961</v>
+        <v>67.95537929588845</v>
       </c>
       <c r="AH5">
-        <v>70.69665777294283</v>
+        <v>69.94963825698311</v>
       </c>
       <c r="AI5">
-        <v>70.7444418532275</v>
+        <v>68.31851873005601</v>
       </c>
       <c r="AJ5">
-        <v>65.3064132137746</v>
+        <v>65.25409499201383</v>
       </c>
       <c r="AK5">
-        <v>69.71927619847119</v>
+        <v>70.75914849354591</v>
       </c>
       <c r="AL5">
-        <v>70.37286318174917</v>
+        <v>69.63281041041108</v>
       </c>
       <c r="AM5">
-        <v>68.03480844587862</v>
+        <v>70.61415794015882</v>
       </c>
       <c r="AN5">
-        <v>68.61504959838122</v>
+        <v>71.64255741450617</v>
       </c>
       <c r="AO5">
-        <v>69.11329792226449</v>
+        <v>68.80444502776687</v>
       </c>
       <c r="AP5">
-        <v>67.47929808031523</v>
+        <v>69.26450916393793</v>
       </c>
       <c r="AQ5">
-        <v>70.13649179367847</v>
+        <v>66.46018910492272</v>
       </c>
       <c r="AR5">
-        <v>67.21409058183825</v>
+        <v>70.00201265262292</v>
       </c>
       <c r="AS5">
-        <v>72.38063721005453</v>
+        <v>73.15695263380043</v>
       </c>
       <c r="AT5">
-        <v>70.46784531376117</v>
+        <v>69.5324671534916</v>
       </c>
       <c r="AU5">
-        <v>68.50985912548025</v>
+        <v>68.36562573095834</v>
       </c>
       <c r="AV5">
-        <v>68.85010144934257</v>
+        <v>67.6993412128349</v>
       </c>
       <c r="AW5">
-        <v>70.14423012336877</v>
+        <v>69.49901579634924</v>
       </c>
       <c r="AX5">
-        <v>68.8764540585709</v>
+        <v>71.44049503213405</v>
       </c>
       <c r="AY5">
-        <v>66.80511611811673</v>
+        <v>71.13658014233792</v>
       </c>
     </row>
     <row r="6" spans="1:51">
@@ -1176,154 +1176,154 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23737.94252143071</v>
+        <v>23219.92432860866</v>
       </c>
       <c r="C6">
-        <v>23414.45665967162</v>
+        <v>24062.94128893156</v>
       </c>
       <c r="D6">
-        <v>23219.29687742967</v>
+        <v>22741.1880106502</v>
       </c>
       <c r="E6">
-        <v>23402.14199715085</v>
+        <v>23262.34714517966</v>
       </c>
       <c r="F6">
-        <v>21645.05299137222</v>
+        <v>22994.66177910367</v>
       </c>
       <c r="G6">
-        <v>24673.48813990307</v>
+        <v>25325.94604372123</v>
       </c>
       <c r="H6">
-        <v>22391.02441935431</v>
+        <v>23731.97791524638</v>
       </c>
       <c r="I6">
-        <v>23908.20611991394</v>
+        <v>23453.26598867555</v>
       </c>
       <c r="J6">
-        <v>25242.20522129847</v>
+        <v>24693.88258145766</v>
       </c>
       <c r="K6">
-        <v>25185.01436458277</v>
+        <v>22875.90523637355</v>
       </c>
       <c r="L6">
-        <v>23578.57928907308</v>
+        <v>22448.6951619069</v>
       </c>
       <c r="M6">
-        <v>23573.73056209397</v>
+        <v>22781.57630072234</v>
       </c>
       <c r="N6">
-        <v>23657.57600491293</v>
+        <v>25044.25648002033</v>
       </c>
       <c r="O6">
-        <v>22185.75290735175</v>
+        <v>25055.35462201678</v>
       </c>
       <c r="P6">
-        <v>23445.54991427575</v>
+        <v>22648.06385631854</v>
       </c>
       <c r="Q6">
-        <v>24382.07366283254</v>
+        <v>21900.30171413884</v>
       </c>
       <c r="R6">
-        <v>22392.70794208128</v>
+        <v>25107.63893276777</v>
       </c>
       <c r="S6">
-        <v>24334.73649919069</v>
+        <v>24047.04150317766</v>
       </c>
       <c r="T6">
-        <v>23599.16877493485</v>
+        <v>23840.99343440865</v>
       </c>
       <c r="U6">
-        <v>22491.94307837607</v>
+        <v>24046.52932687069</v>
       </c>
       <c r="V6">
-        <v>23231.39775713995</v>
+        <v>25868.72275801285</v>
       </c>
       <c r="W6">
-        <v>23808.90824435413</v>
+        <v>24229.06982182992</v>
       </c>
       <c r="X6">
-        <v>22513.35116223575</v>
+        <v>21628.07491012688</v>
       </c>
       <c r="Y6">
-        <v>23033.57128464053</v>
+        <v>22163.29710341417</v>
       </c>
       <c r="Z6">
-        <v>23084.02474805331</v>
+        <v>24221.50003323627</v>
       </c>
       <c r="AA6">
-        <v>23137.65883088292</v>
+        <v>26099.51675613422</v>
       </c>
       <c r="AB6">
-        <v>22780.53190036974</v>
+        <v>24581.62495300042</v>
       </c>
       <c r="AC6">
-        <v>23945.03580080837</v>
+        <v>24330.5149228011</v>
       </c>
       <c r="AD6">
-        <v>24832.54158493362</v>
+        <v>24468.44289383654</v>
       </c>
       <c r="AE6">
-        <v>23969.46402052434</v>
+        <v>25155.85686167594</v>
       </c>
       <c r="AF6">
-        <v>23691.22030089336</v>
+        <v>23292.53841446832</v>
       </c>
       <c r="AG6">
-        <v>23721.92467436903</v>
+        <v>22906.76371792529</v>
       </c>
       <c r="AH6">
-        <v>24505.83466231401</v>
+        <v>23993.62050804364</v>
       </c>
       <c r="AI6">
-        <v>24496.48691511837</v>
+        <v>23203.75922911748</v>
       </c>
       <c r="AJ6">
-        <v>21317.18304096779</v>
+        <v>21356.66146499708</v>
       </c>
       <c r="AK6">
-        <v>23802.56353230551</v>
+        <v>24546.85638858539</v>
       </c>
       <c r="AL6">
-        <v>24156.98981538684</v>
+        <v>23834.40729313267</v>
       </c>
       <c r="AM6">
-        <v>22924.31201937038</v>
+        <v>24392.42532118483</v>
       </c>
       <c r="AN6">
-        <v>23212.99881020222</v>
+        <v>25065.25508678602</v>
       </c>
       <c r="AO6">
-        <v>23620.7964979871</v>
+        <v>23322.09686433966</v>
       </c>
       <c r="AP6">
-        <v>22820.71601842824</v>
+        <v>23599.27417474289</v>
       </c>
       <c r="AQ6">
-        <v>24132.32146052894</v>
+        <v>22019.02126734101</v>
       </c>
       <c r="AR6">
-        <v>22511.45529949858</v>
+        <v>24170.73583253819</v>
       </c>
       <c r="AS6">
-        <v>25562.93568663186</v>
+        <v>26035.02637646975</v>
       </c>
       <c r="AT6">
-        <v>24346.16683195245</v>
+        <v>23934.90975201841</v>
       </c>
       <c r="AU6">
-        <v>23261.89992857247</v>
+        <v>23171.40757714221</v>
       </c>
       <c r="AV6">
-        <v>23394.87676863619</v>
+        <v>22822.34338040895</v>
       </c>
       <c r="AW6">
-        <v>24160.87276964069</v>
+        <v>23868.22634481506</v>
       </c>
       <c r="AX6">
-        <v>23484.41966515925</v>
+        <v>24690.43104685203</v>
       </c>
       <c r="AY6">
-        <v>22348.9171306871</v>
+        <v>24739.25876757478</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1331,154 +1331,154 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-897.9171512121281</v>
+        <v>-451.2195741735844</v>
       </c>
       <c r="C7">
-        <v>-443.937372716514</v>
+        <v>-478.8593172139538</v>
       </c>
       <c r="D7">
-        <v>-631.277685623627</v>
+        <v>-476.6773162224407</v>
       </c>
       <c r="E7">
-        <v>-678.7513691275891</v>
+        <v>-707.1255956060724</v>
       </c>
       <c r="F7">
-        <v>-726.8904091091911</v>
+        <v>-834.0357509705519</v>
       </c>
       <c r="G7">
-        <v>-301.7310730802428</v>
+        <v>-755.1161726431994</v>
       </c>
       <c r="H7">
-        <v>-184.6155516299254</v>
+        <v>-623.4435927695924</v>
       </c>
       <c r="I7">
-        <v>-695.7382189867316</v>
+        <v>-519.8410054170749</v>
       </c>
       <c r="J7">
-        <v>-1693.912563695625</v>
+        <v>-2196.99837921437</v>
       </c>
       <c r="K7">
-        <v>-730.5845334631032</v>
+        <v>-1203.166949153409</v>
       </c>
       <c r="L7">
-        <v>-251.2833567225728</v>
+        <v>-782.8618167200984</v>
       </c>
       <c r="M7">
-        <v>-583.082275288254</v>
+        <v>-973.3082644577614</v>
       </c>
       <c r="N7">
-        <v>-691.2078948548972</v>
+        <v>-659.5108260248774</v>
       </c>
       <c r="O7">
-        <v>-1357.385062576647</v>
+        <v>-1004.782427153561</v>
       </c>
       <c r="P7">
-        <v>-531.6576187432111</v>
+        <v>-895.8459421430541</v>
       </c>
       <c r="Q7">
-        <v>-916.803598064613</v>
+        <v>-1314.843370043732</v>
       </c>
       <c r="R7">
-        <v>-395.207795206238</v>
+        <v>-849.5385585594356</v>
       </c>
       <c r="S7">
-        <v>-844.2912186052653</v>
+        <v>-870.1352471520123</v>
       </c>
       <c r="T7">
-        <v>-876.6767412449803</v>
+        <v>-715.3591572954236</v>
       </c>
       <c r="U7">
-        <v>-1293.773916375303</v>
+        <v>-114.892019564896</v>
       </c>
       <c r="V7">
-        <v>-861.7821160099552</v>
+        <v>-327.270019358891</v>
       </c>
       <c r="W7">
-        <v>-838.2106806225753</v>
+        <v>-1349.335399460325</v>
       </c>
       <c r="X7">
-        <v>-1049.898278657316</v>
+        <v>-475.7905267152128</v>
       </c>
       <c r="Y7">
-        <v>-133.6651355835902</v>
+        <v>-191.3659380563113</v>
       </c>
       <c r="Z7">
-        <v>-957.1408967128995</v>
+        <v>-61.32615709088937</v>
       </c>
       <c r="AA7">
-        <v>-824.7157703288399</v>
+        <v>-859.3214007221492</v>
       </c>
       <c r="AB7">
-        <v>-442.5963463626029</v>
+        <v>-633.1350988618691</v>
       </c>
       <c r="AC7">
-        <v>-843.411431141932</v>
+        <v>-757.1717797437364</v>
       </c>
       <c r="AD7">
-        <v>-1191.199160466677</v>
+        <v>-98.04489449492333</v>
       </c>
       <c r="AE7">
-        <v>-670.6323947444946</v>
+        <v>-708.7283085410629</v>
       </c>
       <c r="AF7">
-        <v>-1170.842875862074</v>
+        <v>170.5502471173518</v>
       </c>
       <c r="AG7">
-        <v>-598.2265363725542</v>
+        <v>-744.6095129782954</v>
       </c>
       <c r="AH7">
-        <v>-1452.643431356333</v>
+        <v>-670.7756911856075</v>
       </c>
       <c r="AI7">
-        <v>-677.5711990856501</v>
+        <v>-1092.751816593206</v>
       </c>
       <c r="AJ7">
-        <v>-852.1839946464439</v>
+        <v>-136.1910863429886</v>
       </c>
       <c r="AK7">
-        <v>-890.8623114328666</v>
+        <v>-837.068759668064</v>
       </c>
       <c r="AL7">
-        <v>-523.3738019029706</v>
+        <v>-1174.052018765945</v>
       </c>
       <c r="AM7">
-        <v>-933.8840430774492</v>
+        <v>-636.7689734065452</v>
       </c>
       <c r="AN7">
-        <v>-472.3708840566468</v>
+        <v>-783.2385897833474</v>
       </c>
       <c r="AO7">
-        <v>-601.0224692765614</v>
+        <v>-429.5659816507055</v>
       </c>
       <c r="AP7">
-        <v>-287.9005979749799</v>
+        <v>-274.0044536605258</v>
       </c>
       <c r="AQ7">
-        <v>-813.778983078655</v>
+        <v>-857.7255886971849</v>
       </c>
       <c r="AR7">
-        <v>-1340.063318529335</v>
+        <v>-815.0675937263886</v>
       </c>
       <c r="AS7">
-        <v>-758.1538105664305</v>
+        <v>-1305.901384810972</v>
       </c>
       <c r="AT7">
-        <v>-561.3407334944259</v>
+        <v>-1026.184265071393</v>
       </c>
       <c r="AU7">
-        <v>-2580.073777551123</v>
+        <v>-740.2439429390645</v>
       </c>
       <c r="AV7">
-        <v>285.4301154710226</v>
+        <v>-902.0481007410942</v>
       </c>
       <c r="AW7">
-        <v>-370.4440435211037</v>
+        <v>-1173.32960427587</v>
       </c>
       <c r="AX7">
-        <v>-484.5762430131408</v>
+        <v>65.41695363936638</v>
       </c>
       <c r="AY7">
-        <v>-125.4293377714079</v>
+        <v>-923.3274432750349</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -1486,154 +1486,154 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2403.678734546406</v>
+        <v>-2987.742936071878</v>
       </c>
       <c r="C8">
-        <v>-2913.766315384838</v>
+        <v>-3083.026003278774</v>
       </c>
       <c r="D8">
-        <v>-4248.004783071642</v>
+        <v>-2277.330439098938</v>
       </c>
       <c r="E8">
-        <v>-5470.17045681031</v>
+        <v>-4662.773614434371</v>
       </c>
       <c r="F8">
-        <v>-3615.531361814193</v>
+        <v>-2460.674923335289</v>
       </c>
       <c r="G8">
-        <v>-3199.041182597515</v>
+        <v>-4859.371992271717</v>
       </c>
       <c r="H8">
-        <v>-2339.243656151354</v>
+        <v>-3633.130265891502</v>
       </c>
       <c r="I8">
-        <v>-3112.585886870591</v>
+        <v>-2902.522969734132</v>
       </c>
       <c r="J8">
-        <v>-2384.443463879153</v>
+        <v>-636.9861711865169</v>
       </c>
       <c r="K8">
-        <v>-2739.034963916523</v>
+        <v>-2517.965510407162</v>
       </c>
       <c r="L8">
-        <v>-3146.200187629202</v>
+        <v>-3203.59694315398</v>
       </c>
       <c r="M8">
-        <v>-2707.413523897161</v>
+        <v>-2441.945245738953</v>
       </c>
       <c r="N8">
-        <v>-3442.009252958353</v>
+        <v>-2279.95710378224</v>
       </c>
       <c r="O8">
-        <v>1865.035120006937</v>
+        <v>-3740.153590838495</v>
       </c>
       <c r="P8">
-        <v>-3363.330802680524</v>
+        <v>-3612.957489414434</v>
       </c>
       <c r="Q8">
-        <v>-3967.705588293234</v>
+        <v>-2454.231425512226</v>
       </c>
       <c r="R8">
-        <v>-2434.96668550155</v>
+        <v>-3041.445923047888</v>
       </c>
       <c r="S8">
-        <v>-4327.242218878097</v>
+        <v>-4042.825706721031</v>
       </c>
       <c r="T8">
-        <v>-2882.319133798296</v>
+        <v>-3319.144301472688</v>
       </c>
       <c r="U8">
-        <v>-2859.09830850834</v>
+        <v>-2829.091510337144</v>
       </c>
       <c r="V8">
-        <v>-3475.136098661205</v>
+        <v>-4437.142449708047</v>
       </c>
       <c r="W8">
-        <v>-3211.726164349922</v>
+        <v>-2519.251583665654</v>
       </c>
       <c r="X8">
-        <v>-3417.091399994121</v>
+        <v>-2010.302723013668</v>
       </c>
       <c r="Y8">
-        <v>-3118.082878144278</v>
+        <v>-4891.533023333995</v>
       </c>
       <c r="Z8">
-        <v>-3053.976902300919</v>
+        <v>-2695.889389754378</v>
       </c>
       <c r="AA8">
-        <v>-2594.02596950735</v>
+        <v>-2311.198151821995</v>
       </c>
       <c r="AB8">
-        <v>-1889.06265198198</v>
+        <v>-4191.30904232985</v>
       </c>
       <c r="AC8">
-        <v>-3783.671372920501</v>
+        <v>-4361.405496781946</v>
       </c>
       <c r="AD8">
-        <v>-3336.101591878595</v>
+        <v>-3291.343806850083</v>
       </c>
       <c r="AE8">
-        <v>-4542.057939541765</v>
+        <v>-3961.51772330419</v>
       </c>
       <c r="AF8">
-        <v>-2940.685325798108</v>
+        <v>-2623.584776813545</v>
       </c>
       <c r="AG8">
-        <v>-3596.711943434126</v>
+        <v>-3150.654033302209</v>
       </c>
       <c r="AH8">
-        <v>-2891.480547150233</v>
+        <v>-4206.366759218756</v>
       </c>
       <c r="AI8">
-        <v>-2770.496293591286</v>
+        <v>-2774.725357430872</v>
       </c>
       <c r="AJ8">
-        <v>-2866.681597671839</v>
+        <v>-4361.896798251094</v>
       </c>
       <c r="AK8">
-        <v>-2985.735471606511</v>
+        <v>-2560.407064577046</v>
       </c>
       <c r="AL8">
-        <v>-4362.623782916443</v>
+        <v>-3179.815702571573</v>
       </c>
       <c r="AM8">
-        <v>-3970.269051915441</v>
+        <v>-2923.960379122002</v>
       </c>
       <c r="AN8">
-        <v>-3233.871663814444</v>
+        <v>-2111.511010563505</v>
       </c>
       <c r="AO8">
-        <v>-2337.168486704581</v>
+        <v>-2620.330704905567</v>
       </c>
       <c r="AP8">
-        <v>-2976.65556761565</v>
+        <v>-2397.485555733641</v>
       </c>
       <c r="AQ8">
-        <v>-3815.158609029791</v>
+        <v>-2454.262301000228</v>
       </c>
       <c r="AR8">
-        <v>-2197.638378406445</v>
+        <v>-2500.800076762891</v>
       </c>
       <c r="AS8">
-        <v>-3591.377479084157</v>
+        <v>-2073.095950318513</v>
       </c>
       <c r="AT8">
-        <v>-3114.938869353401</v>
+        <v>-2711.191139294556</v>
       </c>
       <c r="AU8">
-        <v>-313.1529162971117</v>
+        <v>-2187.348052770496</v>
       </c>
       <c r="AV8">
-        <v>-2778.032442896563</v>
+        <v>-2251.450865171273</v>
       </c>
       <c r="AW8">
-        <v>-2873.038832122238</v>
+        <v>-2079.441870948073</v>
       </c>
       <c r="AX8">
-        <v>-3321.826866382649</v>
+        <v>-3295.157581267806</v>
       </c>
       <c r="AY8">
-        <v>-3958.105078801838</v>
+        <v>-3717.402745411913</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -1641,154 +1641,154 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2193.50768038437</v>
+        <v>1970.453898125548</v>
       </c>
       <c r="C9">
-        <v>2187.291558327131</v>
+        <v>1986.94959784969</v>
       </c>
       <c r="D9">
-        <v>2187.992455063837</v>
+        <v>1952.365885128307</v>
       </c>
       <c r="E9">
-        <v>2186.156110658796</v>
+        <v>1969.528211907056</v>
       </c>
       <c r="F9">
-        <v>2133.021386323544</v>
+        <v>1970.269294442411</v>
       </c>
       <c r="G9">
-        <v>2216.83819003852</v>
+        <v>2022.383432035591</v>
       </c>
       <c r="H9">
-        <v>2160.50609606818</v>
+        <v>1983.065360195535</v>
       </c>
       <c r="I9">
-        <v>2202.565581029625</v>
+        <v>1974.71289885757</v>
       </c>
       <c r="J9">
-        <v>2232.09626978331</v>
+        <v>2010.382022420852</v>
       </c>
       <c r="K9">
-        <v>2235.708093817923</v>
+        <v>1956.902520849577</v>
       </c>
       <c r="L9">
-        <v>2194.089792329793</v>
+        <v>1943.763111136294</v>
       </c>
       <c r="M9">
-        <v>2185.012605247771</v>
+        <v>1955.532616194985</v>
       </c>
       <c r="N9">
-        <v>2191.830049032944</v>
+        <v>2025.374765000619</v>
       </c>
       <c r="O9">
-        <v>2158.528613439543</v>
+        <v>2018.073700929373</v>
       </c>
       <c r="P9">
-        <v>2193.484326511279</v>
+        <v>1959.912561702489</v>
       </c>
       <c r="Q9">
-        <v>2216.502139437288</v>
+        <v>1928.88087795875</v>
       </c>
       <c r="R9">
-        <v>2153.579084034649</v>
+        <v>2023.262627539888</v>
       </c>
       <c r="S9">
-        <v>2213.931763641436</v>
+        <v>1993.819600583708</v>
       </c>
       <c r="T9">
-        <v>2190.082012927979</v>
+        <v>1987.140033440613</v>
       </c>
       <c r="U9">
-        <v>2156.708715513174</v>
+        <v>1994.611617517267</v>
       </c>
       <c r="V9">
-        <v>2180.490425535565</v>
+        <v>2034.409408242823</v>
       </c>
       <c r="W9">
-        <v>2191.420965791589</v>
+        <v>2004.570866419581</v>
       </c>
       <c r="X9">
-        <v>2156.787626938386</v>
+        <v>1927.320179947979</v>
       </c>
       <c r="Y9">
-        <v>2176.912178341897</v>
+        <v>1932.739790125517</v>
       </c>
       <c r="Z9">
-        <v>2182.852313244158</v>
+        <v>2000.094040646851</v>
       </c>
       <c r="AA9">
-        <v>2180.005855409957</v>
+        <v>2039.670603816783</v>
       </c>
       <c r="AB9">
-        <v>2167.335961660266</v>
+        <v>2012.197760010869</v>
       </c>
       <c r="AC9">
-        <v>2203.716990282556</v>
+        <v>1996.986625620954</v>
       </c>
       <c r="AD9">
-        <v>2223.594790866963</v>
+        <v>2010.091149078162</v>
       </c>
       <c r="AE9">
-        <v>2204.098237399464</v>
+        <v>2017.57293120822</v>
       </c>
       <c r="AF9">
-        <v>2192.561256748347</v>
+        <v>1979.415398087764</v>
       </c>
       <c r="AG9">
-        <v>2199.312120234494</v>
+        <v>1958.261839535053</v>
       </c>
       <c r="AH9">
-        <v>2218.592602924006</v>
+        <v>1988.757203573333</v>
       </c>
       <c r="AI9">
-        <v>2215.60072451721</v>
+        <v>1969.365193220139</v>
       </c>
       <c r="AJ9">
-        <v>2116.236622968892</v>
+        <v>1921.498402562485</v>
       </c>
       <c r="AK9">
-        <v>2196.579059796306</v>
+        <v>2002.003547452109</v>
       </c>
       <c r="AL9">
-        <v>2211.263670859763</v>
+        <v>1979.098126046629</v>
       </c>
       <c r="AM9">
-        <v>2159.907688238864</v>
+        <v>2000.939985918805</v>
       </c>
       <c r="AN9">
-        <v>2182.820691051691</v>
+        <v>2017.179363685382</v>
       </c>
       <c r="AO9">
-        <v>2204.929888307442</v>
+        <v>1977.529454297649</v>
       </c>
       <c r="AP9">
-        <v>2176.515269633385</v>
+        <v>1979.131008020551</v>
       </c>
       <c r="AQ9">
-        <v>2194.941987069406</v>
+        <v>1929.551864509921</v>
       </c>
       <c r="AR9">
-        <v>2169.482654090983</v>
+        <v>1999.144724918634</v>
       </c>
       <c r="AS9">
-        <v>2241.809332193635</v>
+        <v>2039.302808198583</v>
       </c>
       <c r="AT9">
-        <v>2207.024088027365</v>
+        <v>1988.77267470061</v>
       </c>
       <c r="AU9">
-        <v>2184.287483118818</v>
+        <v>1965.738658357442</v>
       </c>
       <c r="AV9">
-        <v>2184.650836903374</v>
+        <v>1956.395575210298</v>
       </c>
       <c r="AW9">
-        <v>2204.574985508636</v>
+        <v>1989.898141264522</v>
       </c>
       <c r="AX9">
-        <v>2189.393365614309</v>
+        <v>2010.819276310717</v>
       </c>
       <c r="AY9">
-        <v>2158.613366573489</v>
+        <v>2004.800510035586</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -1796,154 +1796,154 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7245.228862547246</v>
+        <v>11059.39210154268</v>
       </c>
       <c r="C10">
-        <v>12912.93771166012</v>
+        <v>14565.82924738614</v>
       </c>
       <c r="D10">
-        <v>11732.91837124656</v>
+        <v>14015.66792509672</v>
       </c>
       <c r="E10">
-        <v>18684.35407941887</v>
+        <v>17912.25093364022</v>
       </c>
       <c r="F10">
-        <v>11839.47971625057</v>
+        <v>8695.696746248148</v>
       </c>
       <c r="G10">
-        <v>17112.29352410834</v>
+        <v>14802.76004346149</v>
       </c>
       <c r="H10">
-        <v>16644.20957462862</v>
+        <v>10813.894333891</v>
       </c>
       <c r="I10">
-        <v>11766.72343845206</v>
+        <v>14067.13601322163</v>
       </c>
       <c r="J10">
-        <v>4319.384183087879</v>
+        <v>6768.373836691379</v>
       </c>
       <c r="K10">
-        <v>11694.94622123096</v>
+        <v>1356.113363364412</v>
       </c>
       <c r="L10">
-        <v>16166.3336369485</v>
+        <v>8550.901645890312</v>
       </c>
       <c r="M10">
-        <v>12381.14700637993</v>
+        <v>9597.60188525593</v>
       </c>
       <c r="N10">
-        <v>13170.823724433</v>
+        <v>14501.45388339004</v>
       </c>
       <c r="O10">
-        <v>8879.182414605664</v>
+        <v>13325.4549844001</v>
       </c>
       <c r="P10">
-        <v>15600.8822102845</v>
+        <v>12969.42519415856</v>
       </c>
       <c r="Q10">
-        <v>10426.08458399685</v>
+        <v>2960.375981381996</v>
       </c>
       <c r="R10">
-        <v>11207.07181671717</v>
+        <v>9325.823227052919</v>
       </c>
       <c r="S10">
-        <v>12534.66243809888</v>
+        <v>2806.074671943393</v>
       </c>
       <c r="T10">
-        <v>10858.47050372348</v>
+        <v>14206.53629088111</v>
       </c>
       <c r="U10">
-        <v>6597.514041797458</v>
+        <v>17445.15750701998</v>
       </c>
       <c r="V10">
-        <v>13472.95617329277</v>
+        <v>17571.78286142989</v>
       </c>
       <c r="W10">
-        <v>8211.497449605304</v>
+        <v>4082.114641685117</v>
       </c>
       <c r="X10">
-        <v>8831.292177421916</v>
+        <v>15257.19030763167</v>
       </c>
       <c r="Y10">
-        <v>17796.81837612602</v>
+        <v>15651.60630901766</v>
       </c>
       <c r="Z10">
-        <v>12956.84478725049</v>
+        <v>17970.82288424066</v>
       </c>
       <c r="AA10">
-        <v>15408.44880692224</v>
+        <v>7770.592927039062</v>
       </c>
       <c r="AB10">
-        <v>17349.12359052103</v>
+        <v>12879.56631339384</v>
       </c>
       <c r="AC10">
-        <v>6668.004081690657</v>
+        <v>11292.50052615689</v>
       </c>
       <c r="AD10">
-        <v>2721.170559719614</v>
+        <v>17777.885839328</v>
       </c>
       <c r="AE10">
-        <v>11891.19339549682</v>
+        <v>7283.957788173335</v>
       </c>
       <c r="AF10">
-        <v>3440.515091368925</v>
+        <v>18722.04412200813</v>
       </c>
       <c r="AG10">
-        <v>13590.3148003158</v>
+        <v>11101.74674018678</v>
       </c>
       <c r="AH10">
-        <v>3813.523072446305</v>
+        <v>12361.31770484394</v>
       </c>
       <c r="AI10">
-        <v>14188.23964190346</v>
+        <v>5544.264587345789</v>
       </c>
       <c r="AJ10">
-        <v>9890.866409551769</v>
+        <v>15909.71851094885</v>
       </c>
       <c r="AK10">
-        <v>6660.51214659343</v>
+        <v>8692.324780788083</v>
       </c>
       <c r="AL10">
-        <v>16321.37142388837</v>
+        <v>-468.7957553296237</v>
       </c>
       <c r="AM10">
-        <v>6974.515909582146</v>
+        <v>19506.82997819228</v>
       </c>
       <c r="AN10">
-        <v>8183.185011904823</v>
+        <v>9670.85377152462</v>
       </c>
       <c r="AO10">
-        <v>10279.60577990351</v>
+        <v>18721.84817563448</v>
       </c>
       <c r="AP10">
-        <v>11507.86658936772</v>
+        <v>19860.22369060457</v>
       </c>
       <c r="AQ10">
-        <v>7179.35879144623</v>
+        <v>8111.914215480521</v>
       </c>
       <c r="AR10">
-        <v>5511.753094889395</v>
+        <v>11358.29273121176</v>
       </c>
       <c r="AS10">
-        <v>8194.160140253594</v>
+        <v>7250.193193667528</v>
       </c>
       <c r="AT10">
-        <v>20060.93871365344</v>
+        <v>2683.042139626241</v>
       </c>
       <c r="AU10">
-        <v>10103.13280227273</v>
+        <v>7194.833765873264</v>
       </c>
       <c r="AV10">
-        <v>19609.96562107962</v>
+        <v>4617.652083368252</v>
       </c>
       <c r="AW10">
-        <v>20274.15211917985</v>
+        <v>-254.3876358903949</v>
       </c>
       <c r="AX10">
-        <v>14290.04087499226</v>
+        <v>18719.55574133428</v>
       </c>
       <c r="AY10">
-        <v>19896.02294988453</v>
+        <v>11048.42697585269</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -1951,154 +1951,154 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5892.549549368191</v>
+        <v>8565.731312151509</v>
       </c>
       <c r="C11">
-        <v>14839.77300114158</v>
+        <v>6144.838979657493</v>
       </c>
       <c r="D11">
-        <v>16626.41164036298</v>
+        <v>2614.520103675338</v>
       </c>
       <c r="E11">
-        <v>15529.12741148403</v>
+        <v>9163.80639849434</v>
       </c>
       <c r="F11">
-        <v>10535.07246773374</v>
+        <v>-3903.132122961318</v>
       </c>
       <c r="G11">
-        <v>10793.3282252873</v>
+        <v>13180.80332885616</v>
       </c>
       <c r="H11">
-        <v>-6093.077077825543</v>
+        <v>7829.773323354421</v>
       </c>
       <c r="I11">
-        <v>8853.118281793595</v>
+        <v>6159.081310736131</v>
       </c>
       <c r="J11">
-        <v>3039.634793346809</v>
+        <v>-3150.789727335775</v>
       </c>
       <c r="K11">
-        <v>677.6494313156693</v>
+        <v>1320.080094621209</v>
       </c>
       <c r="L11">
-        <v>4385.654729790843</v>
+        <v>10874.40169205812</v>
       </c>
       <c r="M11">
-        <v>2184.745387667264</v>
+        <v>5142.523518219173</v>
       </c>
       <c r="N11">
-        <v>6673.232017845683</v>
+        <v>-2462.92126676467</v>
       </c>
       <c r="O11">
-        <v>-9927.564032795461</v>
+        <v>5289.903112112217</v>
       </c>
       <c r="P11">
-        <v>3190.364699795356</v>
+        <v>15516.73061009363</v>
       </c>
       <c r="Q11">
-        <v>808.7476530521116</v>
+        <v>6453.305154158296</v>
       </c>
       <c r="R11">
-        <v>6868.20552140669</v>
+        <v>5495.200455572423</v>
       </c>
       <c r="S11">
-        <v>6434.630730850527</v>
+        <v>2837.947586345574</v>
       </c>
       <c r="T11">
-        <v>4372.764126844045</v>
+        <v>4390.378429854582</v>
       </c>
       <c r="U11">
-        <v>6839.918133065991</v>
+        <v>291.206186776081</v>
       </c>
       <c r="V11">
-        <v>13218.66738169194</v>
+        <v>-2512.596348135967</v>
       </c>
       <c r="W11">
-        <v>4125.959488624158</v>
+        <v>-2738.326014680736</v>
       </c>
       <c r="X11">
-        <v>4991.719753986195</v>
+        <v>6210.815411517444</v>
       </c>
       <c r="Y11">
-        <v>15738.5227296558</v>
+        <v>18403.32590650216</v>
       </c>
       <c r="Z11">
-        <v>10311.54802188635</v>
+        <v>1681.919578306704</v>
       </c>
       <c r="AA11">
-        <v>1529.159866500961</v>
+        <v>-584.7162379923184</v>
       </c>
       <c r="AB11">
-        <v>3299.216388001981</v>
+        <v>-474.1500734682867</v>
       </c>
       <c r="AC11">
-        <v>4949.212807766057</v>
+        <v>12103.1523745005</v>
       </c>
       <c r="AD11">
-        <v>4715.515803786684</v>
+        <v>6347.014834353151</v>
       </c>
       <c r="AE11">
-        <v>10225.07299152593</v>
+        <v>-1723.822070089501</v>
       </c>
       <c r="AF11">
-        <v>7706.260090258752</v>
+        <v>3454.704209384252</v>
       </c>
       <c r="AG11">
-        <v>1878.824864764929</v>
+        <v>1870.675945153846</v>
       </c>
       <c r="AH11">
-        <v>5848.922145185898</v>
+        <v>6136.361739698586</v>
       </c>
       <c r="AI11">
-        <v>10096.7769400159</v>
+        <v>3004.631227135381</v>
       </c>
       <c r="AJ11">
-        <v>7241.092896470421</v>
+        <v>15969.914537866</v>
       </c>
       <c r="AK11">
-        <v>9514.200487947573</v>
+        <v>10565.82640902071</v>
       </c>
       <c r="AL11">
-        <v>8311.061509389914</v>
+        <v>3927.130901968368</v>
       </c>
       <c r="AM11">
-        <v>8968.770161557575</v>
+        <v>12093.08611100737</v>
       </c>
       <c r="AN11">
-        <v>10927.30461294283</v>
+        <v>6515.612380677412</v>
       </c>
       <c r="AO11">
-        <v>6253.344340071782</v>
+        <v>1721.776634031648</v>
       </c>
       <c r="AP11">
-        <v>9152.435928333449</v>
+        <v>4057.054819930891</v>
       </c>
       <c r="AQ11">
-        <v>11499.60819879318</v>
+        <v>-914.4539074807236</v>
       </c>
       <c r="AR11">
-        <v>2335.03996760163</v>
+        <v>10209.25619941223</v>
       </c>
       <c r="AS11">
-        <v>12228.06842677884</v>
+        <v>-2770.474031071838</v>
       </c>
       <c r="AT11">
-        <v>4877.016468328822</v>
+        <v>5055.019127996511</v>
       </c>
       <c r="AU11">
-        <v>-858.9602796808541</v>
+        <v>2451.179063945979</v>
       </c>
       <c r="AV11">
-        <v>2331.612812899426</v>
+        <v>2027.859959599721</v>
       </c>
       <c r="AW11">
-        <v>2207.90028709749</v>
+        <v>-1013.415848600612</v>
       </c>
       <c r="AX11">
-        <v>2103.54764343033</v>
+        <v>-3198.412670190139</v>
       </c>
       <c r="AY11">
-        <v>4573.413319123701</v>
+        <v>-837.5016684156911</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2106,154 +2106,154 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-2.026290834328857</v>
+        <v>-2.013426501522443</v>
       </c>
       <c r="C12">
-        <v>-2.025189144721001</v>
+        <v>-2.03101905923265</v>
       </c>
       <c r="D12">
-        <v>-2.01001425478279</v>
+        <v>-2.037850000867309</v>
       </c>
       <c r="E12">
-        <v>-2.025038259544519</v>
+        <v>-2.025591691265439</v>
       </c>
       <c r="F12">
-        <v>-2.019143021619934</v>
+        <v>-2.010797788493603</v>
       </c>
       <c r="G12">
-        <v>-2.02780243957072</v>
+        <v>-2.022186909249807</v>
       </c>
       <c r="H12">
-        <v>-2.022448623116825</v>
+        <v>-2.016694165810569</v>
       </c>
       <c r="I12">
-        <v>-2.015768955753923</v>
+        <v>-2.018663114317699</v>
       </c>
       <c r="J12">
-        <v>-2.021610949719961</v>
+        <v>-2.018581764720562</v>
       </c>
       <c r="K12">
-        <v>-2.02281747603353</v>
+        <v>-2.035325812107242</v>
       </c>
       <c r="L12">
-        <v>-2.028075981820188</v>
+        <v>-2.019501515862378</v>
       </c>
       <c r="M12">
-        <v>-2.033715305698978</v>
+        <v>-2.027549419919368</v>
       </c>
       <c r="N12">
-        <v>-2.022132235375131</v>
+        <v>-2.005029911699469</v>
       </c>
       <c r="O12">
-        <v>-2.012002852420093</v>
+        <v>-2.029440534959868</v>
       </c>
       <c r="P12">
-        <v>-2.012680250080126</v>
+        <v>-2.004093220330279</v>
       </c>
       <c r="Q12">
-        <v>-2.015002969588089</v>
+        <v>-2.024408153643561</v>
       </c>
       <c r="R12">
-        <v>-2.032699490381865</v>
+        <v>-2.021380798298662</v>
       </c>
       <c r="S12">
-        <v>-2.02162504657843</v>
+        <v>-2.030773320407209</v>
       </c>
       <c r="T12">
-        <v>-2.025086075987051</v>
+        <v>-2.017600443027268</v>
       </c>
       <c r="U12">
-        <v>-2.029343495560995</v>
+        <v>-2.012183803166998</v>
       </c>
       <c r="V12">
-        <v>-2.025786530953337</v>
+        <v>-2.031265104024153</v>
       </c>
       <c r="W12">
-        <v>-2.029309826685075</v>
+        <v>-2.009634988500969</v>
       </c>
       <c r="X12">
-        <v>-2.0269908338885</v>
+        <v>-2.010410987876007</v>
       </c>
       <c r="Y12">
-        <v>-2.015752592114275</v>
+        <v>-2.039539571862913</v>
       </c>
       <c r="Z12">
-        <v>-2.016723708988454</v>
+        <v>-2.015350237271995</v>
       </c>
       <c r="AA12">
-        <v>-2.024600683635957</v>
+        <v>-2.038135601293797</v>
       </c>
       <c r="AB12">
-        <v>-2.026284296250484</v>
+        <v>-2.021868400850013</v>
       </c>
       <c r="AC12">
-        <v>-2.01824928476415</v>
+        <v>-2.02759574153422</v>
       </c>
       <c r="AD12">
-        <v>-2.033714884277577</v>
+        <v>-2.01753849860972</v>
       </c>
       <c r="AE12">
-        <v>-2.020169121069081</v>
+        <v>-2.03297216449055</v>
       </c>
       <c r="AF12">
-        <v>-2.026049487823169</v>
+        <v>-2.008845416512783</v>
       </c>
       <c r="AG12">
-        <v>-2.011549668962097</v>
+        <v>-2.033054054415321</v>
       </c>
       <c r="AH12">
-        <v>-2.015200040081936</v>
+        <v>-2.026269312149773</v>
       </c>
       <c r="AI12">
-        <v>-2.016982877429011</v>
+        <v>-2.014338667401352</v>
       </c>
       <c r="AJ12">
-        <v>-2.036792578710692</v>
+        <v>-1.995633730526604</v>
       </c>
       <c r="AK12">
-        <v>-2.030401294942295</v>
+        <v>-2.032364832907807</v>
       </c>
       <c r="AL12">
-        <v>-2.018411365045464</v>
+        <v>-2.039956278867338</v>
       </c>
       <c r="AM12">
-        <v>-2.05745235859693</v>
+        <v>-2.026357999867824</v>
       </c>
       <c r="AN12">
-        <v>-2.026667723453789</v>
+        <v>-2.024042837279913</v>
       </c>
       <c r="AO12">
-        <v>-2.007167137765889</v>
+        <v>-2.008969685329907</v>
       </c>
       <c r="AP12">
-        <v>-2.018922052829877</v>
+        <v>-2.027773644362939</v>
       </c>
       <c r="AQ12">
-        <v>-2.047858658405931</v>
+        <v>-2.037328698566036</v>
       </c>
       <c r="AR12">
-        <v>-2.005514916383161</v>
+        <v>-2.011571559713692</v>
       </c>
       <c r="AS12">
-        <v>-2.022698699593456</v>
+        <v>-2.034850969118096</v>
       </c>
       <c r="AT12">
-        <v>-2.032432437764061</v>
+        <v>-2.023204542315401</v>
       </c>
       <c r="AU12">
-        <v>-2.017339076054855</v>
+        <v>-2.026245263482349</v>
       </c>
       <c r="AV12">
-        <v>-2.023697521118729</v>
+        <v>-2.028370221242534</v>
       </c>
       <c r="AW12">
-        <v>-2.028986521704077</v>
+        <v>-2.017507942685168</v>
       </c>
       <c r="AX12">
-        <v>-2.018340888362455</v>
+        <v>-2.019320042560471</v>
       </c>
       <c r="AY12">
-        <v>-2.016067144423084</v>
+        <v>-2.030613513529784</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2261,154 +2261,154 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.396333124290374</v>
+        <v>-1.771423942177967</v>
       </c>
       <c r="C13">
-        <v>-1.423674456212344</v>
+        <v>-1.440045346956176</v>
       </c>
       <c r="D13">
-        <v>-1.450178028364054</v>
+        <v>-1.539092237572457</v>
       </c>
       <c r="E13">
-        <v>-1.911721853869344</v>
+        <v>-1.306441396723476</v>
       </c>
       <c r="F13">
-        <v>-1.421807983366675</v>
+        <v>-1.224243194068082</v>
       </c>
       <c r="G13">
-        <v>-1.389657506770762</v>
+        <v>-1.450114838022804</v>
       </c>
       <c r="H13">
-        <v>-1.489919537107047</v>
+        <v>-1.331913316021453</v>
       </c>
       <c r="I13">
-        <v>-1.356521511202212</v>
+        <v>-1.552879811530146</v>
       </c>
       <c r="J13">
-        <v>-1.682627121035804</v>
+        <v>-1.451412346451334</v>
       </c>
       <c r="K13">
-        <v>-1.390461558513473</v>
+        <v>-1.492106775336223</v>
       </c>
       <c r="L13">
-        <v>-1.360492239437758</v>
+        <v>-1.108000869254446</v>
       </c>
       <c r="M13">
-        <v>-1.587129502704177</v>
+        <v>-1.484845397317095</v>
       </c>
       <c r="N13">
-        <v>-1.37791078321948</v>
+        <v>-1.664576913296148</v>
       </c>
       <c r="O13">
-        <v>-1.381948688027399</v>
+        <v>-1.417998102330704</v>
       </c>
       <c r="P13">
-        <v>-1.728098292948007</v>
+        <v>-1.912216904259073</v>
       </c>
       <c r="Q13">
-        <v>-1.641024953369393</v>
+        <v>-1.507494949869328</v>
       </c>
       <c r="R13">
-        <v>-1.52473044411676</v>
+        <v>-1.37668216881115</v>
       </c>
       <c r="S13">
-        <v>-1.29479964402982</v>
+        <v>-1.288384888805694</v>
       </c>
       <c r="T13">
-        <v>-1.244161201603882</v>
+        <v>-1.462868728780158</v>
       </c>
       <c r="U13">
-        <v>-1.172336338829644</v>
+        <v>-1.548005423080448</v>
       </c>
       <c r="V13">
-        <v>-1.735680370399169</v>
+        <v>-1.769404275084966</v>
       </c>
       <c r="W13">
-        <v>-1.393587317420892</v>
+        <v>-1.511633697497628</v>
       </c>
       <c r="X13">
-        <v>-1.416787785921175</v>
+        <v>-1.367070913778327</v>
       </c>
       <c r="Y13">
-        <v>-1.308308434140618</v>
+        <v>-1.77328392706821</v>
       </c>
       <c r="Z13">
-        <v>-1.344952010327545</v>
+        <v>-1.24891890647489</v>
       </c>
       <c r="AA13">
-        <v>-1.120992466620449</v>
+        <v>-1.599822945348336</v>
       </c>
       <c r="AB13">
-        <v>-1.290669023969163</v>
+        <v>-1.695754824444097</v>
       </c>
       <c r="AC13">
-        <v>-1.315779000416074</v>
+        <v>-1.709657700804075</v>
       </c>
       <c r="AD13">
-        <v>-1.314554948709729</v>
+        <v>-1.384383388172944</v>
       </c>
       <c r="AE13">
-        <v>-1.5210209319546</v>
+        <v>-1.644319248016313</v>
       </c>
       <c r="AF13">
-        <v>-1.409088406223447</v>
+        <v>-1.465721500298384</v>
       </c>
       <c r="AG13">
-        <v>-1.503668159511091</v>
+        <v>-1.503394818428153</v>
       </c>
       <c r="AH13">
-        <v>-1.760669546997971</v>
+        <v>-1.493463873052643</v>
       </c>
       <c r="AI13">
-        <v>-1.923532581339035</v>
+        <v>-1.613221914043425</v>
       </c>
       <c r="AJ13">
-        <v>-1.96910273372245</v>
+        <v>-1.49977796847671</v>
       </c>
       <c r="AK13">
-        <v>-1.320251961739017</v>
+        <v>-1.72422519448448</v>
       </c>
       <c r="AL13">
-        <v>-1.577191189430991</v>
+        <v>-1.880023449415127</v>
       </c>
       <c r="AM13">
-        <v>-1.523977729629088</v>
+        <v>-1.557061977521996</v>
       </c>
       <c r="AN13">
-        <v>-1.67871183720188</v>
+        <v>-1.636432180959566</v>
       </c>
       <c r="AO13">
-        <v>-1.778681224262607</v>
+        <v>-1.628030439418614</v>
       </c>
       <c r="AP13">
-        <v>-1.631021780906165</v>
+        <v>-1.562529013425536</v>
       </c>
       <c r="AQ13">
-        <v>-1.433880714302585</v>
+        <v>-1.593750322920267</v>
       </c>
       <c r="AR13">
-        <v>-1.370989701235007</v>
+        <v>-1.561919894723504</v>
       </c>
       <c r="AS13">
-        <v>-1.559501587804924</v>
+        <v>-1.522500520113479</v>
       </c>
       <c r="AT13">
-        <v>-2.225620564058221</v>
+        <v>-1.552272593245381</v>
       </c>
       <c r="AU13">
-        <v>-1.82823292896206</v>
+        <v>-1.614451515092155</v>
       </c>
       <c r="AV13">
-        <v>-1.62829451635596</v>
+        <v>-1.855522181685785</v>
       </c>
       <c r="AW13">
-        <v>-1.665299259047106</v>
+        <v>-1.658610593505053</v>
       </c>
       <c r="AX13">
-        <v>-1.734313548483622</v>
+        <v>-1.539701422004415</v>
       </c>
       <c r="AY13">
-        <v>-1.759058624713834</v>
+        <v>-1.11847254915544</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2416,154 +2416,154 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.328270176003408</v>
+        <v>-1.702959199942318</v>
       </c>
       <c r="C14">
-        <v>-1.355083805702873</v>
+        <v>-1.371931344537846</v>
       </c>
       <c r="D14">
-        <v>-1.381475242962548</v>
+        <v>-1.470302308986392</v>
       </c>
       <c r="E14">
-        <v>-1.842819338510777</v>
+        <v>-1.237937636288291</v>
       </c>
       <c r="F14">
-        <v>-1.353437426404755</v>
+        <v>-1.155418539668591</v>
       </c>
       <c r="G14">
-        <v>-1.320761254488607</v>
+        <v>-1.382675391095178</v>
       </c>
       <c r="H14">
-        <v>-1.420154675876578</v>
+        <v>-1.262699604583351</v>
       </c>
       <c r="I14">
-        <v>-1.288286151352994</v>
+        <v>-1.484196432289442</v>
       </c>
       <c r="J14">
-        <v>-1.61398325395089</v>
+        <v>-1.383213932581916</v>
       </c>
       <c r="K14">
-        <v>-1.323186040428473</v>
+        <v>-1.425422078526718</v>
       </c>
       <c r="L14">
-        <v>-1.291470832815384</v>
+        <v>-1.03965115093471</v>
       </c>
       <c r="M14">
-        <v>-1.519656836301875</v>
+        <v>-1.417835066790006</v>
       </c>
       <c r="N14">
-        <v>-1.309855726201401</v>
+        <v>-1.595574079132742</v>
       </c>
       <c r="O14">
-        <v>-1.313949430457274</v>
+        <v>-1.349596704635875</v>
       </c>
       <c r="P14">
-        <v>-1.659516765838922</v>
+        <v>-1.843641716736943</v>
       </c>
       <c r="Q14">
-        <v>-1.573056749495158</v>
+        <v>-1.438808419130338</v>
       </c>
       <c r="R14">
-        <v>-1.456801714206186</v>
+        <v>-1.307743832015239</v>
       </c>
       <c r="S14">
-        <v>-1.226423690652875</v>
+        <v>-1.219748460485899</v>
       </c>
       <c r="T14">
-        <v>-1.175200380588479</v>
+        <v>-1.3943276694775</v>
       </c>
       <c r="U14">
-        <v>-1.105523307556884</v>
+        <v>-1.479670447477838</v>
       </c>
       <c r="V14">
-        <v>-1.667507597971163</v>
+        <v>-1.7010278488507</v>
       </c>
       <c r="W14">
-        <v>-1.325723721586197</v>
+        <v>-1.443423273884859</v>
       </c>
       <c r="X14">
-        <v>-1.349055764685642</v>
+        <v>-1.299260855738417</v>
       </c>
       <c r="Y14">
-        <v>-1.241113976931257</v>
+        <v>-1.70440187088556</v>
       </c>
       <c r="Z14">
-        <v>-1.275615976498815</v>
+        <v>-1.180904042278218</v>
       </c>
       <c r="AA14">
-        <v>-1.053188902457846</v>
+        <v>-1.530469514860573</v>
       </c>
       <c r="AB14">
-        <v>-1.22306541454861</v>
+        <v>-1.627004465401006</v>
       </c>
       <c r="AC14">
-        <v>-1.247685959308145</v>
+        <v>-1.640913791747985</v>
       </c>
       <c r="AD14">
-        <v>-1.24667891767825</v>
+        <v>-1.316373700128935</v>
       </c>
       <c r="AE14">
-        <v>-1.452705790516117</v>
+        <v>-1.575322789874731</v>
       </c>
       <c r="AF14">
-        <v>-1.340551489235279</v>
+        <v>-1.397154151130773</v>
       </c>
       <c r="AG14">
-        <v>-1.435775436565655</v>
+        <v>-1.435087420105764</v>
       </c>
       <c r="AH14">
-        <v>-1.692171918085267</v>
+        <v>-1.425269331157782</v>
       </c>
       <c r="AI14">
-        <v>-1.855315853029778</v>
+        <v>-1.545179354583872</v>
       </c>
       <c r="AJ14">
-        <v>-1.901632445229739</v>
+        <v>-1.431288551740486</v>
       </c>
       <c r="AK14">
-        <v>-1.252244025278697</v>
+        <v>-1.65520028155208</v>
       </c>
       <c r="AL14">
-        <v>-1.509112147868796</v>
+        <v>-1.811450895538746</v>
       </c>
       <c r="AM14">
-        <v>-1.454834773857673</v>
+        <v>-1.488592564699918</v>
       </c>
       <c r="AN14">
-        <v>-1.609711411930271</v>
+        <v>-1.568387639949927</v>
       </c>
       <c r="AO14">
-        <v>-1.710996752230063</v>
+        <v>-1.559246550563099</v>
       </c>
       <c r="AP14">
-        <v>-1.563312177862132</v>
+        <v>-1.49377676127536</v>
       </c>
       <c r="AQ14">
-        <v>-1.365420812649604</v>
+        <v>-1.524372941965245</v>
       </c>
       <c r="AR14">
-        <v>-1.302958581492944</v>
+        <v>-1.493364068572028</v>
       </c>
       <c r="AS14">
-        <v>-1.491185038682446</v>
+        <v>-1.453975678140758</v>
       </c>
       <c r="AT14">
-        <v>-2.157623504773726</v>
+        <v>-1.484066011228268</v>
       </c>
       <c r="AU14">
-        <v>-1.76051183722878</v>
+        <v>-1.545963490819878</v>
       </c>
       <c r="AV14">
-        <v>-1.560330617410497</v>
+        <v>-1.787226695589803</v>
       </c>
       <c r="AW14">
-        <v>-1.596318505482493</v>
+        <v>-1.590042234034576</v>
       </c>
       <c r="AX14">
-        <v>-1.666827959950984</v>
+        <v>-1.470362083239082</v>
       </c>
       <c r="AY14">
-        <v>-1.691035349921379</v>
+        <v>-1.049504109546029</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -2571,154 +2571,154 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.024461021132106</v>
+        <v>1.67061671800866</v>
       </c>
       <c r="C15">
-        <v>2.027989226927419</v>
+        <v>1.981496587455223</v>
       </c>
       <c r="D15">
-        <v>2.009267829725786</v>
+        <v>1.926421888479269</v>
       </c>
       <c r="E15">
-        <v>1.563627274738627</v>
+        <v>2.143946622531465</v>
       </c>
       <c r="F15">
-        <v>2.018125722779845</v>
+        <v>2.239599088073508</v>
       </c>
       <c r="G15">
-        <v>2.076603521796377</v>
+        <v>1.937200164969295</v>
       </c>
       <c r="H15">
-        <v>2.028917655501235</v>
+        <v>2.162662003359799</v>
       </c>
       <c r="I15">
-        <v>2.073707650104364</v>
+        <v>1.901989669506443</v>
       </c>
       <c r="J15">
-        <v>1.769958697385352</v>
+        <v>1.97703459304327</v>
       </c>
       <c r="K15">
-        <v>1.982244230133454</v>
+        <v>1.854731525150013</v>
       </c>
       <c r="L15">
-        <v>2.118225689410447</v>
+        <v>2.33738895816895</v>
       </c>
       <c r="M15">
-        <v>1.806488147409391</v>
+        <v>1.878009154671685</v>
       </c>
       <c r="N15">
-        <v>2.042473280940046</v>
+        <v>1.810558640309455</v>
       </c>
       <c r="O15">
-        <v>2.035700009064279</v>
+        <v>2.02450682819446</v>
       </c>
       <c r="P15">
-        <v>1.725751825233912</v>
+        <v>1.536694204893567</v>
       </c>
       <c r="Q15">
-        <v>1.777898069620401</v>
+        <v>1.951935396203577</v>
       </c>
       <c r="R15">
-        <v>1.893694932810616</v>
+        <v>2.094172712158957</v>
       </c>
       <c r="S15">
-        <v>2.144658842970185</v>
+        <v>2.167580128779809</v>
       </c>
       <c r="T15">
-        <v>2.221573329147069</v>
+        <v>1.986528552434538</v>
       </c>
       <c r="U15">
-        <v>2.181152521116549</v>
+        <v>1.889460361674687</v>
       </c>
       <c r="V15">
-        <v>1.695572386217157</v>
+        <v>1.672483550050637</v>
       </c>
       <c r="W15">
-        <v>2.01337696064836</v>
+        <v>1.923497694241063</v>
       </c>
       <c r="X15">
-        <v>1.983521930525781</v>
+        <v>2.038175526015882</v>
       </c>
       <c r="Y15">
-        <v>2.063406365666553</v>
+        <v>1.697022268398652</v>
       </c>
       <c r="Z15">
-        <v>2.155250247212384</v>
+        <v>2.169251899770032</v>
       </c>
       <c r="AA15">
-        <v>2.287498960474565</v>
+        <v>1.895151761934565</v>
       </c>
       <c r="AB15">
-        <v>2.107509998899689</v>
+        <v>1.772034648177312</v>
       </c>
       <c r="AC15">
-        <v>2.108381682251463</v>
+        <v>1.753012828676566</v>
       </c>
       <c r="AD15">
-        <v>2.098372487673173</v>
+        <v>2.033835965121916</v>
       </c>
       <c r="AE15">
-        <v>1.914593315871247</v>
+        <v>1.834083711260518</v>
       </c>
       <c r="AF15">
-        <v>2.040110949524259</v>
+        <v>1.983459579390861</v>
       </c>
       <c r="AG15">
-        <v>1.909385658241809</v>
+        <v>1.933906038800159</v>
       </c>
       <c r="AH15">
-        <v>1.684150155587845</v>
+        <v>1.936181596873794</v>
       </c>
       <c r="AI15">
-        <v>1.506049372299198</v>
+        <v>1.809394606369615</v>
       </c>
       <c r="AJ15">
-        <v>1.425126650716784</v>
+        <v>1.953417056592791</v>
       </c>
       <c r="AK15">
-        <v>2.100786999594792</v>
+        <v>1.756746499939347</v>
       </c>
       <c r="AL15">
-        <v>1.84624947491874</v>
+        <v>1.571651943792101</v>
       </c>
       <c r="AM15">
-        <v>1.956259161616245</v>
+        <v>1.889156608270731</v>
       </c>
       <c r="AN15">
-        <v>1.800267325648208</v>
+        <v>1.783150245861179</v>
       </c>
       <c r="AO15">
-        <v>1.624525039154407</v>
+        <v>1.840313490329155</v>
       </c>
       <c r="AP15">
-        <v>1.769888132717992</v>
+        <v>1.898133857557604</v>
       </c>
       <c r="AQ15">
-        <v>2.012998030336639</v>
+        <v>1.91122043978241</v>
       </c>
       <c r="AR15">
-        <v>2.046220012534332</v>
+        <v>1.891569449061252</v>
       </c>
       <c r="AS15">
-        <v>1.87906469055883</v>
+        <v>1.928007134650672</v>
       </c>
       <c r="AT15">
-        <v>1.192883208679644</v>
+        <v>1.876430615808631</v>
       </c>
       <c r="AU15">
-        <v>1.576472714245772</v>
+        <v>1.833076959007617</v>
       </c>
       <c r="AV15">
-        <v>1.787560208580165</v>
+        <v>1.580356357997296</v>
       </c>
       <c r="AW15">
-        <v>1.809904139791006</v>
+        <v>1.78651688157407</v>
       </c>
       <c r="AX15">
-        <v>1.656142893575974</v>
+        <v>1.952384875032164</v>
       </c>
       <c r="AY15">
-        <v>1.660576110949087</v>
+        <v>2.355878802958161</v>
       </c>
     </row>
     <row r="16" spans="1:51">

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3926884799901056</v>
+        <v>0.3926704299298265</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -417,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46.56458901274944</v>
+        <v>46.55842666749766</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>754.956455326225</v>
+        <v>786.0167343422662</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70.02171082017418</v>
+        <v>74.66105371942267</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24274.35383679992</v>
+        <v>27114.07624177271</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1014.12898751295</v>
+        <v>717.1778502335162</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2676.105054828653</v>
+        <v>-4516.862650499451</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>573.68019650797</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -473,7 +473,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4481.708132046158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -481,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-281.7516219764581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -489,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-8.462584097428477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -497,7 +497,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-4.331867352827375</v>
+        <v>-4.257500539288378</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -505,7 +505,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-4.272379989216633</v>
+        <v>-4.197837869044198</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -513,7 +513,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.001653981111466</v>
+        <v>-0.9167842205551707</v>
       </c>
     </row>
     <row r="16" spans="1:2">

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3946526129202626</v>
+        <v>0.3932967128533673</v>
       </c>
       <c r="C2">
-        <v>0.3952387319534083</v>
+        <v>0.3932686326796905</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46.31634813765749</v>
+        <v>46.49726342559706</v>
       </c>
       <c r="C3">
-        <v>46.25346912472433</v>
+        <v>46.47511601251295</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -434,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>750.8487555099849</v>
+        <v>784.3150448248834</v>
       </c>
       <c r="C4">
-        <v>788.0454387142456</v>
+        <v>768.0958233659899</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -445,10 +445,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70.1585917049462</v>
+        <v>74.00669165561996</v>
       </c>
       <c r="C5">
-        <v>73.48406918738939</v>
+        <v>69.63944639094011</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -456,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24277.70248803656</v>
+        <v>26761.72646928173</v>
       </c>
       <c r="C6">
-        <v>26536.48885322957</v>
+        <v>24257.03990173179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-80.25215923029786</v>
+        <v>1429.431154677279</v>
       </c>
       <c r="C7">
-        <v>171.887731025097</v>
+        <v>621.2752485717308</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -478,10 +478,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-3651.464561569092</v>
+        <v>-3025.400758141155</v>
       </c>
       <c r="C8">
-        <v>-2367.027505087493</v>
+        <v>-2294.361073026455</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>572.329534414885</v>
+        <v>591.764480210119</v>
       </c>
       <c r="C9">
-        <v>587.1328460306178</v>
+        <v>570.4199191675725</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -500,10 +500,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2289112419210406</v>
+        <v>5715.385805269532</v>
       </c>
       <c r="C10">
-        <v>1924.198460018377</v>
+        <v>4037.837422560364</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -511,10 +511,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-255.0813573676932</v>
+        <v>-1323.199424750249</v>
       </c>
       <c r="C11">
-        <v>-1245.622631966258</v>
+        <v>-920.0019485573762</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -522,10 +522,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-8.524344368749807</v>
+        <v>-8.574277861751865</v>
       </c>
       <c r="C12">
-        <v>-8.464155976759965</v>
+        <v>-8.528617959088542</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -533,10 +533,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-4.30769758289565</v>
+        <v>-4.064920892112379</v>
       </c>
       <c r="C13">
-        <v>-4.431139579826661</v>
+        <v>-4.430225685450358</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -544,10 +544,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-4.24741480547034</v>
+        <v>-4.005210337624942</v>
       </c>
       <c r="C14">
-        <v>-4.370851011598559</v>
+        <v>-4.370359767057744</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -555,10 +555,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.9253795391119966</v>
+        <v>-0.7196104714939836</v>
       </c>
       <c r="C15">
-        <v>-1.044992425200968</v>
+        <v>-1.077221730810721</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3932967128533673</v>
+        <v>0.3932893430561388</v>
       </c>
       <c r="C2">
-        <v>0.3932686326796905</v>
+        <v>0.392707584027212</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46.49726342559706</v>
+        <v>46.49187048396569</v>
       </c>
       <c r="C3">
-        <v>46.47511601251295</v>
+        <v>46.58285920086178</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -434,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>784.3150448248834</v>
+        <v>749.9267663892135</v>
       </c>
       <c r="C4">
-        <v>768.0958233659899</v>
+        <v>779.6498010712982</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -445,10 +445,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>74.00669165561996</v>
+        <v>69.30000297728797</v>
       </c>
       <c r="C5">
-        <v>69.63944639094011</v>
+        <v>73.20397039299054</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -456,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26761.72646928173</v>
+        <v>23825.80346679897</v>
       </c>
       <c r="C6">
-        <v>24257.03990173179</v>
+        <v>26321.73999868403</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1429.431154677279</v>
+        <v>800.55176196153</v>
       </c>
       <c r="C7">
-        <v>621.2752485717308</v>
+        <v>1629.884265411335</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -478,10 +478,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-3025.400758141155</v>
+        <v>-3323.033283483964</v>
       </c>
       <c r="C8">
-        <v>-2294.361073026455</v>
+        <v>-134.8684947084942</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>591.764480210119</v>
+        <v>573.5950408142635</v>
       </c>
       <c r="C9">
-        <v>570.4199191675725</v>
+        <v>585.9698573663768</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -500,10 +500,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5715.385805269532</v>
+        <v>3233.801199996195</v>
       </c>
       <c r="C10">
-        <v>4037.837422560364</v>
+        <v>5789.876948055387</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -511,10 +511,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1323.199424750249</v>
+        <v>-1200.982765475774</v>
       </c>
       <c r="C11">
-        <v>-920.0019485573762</v>
+        <v>-377.4169906115071</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -522,10 +522,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-8.574277861751865</v>
+        <v>-8.476519280220081</v>
       </c>
       <c r="C12">
-        <v>-8.528617959088542</v>
+        <v>-8.447478717021379</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -533,10 +533,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-4.064920892112379</v>
+        <v>-4.084752035566997</v>
       </c>
       <c r="C13">
-        <v>-4.430225685450358</v>
+        <v>-4.339545630489408</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -544,10 +544,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-4.005210337624942</v>
+        <v>-4.025304721551356</v>
       </c>
       <c r="C14">
-        <v>-4.370359767057744</v>
+        <v>-4.28022145767423</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -555,10 +555,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.7196104714939836</v>
+        <v>-0.7533606021254471</v>
       </c>
       <c r="C15">
-        <v>-1.077221730810721</v>
+        <v>-1.019443756518071</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3932893430561388</v>
+        <v>0.3968591891046255</v>
       </c>
       <c r="C2">
-        <v>0.392707584027212</v>
+        <v>0.3932745487300524</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46.49187048396569</v>
+        <v>46.08271915157921</v>
       </c>
       <c r="C3">
-        <v>46.58285920086178</v>
+        <v>46.46138267323168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -434,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>749.9267663892135</v>
+        <v>773.0656828242987</v>
       </c>
       <c r="C4">
-        <v>779.6498010712982</v>
+        <v>769.8464956551795</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -445,10 +445,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69.30000297728797</v>
+        <v>72.76409810354545</v>
       </c>
       <c r="C5">
-        <v>73.20397039299054</v>
+        <v>68.55733984940724</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -456,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23825.80346679897</v>
+        <v>25935.8031076495</v>
       </c>
       <c r="C6">
-        <v>26321.73999868403</v>
+        <v>23758.85461543648</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>800.55176196153</v>
+        <v>953.4433762394547</v>
       </c>
       <c r="C7">
-        <v>1629.884265411335</v>
+        <v>1313.62912996436</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -478,10 +478,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-3323.033283483964</v>
+        <v>-2333.170494236158</v>
       </c>
       <c r="C8">
-        <v>-134.8684947084942</v>
+        <v>98.07242789251477</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>573.5950408142635</v>
+        <v>582.295169670233</v>
       </c>
       <c r="C9">
-        <v>585.9698573663768</v>
+        <v>567.2022375458338</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -500,10 +500,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3233.801199996195</v>
+        <v>3360.526318588844</v>
       </c>
       <c r="C10">
-        <v>5789.876948055387</v>
+        <v>4179.677015473537</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -511,10 +511,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1200.982765475774</v>
+        <v>-1455.95198368039</v>
       </c>
       <c r="C11">
-        <v>-377.4169906115071</v>
+        <v>-403.9338758972591</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -522,10 +522,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-8.476519280220081</v>
+        <v>-8.438350680131276</v>
       </c>
       <c r="C12">
-        <v>-8.447478717021379</v>
+        <v>-8.406545210008485</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -533,10 +533,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-4.084752035566997</v>
+        <v>-4.345022509496995</v>
       </c>
       <c r="C13">
-        <v>-4.339545630489408</v>
+        <v>-4.493072200383833</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -544,10 +544,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-4.025304721551356</v>
+        <v>-4.283884224258766</v>
       </c>
       <c r="C14">
-        <v>-4.28022145767423</v>
+        <v>-4.433297209417767</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -555,10 +555,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.7533606021254471</v>
+        <v>-0.9031443591398607</v>
       </c>
       <c r="C15">
-        <v>-1.019443756518071</v>
+        <v>-1.141731157285696</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/Outputs/MonteCarlo_sim_outputs.xlsx
+++ b/Outputs/MonteCarlo_sim_outputs.xlsx
@@ -390,185 +390,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3968591891046255</v>
-      </c>
-      <c r="C2">
-        <v>0.3932745487300524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.3942291216328126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46.08271915157921</v>
-      </c>
-      <c r="C3">
-        <v>46.46138267323168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>46.36902648081137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>773.0656828242987</v>
-      </c>
-      <c r="C4">
-        <v>769.8464956551795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>784.2308943978041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72.76409810354545</v>
-      </c>
-      <c r="C5">
-        <v>68.55733984940724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>73.55231141483992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25935.8031076495</v>
-      </c>
-      <c r="C6">
-        <v>23758.85461543648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>26522.75395529192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>953.4433762394547</v>
-      </c>
-      <c r="C7">
-        <v>1313.62912996436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1686.062464413342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2333.170494236158</v>
-      </c>
-      <c r="C8">
-        <v>98.07242789251477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-1442.708327914368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>582.295169670233</v>
-      </c>
-      <c r="C9">
-        <v>567.2022375458338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>587.3023275902819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3360.526318588844</v>
-      </c>
-      <c r="C10">
-        <v>4179.677015473537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>6707.416755506715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1455.95198368039</v>
-      </c>
-      <c r="C11">
-        <v>-403.9338758972591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-521.403569126157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-8.438350680131276</v>
-      </c>
-      <c r="C12">
-        <v>-8.406545210008485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-8.574458099298266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-4.345022509496995</v>
-      </c>
-      <c r="C13">
-        <v>-4.493072200383833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-3.921765095485648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-4.283884224258766</v>
-      </c>
-      <c r="C14">
-        <v>-4.433297209417767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-3.861625337193634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.9031443591398607</v>
-      </c>
-      <c r="C15">
-        <v>-1.141731157285696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.5503710677441933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
         <v>2</v>
       </c>
     </row>
